--- a/FieryLedLampMultilingual/Language_all_lang.xlsx
+++ b/FieryLedLampMultilingual/Language_all_lang.xlsx
@@ -18,8 +18,8 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Фильтр 1" guid="{756D400F-2CFD-41DB-9C03-E2B34BBB318D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Фильтр 2" guid="{0FF40D07-A8D2-4C77-929F-4641FD6EAB78}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Фильтр 1" guid="{756D400F-2CFD-41DB-9C03-E2B34BBB318D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -254,9 +254,6 @@
     <t>S_VOLUM</t>
   </si>
   <si>
-    <t>Sound Volum</t>
-  </si>
-  <si>
     <t>Гучність</t>
   </si>
   <si>
@@ -2043,6 +2040,9 @@
   </si>
   <si>
     <t>Przywróć domyślne</t>
+  </si>
+  <si>
+    <t>Sound Volume</t>
   </si>
 </sst>
 </file>
@@ -2430,9 +2430,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I126" sqref="I126"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2961,24 +2961,24 @@
         <v>73</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="E13" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="F13" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>"S_VOLUM":"Sound Volum",</v>
+        <v>"S_VOLUM":"Sound Volume",</v>
       </c>
       <c r="I13" s="21" t="str">
         <f t="shared" si="1"/>
@@ -2999,22 +2999,22 @@
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="F14" s="19" t="s">
         <v>82</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="18" t="str">
@@ -3040,22 +3040,22 @@
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="C15" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="D15" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="E15" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="F15" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>89</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="18" t="str">
@@ -3092,22 +3092,22 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="C17" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="D17" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="E17" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="F17" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>95</v>
       </c>
       <c r="G17" s="20"/>
       <c r="H17" s="18" t="str">
@@ -3133,22 +3133,22 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="D18" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="E18" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="F18" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>101</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="18" t="str">
@@ -3174,22 +3174,22 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="C19" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="D19" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="E19" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="F19" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>107</v>
       </c>
       <c r="G19" s="20"/>
       <c r="H19" s="18" t="str">
@@ -3226,22 +3226,22 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="C21" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="D21" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="E21" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="F21" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="18" t="str">
@@ -3267,22 +3267,22 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="C22" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="D22" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="19" t="s">
+      <c r="F22" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>118</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="18" t="str">
@@ -3308,22 +3308,22 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="C23" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="D23" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="E23" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="F23" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>124</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="18" t="str">
@@ -3349,22 +3349,22 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="C24" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="D24" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="E24" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="F24" s="19" t="s">
         <v>129</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>130</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="18" t="str">
@@ -3390,22 +3390,22 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="C25" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="D25" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="E25" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="F25" s="19" t="s">
         <v>135</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>136</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="18" t="str">
@@ -3431,22 +3431,22 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="C26" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="D26" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="E26" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="F26" s="19" t="s">
         <v>141</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>142</v>
       </c>
       <c r="G26" s="20"/>
       <c r="H26" s="18" t="str">
@@ -3472,22 +3472,22 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="C27" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="D27" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="E27" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="F27" s="19" t="s">
         <v>147</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>148</v>
       </c>
       <c r="G27" s="20"/>
       <c r="H27" s="18" t="str">
@@ -3513,22 +3513,22 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="C28" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="D28" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="E28" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="F28" s="19" t="s">
         <v>153</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>154</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="18" t="str">
@@ -3554,22 +3554,22 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="C29" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="D29" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="E29" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="F29" s="19" t="s">
         <v>159</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>160</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="18" t="str">
@@ -3595,22 +3595,22 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="C30" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="D30" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="E30" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="F30" s="19" t="s">
         <v>165</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>166</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="18" t="str">
@@ -3636,22 +3636,22 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="C31" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="D31" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="E31" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="F31" s="19" t="s">
         <v>171</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>172</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="18" t="str">
@@ -3677,22 +3677,22 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="C32" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="D32" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="E32" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="F32" s="19" t="s">
         <v>177</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>178</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="18" t="str">
@@ -3718,22 +3718,22 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
       <c r="A33" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="C33" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="D33" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="E33" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="F33" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>184</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="18" t="str">
@@ -3759,22 +3759,22 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
       <c r="A34" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="C34" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="D34" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="E34" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="F34" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>190</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="18" t="str">
@@ -3800,22 +3800,22 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="C35" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="D35" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="E35" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="F35" s="19" t="s">
         <v>195</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>196</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="18" t="str">
@@ -3841,22 +3841,22 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="A36" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="C36" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="D36" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="E36" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="F36" s="19" t="s">
         <v>201</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>202</v>
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="18" t="str">
@@ -3882,22 +3882,22 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1">
       <c r="A37" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="C37" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="D37" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="E37" s="19" t="s">
+      <c r="F37" s="19" t="s">
         <v>206</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>207</v>
       </c>
       <c r="G37" s="20"/>
       <c r="H37" s="18" t="str">
@@ -3923,22 +3923,22 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
       <c r="A38" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="C38" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="D38" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="E38" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="F38" s="19" t="s">
         <v>212</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>213</v>
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="18" t="str">
@@ -3975,22 +3975,22 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1">
       <c r="A40" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="C40" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="D40" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="E40" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="F40" s="19" t="s">
         <v>218</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>219</v>
       </c>
       <c r="G40" s="20"/>
       <c r="H40" s="18" t="str">
@@ -4016,22 +4016,22 @@
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1">
       <c r="A41" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="C41" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="D41" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="E41" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="F41" s="19" t="s">
         <v>224</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>225</v>
       </c>
       <c r="G41" s="20"/>
       <c r="H41" s="18" t="str">
@@ -4057,22 +4057,22 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1">
       <c r="A42" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="C42" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="D42" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="E42" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="F42" s="19" t="s">
         <v>230</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>231</v>
       </c>
       <c r="G42" s="20"/>
       <c r="H42" s="18" t="str">
@@ -4098,22 +4098,22 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1">
       <c r="A43" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="C43" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="D43" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="E43" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="F43" s="19" t="s">
         <v>236</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>237</v>
       </c>
       <c r="G43" s="20"/>
       <c r="H43" s="18" t="str">
@@ -4150,22 +4150,22 @@
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1">
       <c r="A45" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B45" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="C45" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="D45" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="E45" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="F45" s="19" t="s">
         <v>242</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>243</v>
       </c>
       <c r="G45" s="20"/>
       <c r="H45" s="18" t="str">
@@ -4191,22 +4191,22 @@
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1">
       <c r="A46" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="C46" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="D46" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="E46" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="F46" s="19" t="s">
         <v>248</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>249</v>
       </c>
       <c r="G46" s="20"/>
       <c r="H46" s="18" t="str">
@@ -4232,22 +4232,22 @@
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1">
       <c r="A47" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="C47" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="D47" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="E47" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="F47" s="19" t="s">
         <v>254</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>255</v>
       </c>
       <c r="G47" s="20"/>
       <c r="H47" s="18" t="str">
@@ -4273,22 +4273,22 @@
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1">
       <c r="A48" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="C48" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="D48" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="E48" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="F48" s="19" t="s">
         <v>260</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>261</v>
       </c>
       <c r="G48" s="20"/>
       <c r="H48" s="18" t="str">
@@ -4325,22 +4325,22 @@
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1">
       <c r="A50" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="C50" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="D50" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="E50" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="F50" s="19" t="s">
         <v>266</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>267</v>
       </c>
       <c r="G50" s="20"/>
       <c r="H50" s="18" t="str">
@@ -4366,22 +4366,22 @@
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1">
       <c r="A51" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B51" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="C51" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="D51" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="E51" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="F51" s="19" t="s">
         <v>272</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>273</v>
       </c>
       <c r="G51" s="20"/>
       <c r="H51" s="18" t="str">
@@ -4407,22 +4407,22 @@
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1">
       <c r="A52" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="C52" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="D52" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="E52" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="F52" s="19" t="s">
         <v>278</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>279</v>
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="18" t="str">
@@ -4448,22 +4448,22 @@
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1">
       <c r="A53" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="C53" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="D53" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="E53" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="F53" s="19" t="s">
         <v>284</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>285</v>
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="18" t="str">
@@ -4489,22 +4489,22 @@
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1">
       <c r="A54" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="C54" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="D54" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="E54" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="F54" s="19" t="s">
         <v>290</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>291</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="18" t="str">
@@ -4530,22 +4530,22 @@
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1">
       <c r="A55" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="C55" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="D55" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="E55" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="F55" s="19" t="s">
         <v>296</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>297</v>
       </c>
       <c r="G55" s="20"/>
       <c r="H55" s="18" t="str">
@@ -4571,22 +4571,22 @@
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1">
       <c r="A56" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="C56" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="D56" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="E56" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="F56" s="19" t="s">
         <v>302</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>303</v>
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="18" t="str">
@@ -4612,22 +4612,22 @@
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1">
       <c r="A57" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="B57" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="C57" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="D57" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="E57" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="F57" s="19" t="s">
         <v>308</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>309</v>
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="18" t="str">
@@ -4653,22 +4653,22 @@
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1">
       <c r="A58" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="C58" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="D58" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="E58" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="D58" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="E58" s="19" t="s">
+      <c r="F58" s="19" t="s">
         <v>313</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>314</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="18" t="str">
@@ -4694,22 +4694,22 @@
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1">
       <c r="A59" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="C59" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="D59" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="E59" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="F59" s="19" t="s">
         <v>319</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>320</v>
       </c>
       <c r="G59" s="20"/>
       <c r="H59" s="18" t="str">
@@ -4735,22 +4735,22 @@
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1">
       <c r="A60" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="B60" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="C60" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="D60" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="E60" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="F60" s="19" t="s">
         <v>325</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>326</v>
       </c>
       <c r="G60" s="20"/>
       <c r="H60" s="18" t="str">
@@ -4776,22 +4776,22 @@
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1">
       <c r="A61" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B61" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="C61" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="D61" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="E61" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="F61" s="19" t="s">
         <v>331</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>332</v>
       </c>
       <c r="G61" s="20"/>
       <c r="H61" s="18" t="str">
@@ -4817,22 +4817,22 @@
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1">
       <c r="A62" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="B62" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="C62" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="D62" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="E62" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="F62" s="19" t="s">
         <v>337</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>338</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="18" t="str">
@@ -4858,22 +4858,22 @@
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1">
       <c r="A63" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="B63" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="C63" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="D63" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="E63" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="F63" s="19" t="s">
         <v>343</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>344</v>
       </c>
       <c r="G63" s="20"/>
       <c r="H63" s="18" t="str">
@@ -4899,22 +4899,22 @@
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1">
       <c r="A64" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="B64" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="C64" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="D64" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="E64" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="F64" s="19" t="s">
         <v>349</v>
-      </c>
-      <c r="F64" s="19" t="s">
-        <v>350</v>
       </c>
       <c r="G64" s="20"/>
       <c r="H64" s="18" t="str">
@@ -4940,22 +4940,22 @@
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1">
       <c r="A65" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="B65" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="C65" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="D65" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="E65" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="F65" s="19" t="s">
         <v>355</v>
-      </c>
-      <c r="F65" s="19" t="s">
-        <v>356</v>
       </c>
       <c r="G65" s="20"/>
       <c r="H65" s="18" t="str">
@@ -4981,22 +4981,22 @@
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1">
       <c r="A66" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="B66" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="C66" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="D66" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="E66" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="F66" s="19" t="s">
         <v>361</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>362</v>
       </c>
       <c r="G66" s="20"/>
       <c r="H66" s="18" t="str">
@@ -5022,22 +5022,22 @@
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1">
       <c r="A67" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="B67" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="C67" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="D67" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="E67" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="F67" s="19" t="s">
         <v>367</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>368</v>
       </c>
       <c r="G67" s="20"/>
       <c r="H67" s="18" t="str">
@@ -5063,22 +5063,22 @@
     </row>
     <row r="68" spans="1:12" ht="15.75" customHeight="1">
       <c r="A68" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="B68" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="C68" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="D68" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="E68" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="F68" s="19" t="s">
         <v>373</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>374</v>
       </c>
       <c r="G68" s="20"/>
       <c r="H68" s="18" t="str">
@@ -5104,22 +5104,22 @@
     </row>
     <row r="69" spans="1:12" ht="15.75" customHeight="1">
       <c r="A69" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B69" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="C69" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="D69" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="E69" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="F69" s="19" t="s">
         <v>379</v>
-      </c>
-      <c r="F69" s="19" t="s">
-        <v>380</v>
       </c>
       <c r="G69" s="20"/>
       <c r="H69" s="18" t="str">
@@ -5145,22 +5145,22 @@
     </row>
     <row r="70" spans="1:12" ht="15.75" customHeight="1">
       <c r="A70" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="B70" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="C70" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="D70" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="E70" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="F70" s="19" t="s">
         <v>385</v>
-      </c>
-      <c r="F70" s="19" t="s">
-        <v>386</v>
       </c>
       <c r="G70" s="20"/>
       <c r="H70" s="18" t="str">
@@ -5186,22 +5186,22 @@
     </row>
     <row r="71" spans="1:12" ht="15.75" customHeight="1">
       <c r="A71" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="B71" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="C71" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="D71" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="E71" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="F71" s="19" t="s">
         <v>391</v>
-      </c>
-      <c r="F71" s="19" t="s">
-        <v>392</v>
       </c>
       <c r="G71" s="20"/>
       <c r="H71" s="18" t="str">
@@ -5227,22 +5227,22 @@
     </row>
     <row r="72" spans="1:12" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A72" s="31" t="s">
+        <v>658</v>
+      </c>
+      <c r="B72" s="31" t="s">
         <v>659</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="C72" s="31" t="s">
         <v>660</v>
       </c>
-      <c r="C72" s="31" t="s">
-        <v>661</v>
-      </c>
       <c r="D72" s="18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E72" s="31" t="s">
+        <v>666</v>
+      </c>
+      <c r="F72" s="31" t="s">
         <v>667</v>
-      </c>
-      <c r="F72" s="31" t="s">
-        <v>668</v>
       </c>
       <c r="G72" s="20"/>
       <c r="H72" s="18" t="str">
@@ -5268,22 +5268,22 @@
     </row>
     <row r="73" spans="1:12" s="27" customFormat="1" ht="15.75" customHeight="1">
       <c r="A73" s="31" t="s">
+        <v>661</v>
+      </c>
+      <c r="B73" s="31" t="s">
         <v>662</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="C73" s="31" t="s">
         <v>663</v>
       </c>
-      <c r="C73" s="31" t="s">
-        <v>664</v>
-      </c>
       <c r="D73" s="18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E73" s="32" t="s">
+        <v>668</v>
+      </c>
+      <c r="F73" s="32" t="s">
         <v>669</v>
-      </c>
-      <c r="F73" s="32" t="s">
-        <v>670</v>
       </c>
       <c r="G73" s="20"/>
       <c r="H73" s="18" t="str">
@@ -5309,22 +5309,22 @@
     </row>
     <row r="74" spans="1:12" ht="15.75" customHeight="1">
       <c r="A74" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="B74" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="C74" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="D74" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="E74" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="D74" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="E74" s="19" t="s">
+      <c r="F74" s="19" t="s">
         <v>396</v>
-      </c>
-      <c r="F74" s="19" t="s">
-        <v>397</v>
       </c>
       <c r="G74" s="20"/>
       <c r="H74" s="18" t="str">
@@ -5361,22 +5361,22 @@
     </row>
     <row r="76" spans="1:12" ht="15.75" customHeight="1">
       <c r="A76" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="B76" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="C76" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="D76" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="E76" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="F76" s="19" t="s">
         <v>402</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>403</v>
       </c>
       <c r="G76" s="20"/>
       <c r="H76" s="18" t="str">
@@ -5402,22 +5402,22 @@
     </row>
     <row r="77" spans="1:12" ht="15.75" customHeight="1">
       <c r="A77" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="B77" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="C77" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="D77" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="E77" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="F77" s="19" t="s">
         <v>408</v>
-      </c>
-      <c r="F77" s="19" t="s">
-        <v>409</v>
       </c>
       <c r="G77" s="20"/>
       <c r="H77" s="18" t="str">
@@ -5443,22 +5443,22 @@
     </row>
     <row r="78" spans="1:12" ht="15.75" customHeight="1">
       <c r="A78" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="B78" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="C78" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="D78" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="E78" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="D78" s="18" t="s">
-        <v>412</v>
-      </c>
-      <c r="E78" s="19" t="s">
+      <c r="F78" s="19" t="s">
         <v>413</v>
-      </c>
-      <c r="F78" s="19" t="s">
-        <v>414</v>
       </c>
       <c r="G78" s="20"/>
       <c r="H78" s="18" t="str">
@@ -5484,22 +5484,22 @@
     </row>
     <row r="79" spans="1:12" ht="15.75" customHeight="1">
       <c r="A79" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="B79" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="C79" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="D79" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="E79" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="E79" s="19" t="s">
+      <c r="F79" s="19" t="s">
         <v>419</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>420</v>
       </c>
       <c r="G79" s="20"/>
       <c r="H79" s="18" t="str">
@@ -5525,22 +5525,22 @@
     </row>
     <row r="80" spans="1:12" ht="15.75" customHeight="1">
       <c r="A80" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="B80" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="C80" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="D80" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="E80" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="E80" s="24" t="s">
+      <c r="F80" s="19" t="s">
         <v>425</v>
-      </c>
-      <c r="F80" s="19" t="s">
-        <v>426</v>
       </c>
       <c r="G80" s="20"/>
       <c r="H80" s="18" t="str">
@@ -5566,22 +5566,22 @@
     </row>
     <row r="81" spans="1:12" ht="15.75" customHeight="1">
       <c r="A81" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="B81" s="18" t="s">
         <v>427</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="C81" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="D81" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="E81" s="19" t="s">
         <v>430</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="F81" s="19" t="s">
         <v>431</v>
-      </c>
-      <c r="F81" s="19" t="s">
-        <v>432</v>
       </c>
       <c r="G81" s="20"/>
       <c r="H81" s="18" t="str">
@@ -5607,22 +5607,22 @@
     </row>
     <row r="82" spans="1:12" ht="15.75" customHeight="1">
       <c r="A82" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="B82" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="C82" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="D82" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="E82" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="E82" s="19" t="s">
+      <c r="F82" s="19" t="s">
         <v>437</v>
-      </c>
-      <c r="F82" s="19" t="s">
-        <v>438</v>
       </c>
       <c r="G82" s="20"/>
       <c r="H82" s="18" t="str">
@@ -5648,22 +5648,22 @@
     </row>
     <row r="83" spans="1:12" ht="15.75" customHeight="1">
       <c r="A83" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="B83" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="C83" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="D83" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="E83" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="E83" s="19" t="s">
+      <c r="F83" s="19" t="s">
         <v>443</v>
-      </c>
-      <c r="F83" s="19" t="s">
-        <v>444</v>
       </c>
       <c r="G83" s="20"/>
       <c r="H83" s="18" t="str">
@@ -5689,22 +5689,22 @@
     </row>
     <row r="84" spans="1:12" ht="15.75" customHeight="1">
       <c r="A84" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="B84" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="C84" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="D84" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="E84" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="E84" s="19" t="s">
+      <c r="F84" s="19" t="s">
         <v>449</v>
-      </c>
-      <c r="F84" s="19" t="s">
-        <v>450</v>
       </c>
       <c r="G84" s="20"/>
       <c r="H84" s="18" t="str">
@@ -5730,22 +5730,22 @@
     </row>
     <row r="85" spans="1:12" ht="15.75" customHeight="1">
       <c r="A85" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="B85" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="C85" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="D85" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="E85" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="E85" s="19" t="s">
+      <c r="F85" s="19" t="s">
         <v>455</v>
-      </c>
-      <c r="F85" s="19" t="s">
-        <v>456</v>
       </c>
       <c r="G85" s="20"/>
       <c r="H85" s="18" t="str">
@@ -5771,22 +5771,22 @@
     </row>
     <row r="86" spans="1:12" ht="15.75" customHeight="1">
       <c r="A86" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="B86" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="C86" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="D86" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="E86" s="19" t="s">
         <v>460</v>
       </c>
-      <c r="E86" s="19" t="s">
+      <c r="F86" s="19" t="s">
         <v>461</v>
-      </c>
-      <c r="F86" s="19" t="s">
-        <v>462</v>
       </c>
       <c r="G86" s="20"/>
       <c r="H86" s="18" t="str">
@@ -5812,22 +5812,22 @@
     </row>
     <row r="87" spans="1:12" ht="15.75" customHeight="1">
       <c r="A87" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="B87" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="C87" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="D87" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="E87" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="E87" s="19" t="s">
+      <c r="F87" s="19" t="s">
         <v>467</v>
-      </c>
-      <c r="F87" s="19" t="s">
-        <v>468</v>
       </c>
       <c r="G87" s="20"/>
       <c r="H87" s="18" t="str">
@@ -5853,22 +5853,22 @@
     </row>
     <row r="88" spans="1:12" ht="15.75" customHeight="1">
       <c r="A88" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="B88" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="C88" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="D88" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="D88" s="18" t="s">
+      <c r="E88" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="E88" s="19" t="s">
+      <c r="F88" s="19" t="s">
         <v>473</v>
-      </c>
-      <c r="F88" s="19" t="s">
-        <v>474</v>
       </c>
       <c r="G88" s="20"/>
       <c r="H88" s="18" t="str">
@@ -5894,22 +5894,22 @@
     </row>
     <row r="89" spans="1:12" ht="15.75" customHeight="1">
       <c r="A89" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="B89" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="C89" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="D89" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="D89" s="18" t="s">
+      <c r="E89" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="E89" s="19" t="s">
+      <c r="F89" s="19" t="s">
         <v>479</v>
-      </c>
-      <c r="F89" s="19" t="s">
-        <v>480</v>
       </c>
       <c r="G89" s="20"/>
       <c r="H89" s="18" t="str">
@@ -5935,22 +5935,22 @@
     </row>
     <row r="90" spans="1:12" ht="15.75" customHeight="1">
       <c r="A90" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="B90" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="B90" s="18" t="s">
+      <c r="C90" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="D90" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="D90" s="18" t="s">
+      <c r="E90" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="E90" s="19" t="s">
+      <c r="F90" s="19" t="s">
         <v>485</v>
-      </c>
-      <c r="F90" s="19" t="s">
-        <v>486</v>
       </c>
       <c r="G90" s="20"/>
       <c r="H90" s="18" t="str">
@@ -5976,22 +5976,22 @@
     </row>
     <row r="91" spans="1:12" ht="15.75" customHeight="1">
       <c r="A91" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="B91" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="C91" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="D91" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="D91" s="18" t="s">
+      <c r="E91" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="E91" s="19" t="s">
+      <c r="F91" s="19" t="s">
         <v>491</v>
-      </c>
-      <c r="F91" s="19" t="s">
-        <v>492</v>
       </c>
       <c r="G91" s="20"/>
       <c r="H91" s="18" t="str">
@@ -6017,22 +6017,22 @@
     </row>
     <row r="92" spans="1:12" ht="15.75" customHeight="1">
       <c r="A92" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="B92" s="18" t="s">
         <v>493</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="C92" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="D92" s="18" t="s">
         <v>495</v>
       </c>
-      <c r="D92" s="18" t="s">
+      <c r="E92" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="E92" s="19" t="s">
+      <c r="F92" s="19" t="s">
         <v>497</v>
-      </c>
-      <c r="F92" s="19" t="s">
-        <v>498</v>
       </c>
       <c r="G92" s="20"/>
       <c r="H92" s="18" t="str">
@@ -6058,22 +6058,22 @@
     </row>
     <row r="93" spans="1:12" ht="15.75" customHeight="1">
       <c r="A93" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="B93" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="C93" s="18" t="s">
         <v>500</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="D93" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="D93" s="18" t="s">
+      <c r="E93" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="E93" s="19" t="s">
+      <c r="F93" s="19" t="s">
         <v>503</v>
-      </c>
-      <c r="F93" s="19" t="s">
-        <v>504</v>
       </c>
       <c r="G93" s="20"/>
       <c r="H93" s="18" t="str">
@@ -6099,22 +6099,22 @@
     </row>
     <row r="94" spans="1:12" ht="15.75" customHeight="1">
       <c r="A94" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="B94" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="C94" s="18" t="s">
         <v>506</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="D94" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="D94" s="18" t="s">
+      <c r="E94" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="E94" s="19" t="s">
+      <c r="F94" s="19" t="s">
         <v>509</v>
-      </c>
-      <c r="F94" s="19" t="s">
-        <v>510</v>
       </c>
       <c r="G94" s="20"/>
       <c r="H94" s="18" t="str">
@@ -6140,22 +6140,22 @@
     </row>
     <row r="95" spans="1:12" ht="15.75" customHeight="1">
       <c r="A95" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="B95" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="C95" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="D95" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="D95" s="18" t="s">
+      <c r="E95" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="E95" s="19" t="s">
+      <c r="F95" s="19" t="s">
         <v>515</v>
-      </c>
-      <c r="F95" s="19" t="s">
-        <v>516</v>
       </c>
       <c r="G95" s="20"/>
       <c r="H95" s="18" t="str">
@@ -6181,22 +6181,22 @@
     </row>
     <row r="96" spans="1:12" ht="15.75" customHeight="1">
       <c r="A96" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="B96" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="C96" s="18" t="s">
         <v>518</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="D96" s="18" t="s">
         <v>519</v>
       </c>
-      <c r="D96" s="18" t="s">
+      <c r="E96" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="E96" s="19" t="s">
+      <c r="F96" s="19" t="s">
         <v>521</v>
-      </c>
-      <c r="F96" s="19" t="s">
-        <v>522</v>
       </c>
       <c r="G96" s="20"/>
       <c r="H96" s="18" t="str">
@@ -6222,22 +6222,22 @@
     </row>
     <row r="97" spans="1:12" ht="15.75" customHeight="1">
       <c r="A97" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="B97" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="C97" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="D97" s="18" t="s">
         <v>525</v>
       </c>
-      <c r="D97" s="18" t="s">
+      <c r="E97" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="E97" s="19" t="s">
+      <c r="F97" s="19" t="s">
         <v>527</v>
-      </c>
-      <c r="F97" s="19" t="s">
-        <v>528</v>
       </c>
       <c r="G97" s="20"/>
       <c r="H97" s="18" t="str">
@@ -6263,22 +6263,22 @@
     </row>
     <row r="98" spans="1:12" ht="15.75" customHeight="1">
       <c r="A98" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="B98" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="C98" s="18" t="s">
         <v>530</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="D98" s="18" t="s">
         <v>531</v>
       </c>
-      <c r="D98" s="18" t="s">
+      <c r="E98" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="E98" s="19" t="s">
+      <c r="F98" s="19" t="s">
         <v>533</v>
-      </c>
-      <c r="F98" s="19" t="s">
-        <v>534</v>
       </c>
       <c r="G98" s="20"/>
       <c r="H98" s="18" t="str">
@@ -6304,22 +6304,22 @@
     </row>
     <row r="99" spans="1:12" ht="15.75" customHeight="1">
       <c r="A99" s="18" t="s">
+        <v>534</v>
+      </c>
+      <c r="B99" s="18" t="s">
         <v>535</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="C99" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="D99" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="D99" s="18" t="s">
+      <c r="E99" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="E99" s="23" t="s">
+      <c r="F99" s="19" t="s">
         <v>539</v>
-      </c>
-      <c r="F99" s="19" t="s">
-        <v>540</v>
       </c>
       <c r="G99" s="20"/>
       <c r="H99" s="18" t="str">
@@ -6345,22 +6345,22 @@
     </row>
     <row r="100" spans="1:12" ht="15.75" customHeight="1">
       <c r="A100" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="B100" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="C100" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="D100" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="D100" s="18" t="s">
+      <c r="E100" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="E100" s="19" t="s">
+      <c r="F100" s="19" t="s">
         <v>545</v>
-      </c>
-      <c r="F100" s="19" t="s">
-        <v>546</v>
       </c>
       <c r="G100" s="20"/>
       <c r="H100" s="18" t="str">
@@ -6386,22 +6386,22 @@
     </row>
     <row r="101" spans="1:12" ht="15.75" customHeight="1">
       <c r="A101" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="B101" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="C101" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="D101" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="D101" s="18" t="s">
+      <c r="E101" s="19" t="s">
         <v>550</v>
       </c>
-      <c r="E101" s="19" t="s">
+      <c r="F101" s="19" t="s">
         <v>551</v>
-      </c>
-      <c r="F101" s="19" t="s">
-        <v>552</v>
       </c>
       <c r="G101" s="20"/>
       <c r="H101" s="18" t="str">
@@ -6427,22 +6427,22 @@
     </row>
     <row r="102" spans="1:12" ht="15.75" customHeight="1">
       <c r="A102" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="B102" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="C102" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="D102" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="D102" s="18" t="s">
+      <c r="E102" s="19" t="s">
         <v>556</v>
       </c>
-      <c r="E102" s="19" t="s">
+      <c r="F102" s="19" t="s">
         <v>557</v>
-      </c>
-      <c r="F102" s="19" t="s">
-        <v>558</v>
       </c>
       <c r="G102" s="20"/>
       <c r="H102" s="18" t="str">
@@ -6468,22 +6468,22 @@
     </row>
     <row r="103" spans="1:12" ht="15.75" customHeight="1">
       <c r="A103" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="B103" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="C103" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="D103" s="18" t="s">
         <v>561</v>
       </c>
-      <c r="D103" s="18" t="s">
+      <c r="E103" s="19" t="s">
         <v>562</v>
       </c>
-      <c r="E103" s="19" t="s">
+      <c r="F103" s="19" t="s">
         <v>563</v>
-      </c>
-      <c r="F103" s="19" t="s">
-        <v>564</v>
       </c>
       <c r="G103" s="20"/>
       <c r="H103" s="18" t="str">
@@ -6509,22 +6509,22 @@
     </row>
     <row r="104" spans="1:12" ht="15.75" customHeight="1">
       <c r="A104" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="B104" s="18" t="s">
         <v>565</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="C104" s="18" t="s">
         <v>566</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="D104" s="18" t="s">
         <v>567</v>
       </c>
-      <c r="D104" s="18" t="s">
+      <c r="E104" s="19" t="s">
         <v>568</v>
       </c>
-      <c r="E104" s="19" t="s">
+      <c r="F104" s="19" t="s">
         <v>569</v>
-      </c>
-      <c r="F104" s="19" t="s">
-        <v>570</v>
       </c>
       <c r="G104" s="20"/>
       <c r="H104" s="18" t="str">
@@ -6550,22 +6550,22 @@
     </row>
     <row r="105" spans="1:12" ht="15.75" customHeight="1">
       <c r="A105" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="B105" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="C105" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="D105" s="18" t="s">
         <v>573</v>
       </c>
-      <c r="D105" s="18" t="s">
+      <c r="E105" s="19" t="s">
         <v>574</v>
       </c>
-      <c r="E105" s="19" t="s">
+      <c r="F105" s="19" t="s">
         <v>575</v>
-      </c>
-      <c r="F105" s="19" t="s">
-        <v>576</v>
       </c>
       <c r="G105" s="20"/>
       <c r="H105" s="18" t="str">
@@ -6591,22 +6591,22 @@
     </row>
     <row r="106" spans="1:12" ht="15.75" customHeight="1">
       <c r="A106" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="B106" s="18" t="s">
         <v>577</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="C106" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="D106" s="18" t="s">
         <v>579</v>
       </c>
-      <c r="D106" s="18" t="s">
+      <c r="E106" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="E106" s="19" t="s">
+      <c r="F106" s="19" t="s">
         <v>581</v>
-      </c>
-      <c r="F106" s="19" t="s">
-        <v>582</v>
       </c>
       <c r="G106" s="20"/>
       <c r="H106" s="18" t="str">
@@ -6632,22 +6632,22 @@
     </row>
     <row r="107" spans="1:12" ht="15.75" customHeight="1">
       <c r="A107" s="18" t="s">
+        <v>582</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="C107" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="B107" s="18" t="s">
-        <v>572</v>
-      </c>
-      <c r="C107" s="18" t="s">
+      <c r="D107" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="D107" s="18" t="s">
-        <v>585</v>
-      </c>
       <c r="E107" s="19" t="s">
+        <v>574</v>
+      </c>
+      <c r="F107" s="19" t="s">
         <v>575</v>
-      </c>
-      <c r="F107" s="19" t="s">
-        <v>576</v>
       </c>
       <c r="G107" s="20"/>
       <c r="H107" s="18" t="str">
@@ -6673,22 +6673,22 @@
     </row>
     <row r="108" spans="1:12" ht="15.75" customHeight="1">
       <c r="A108" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="B108" s="18" t="s">
         <v>586</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="C108" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="D108" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="D108" s="18" t="s">
+      <c r="E108" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="E108" s="19" t="s">
+      <c r="F108" s="19" t="s">
         <v>590</v>
-      </c>
-      <c r="F108" s="19" t="s">
-        <v>591</v>
       </c>
       <c r="G108" s="20"/>
       <c r="H108" s="18" t="str">
@@ -6714,22 +6714,22 @@
     </row>
     <row r="109" spans="1:12" ht="15.75" customHeight="1">
       <c r="A109" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="B109" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="C109" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="D109" s="18" t="s">
         <v>594</v>
       </c>
-      <c r="D109" s="18" t="s">
+      <c r="E109" s="19" t="s">
         <v>595</v>
       </c>
-      <c r="E109" s="19" t="s">
+      <c r="F109" s="19" t="s">
         <v>596</v>
-      </c>
-      <c r="F109" s="19" t="s">
-        <v>597</v>
       </c>
       <c r="G109" s="20"/>
       <c r="H109" s="18" t="str">
@@ -6755,22 +6755,22 @@
     </row>
     <row r="110" spans="1:12" ht="15.75" customHeight="1">
       <c r="A110" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="B110" s="18" t="s">
         <v>598</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="C110" s="18" t="s">
         <v>599</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="D110" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="D110" s="18" t="s">
+      <c r="E110" s="19" t="s">
         <v>601</v>
       </c>
-      <c r="E110" s="19" t="s">
+      <c r="F110" s="19" t="s">
         <v>602</v>
-      </c>
-      <c r="F110" s="19" t="s">
-        <v>603</v>
       </c>
       <c r="G110" s="20"/>
       <c r="H110" s="18" t="str">
@@ -6796,22 +6796,22 @@
     </row>
     <row r="111" spans="1:12" ht="15.75" customHeight="1">
       <c r="A111" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="B111" s="18" t="s">
         <v>604</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="C111" s="18" t="s">
         <v>605</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="D111" s="18" t="s">
         <v>606</v>
       </c>
-      <c r="D111" s="18" t="s">
+      <c r="E111" s="19" t="s">
         <v>607</v>
       </c>
-      <c r="E111" s="19" t="s">
+      <c r="F111" s="19" t="s">
         <v>608</v>
-      </c>
-      <c r="F111" s="19" t="s">
-        <v>609</v>
       </c>
       <c r="G111" s="20"/>
       <c r="H111" s="18" t="str">
@@ -6837,22 +6837,22 @@
     </row>
     <row r="112" spans="1:12" ht="15.75" customHeight="1">
       <c r="A112" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="B112" s="18" t="s">
         <v>610</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="C112" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="D112" s="18" t="s">
         <v>612</v>
       </c>
-      <c r="D112" s="18" t="s">
+      <c r="E112" s="19" t="s">
         <v>613</v>
       </c>
-      <c r="E112" s="19" t="s">
+      <c r="F112" s="19" t="s">
         <v>614</v>
-      </c>
-      <c r="F112" s="19" t="s">
-        <v>615</v>
       </c>
       <c r="G112" s="20"/>
       <c r="H112" s="18" t="str">
@@ -6878,22 +6878,22 @@
     </row>
     <row r="113" spans="1:12" ht="15.75" customHeight="1">
       <c r="A113" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="B113" s="18" t="s">
         <v>616</v>
       </c>
-      <c r="B113" s="18" t="s">
+      <c r="C113" s="18" t="s">
         <v>617</v>
       </c>
-      <c r="C113" s="18" t="s">
+      <c r="D113" s="18" t="s">
         <v>618</v>
       </c>
-      <c r="D113" s="18" t="s">
+      <c r="E113" s="19" t="s">
         <v>619</v>
       </c>
-      <c r="E113" s="19" t="s">
+      <c r="F113" s="19" t="s">
         <v>620</v>
-      </c>
-      <c r="F113" s="19" t="s">
-        <v>621</v>
       </c>
       <c r="G113" s="20"/>
       <c r="H113" s="18" t="str">
@@ -6919,22 +6919,22 @@
     </row>
     <row r="114" spans="1:12" ht="15.75" customHeight="1">
       <c r="A114" s="25" t="s">
+        <v>621</v>
+      </c>
+      <c r="B114" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="C114" s="18" t="s">
         <v>623</v>
       </c>
-      <c r="C114" s="18" t="s">
+      <c r="D114" s="18" t="s">
         <v>624</v>
       </c>
-      <c r="D114" s="18" t="s">
+      <c r="E114" s="19" t="s">
         <v>625</v>
       </c>
-      <c r="E114" s="19" t="s">
+      <c r="F114" s="19" t="s">
         <v>626</v>
-      </c>
-      <c r="F114" s="19" t="s">
-        <v>627</v>
       </c>
       <c r="G114" s="20"/>
       <c r="H114" s="18" t="str">
@@ -6960,22 +6960,22 @@
     </row>
     <row r="115" spans="1:12" ht="15.75" customHeight="1">
       <c r="A115" s="25" t="s">
+        <v>627</v>
+      </c>
+      <c r="B115" s="18" t="s">
         <v>628</v>
       </c>
-      <c r="B115" s="18" t="s">
+      <c r="C115" s="18" t="s">
         <v>629</v>
       </c>
-      <c r="C115" s="18" t="s">
+      <c r="D115" s="18" t="s">
         <v>630</v>
       </c>
-      <c r="D115" s="18" t="s">
+      <c r="E115" s="19" t="s">
         <v>631</v>
       </c>
-      <c r="E115" s="19" t="s">
+      <c r="F115" s="19" t="s">
         <v>632</v>
-      </c>
-      <c r="F115" s="19" t="s">
-        <v>633</v>
       </c>
       <c r="G115" s="20"/>
       <c r="H115" s="18" t="str">
@@ -7001,22 +7001,22 @@
     </row>
     <row r="116" spans="1:12" ht="15.75" customHeight="1">
       <c r="A116" s="25" t="s">
+        <v>633</v>
+      </c>
+      <c r="B116" s="18" t="s">
         <v>634</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="C116" s="18" t="s">
         <v>635</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="D116" s="18" t="s">
         <v>636</v>
       </c>
-      <c r="D116" s="18" t="s">
+      <c r="E116" s="19" t="s">
         <v>637</v>
       </c>
-      <c r="E116" s="19" t="s">
+      <c r="F116" s="19" t="s">
         <v>638</v>
-      </c>
-      <c r="F116" s="19" t="s">
-        <v>639</v>
       </c>
       <c r="G116" s="20"/>
       <c r="H116" s="18" t="str">
@@ -7042,22 +7042,22 @@
     </row>
     <row r="117" spans="1:12" ht="15.75" customHeight="1">
       <c r="A117" s="25" t="s">
+        <v>639</v>
+      </c>
+      <c r="B117" s="18" t="s">
         <v>640</v>
       </c>
-      <c r="B117" s="18" t="s">
+      <c r="C117" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="D117" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="D117" s="18" t="s">
+      <c r="E117" s="19" t="s">
         <v>643</v>
       </c>
-      <c r="E117" s="19" t="s">
+      <c r="F117" s="19" t="s">
         <v>644</v>
-      </c>
-      <c r="F117" s="19" t="s">
-        <v>645</v>
       </c>
       <c r="G117" s="20"/>
       <c r="H117" s="18" t="str">
@@ -7083,22 +7083,22 @@
     </row>
     <row r="118" spans="1:12" ht="15.75" customHeight="1">
       <c r="A118" s="25" t="s">
+        <v>645</v>
+      </c>
+      <c r="B118" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="C118" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="C118" s="18" t="s">
+      <c r="D118" s="18" t="s">
         <v>648</v>
       </c>
-      <c r="D118" s="18" t="s">
+      <c r="E118" s="19" t="s">
         <v>649</v>
       </c>
-      <c r="E118" s="19" t="s">
+      <c r="F118" s="19" t="s">
         <v>650</v>
-      </c>
-      <c r="F118" s="19" t="s">
-        <v>651</v>
       </c>
       <c r="G118" s="20"/>
       <c r="H118" s="18" t="str">
@@ -7124,22 +7124,22 @@
     </row>
     <row r="119" spans="1:12" ht="15.75" customHeight="1">
       <c r="A119" s="25" t="s">
+        <v>651</v>
+      </c>
+      <c r="B119" s="18" t="s">
         <v>652</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="C119" s="18" t="s">
         <v>653</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="D119" s="18" t="s">
         <v>654</v>
       </c>
-      <c r="D119" s="18" t="s">
+      <c r="E119" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="E119" s="19" t="s">
+      <c r="F119" s="19" t="s">
         <v>656</v>
-      </c>
-      <c r="F119" s="19" t="s">
-        <v>657</v>
       </c>
       <c r="G119" s="20"/>
       <c r="H119" s="18" t="str">
@@ -7174,19 +7174,19 @@
       <c r="F120" s="16"/>
       <c r="G120" s="17"/>
       <c r="H120" s="18" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I120" s="21" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J120" s="21" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K120" s="27" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L120" s="28" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="15.75" customHeight="1">
@@ -8109,15 +8109,6 @@
   </sheetData>
   <autoFilter ref="A1:N152"/>
   <customSheetViews>
-    <customSheetView guid="{756D400F-2CFD-41DB-9C03-E2B34BBB318D}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:L150"/>
-      <extLst>
-        <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="67239803"/>
-        </ext>
-      </extLst>
-    </customSheetView>
     <customSheetView guid="{0FF40D07-A8D2-4C77-929F-4641FD6EAB78}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A2:L150">
@@ -8239,6 +8230,15 @@
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="300842063"/>
+        </ext>
+      </extLst>
+    </customSheetView>
+    <customSheetView guid="{756D400F-2CFD-41DB-9C03-E2B34BBB318D}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:L150"/>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="67239803"/>
         </ext>
       </extLst>
     </customSheetView>

--- a/FieryLedLampMultilingual/Language_all_lang.xlsx
+++ b/FieryLedLampMultilingual/Language_all_lang.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$M$163</definedName>
-    <definedName name="Z_0FF40D07_A8D2_4C77_929F_4641FD6EAB78_.wvu.FilterData" localSheetId="0" hidden="1">Лист1!$A$2:$K$163</definedName>
-    <definedName name="Z_756D400F_2CFD_41DB_9C03_E2B34BBB318D_.wvu.FilterData" localSheetId="0" hidden="1">Лист1!$A$1:$K$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$M$166</definedName>
+    <definedName name="Z_0FF40D07_A8D2_4C77_929F_4641FD6EAB78_.wvu.FilterData" localSheetId="0" hidden="1">Лист1!$A$2:$K$166</definedName>
+    <definedName name="Z_756D400F_2CFD_41DB_9C03_E2B34BBB318D_.wvu.FilterData" localSheetId="0" hidden="1">Лист1!$A$1:$K$166</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <customWorkbookViews>
+    <customWorkbookView name="Фильтр 1" guid="{756D400F-2CFD-41DB-9C03-E2B34BBB318D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Фильтр 2" guid="{0FF40D07-A8D2-4C77-929F-4641FD6EAB78}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Фильтр 1" guid="{756D400F-2CFD-41DB-9C03-E2B34BBB318D}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="753">
   <si>
     <t>Variable</t>
   </si>
@@ -2235,6 +2235,60 @@
   </si>
   <si>
     <t>Periodicidad de visualización de texto sobre efectos 0-60 min. 0 - no salida. Más de 60 - para ver continuamente</t>
+  </si>
+  <si>
+    <t>Автоматичне зниження яскравості у нічний час на</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic reduction of brightness at night by </t>
+  </si>
+  <si>
+    <t>Reducción automática del brillo por la noche en un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatyczna redukcja jasności w nocy o </t>
+  </si>
+  <si>
+    <t>Réduction automatique de la luminosité la nuit de</t>
+  </si>
+  <si>
+    <t>AUTO_BRIGHTNESS</t>
+  </si>
+  <si>
+    <t>Передавати поточну папку озвучування</t>
+  </si>
+  <si>
+    <t>SEND_SOUND</t>
+  </si>
+  <si>
+    <t>Передавати тако ж озвучування_on/off та гучність</t>
+  </si>
+  <si>
+    <t>SEND_VOLUME</t>
+  </si>
+  <si>
+    <t>Caster le dossier audio actuel</t>
+  </si>
+  <si>
+    <t>Przesyłaj bieżący folder audio</t>
+  </si>
+  <si>
+    <t>Transmitir la carpeta de audio actual</t>
+  </si>
+  <si>
+    <t>Transmite encendido/apagado de audio y volumen también.</t>
+  </si>
+  <si>
+    <t>Włączanie/wyłączanie transmisji dźwięku i regulacja głośności</t>
+  </si>
+  <si>
+    <t>Transmettre également l'audio marche/arrêt et le volume</t>
+  </si>
+  <si>
+    <t>Send the current audio folder</t>
+  </si>
+  <si>
+    <t>Send audio on/off and volume as well</t>
   </si>
 </sst>
 </file>
@@ -2629,27 +2683,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB1012"/>
+  <dimension ref="A1:AB1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="87.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="77.85546875" customWidth="1"/>
-    <col min="3" max="3" width="93.140625" customWidth="1"/>
-    <col min="4" max="5" width="88.85546875" customWidth="1"/>
-    <col min="6" max="6" width="88.85546875" style="32" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" customWidth="1"/>
-    <col min="8" max="8" width="106.140625" customWidth="1"/>
-    <col min="9" max="9" width="118.28515625" customWidth="1"/>
-    <col min="10" max="10" width="45" customWidth="1"/>
-    <col min="11" max="11" width="55.28515625" customWidth="1"/>
-    <col min="12" max="12" width="55.28515625" style="25" customWidth="1"/>
-    <col min="13" max="28" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="87.7109375" style="32" customWidth="1"/>
+    <col min="7" max="7" width="1.85546875" customWidth="1"/>
+    <col min="12" max="12" width="87.7109375" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -2767,23 +2812,23 @@
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="16" t="str">
-        <f t="shared" ref="H3:H15" si="0">CONCATENATE("""",A3,"""",":","""",B3,"""",",")</f>
+        <f t="shared" ref="H3:H16" si="0">CONCATENATE("""",A3,"""",":","""",B3,"""",",")</f>
         <v>"MAIN":"Main",</v>
       </c>
       <c r="I3" s="19" t="str">
-        <f t="shared" ref="I3:I15" si="1">CONCATENATE("""",A3,"""",":","""",C3,"""",",")</f>
+        <f t="shared" ref="I3:I16" si="1">CONCATENATE("""",A3,"""",":","""",C3,"""",",")</f>
         <v>"MAIN":"Головна",</v>
       </c>
       <c r="J3" s="20" t="str">
-        <f>CONCATENATE("""",A3,"""",":","""",D3,"""",",")</f>
+        <f t="shared" ref="J3:J16" si="2">CONCATENATE("""",A3,"""",":","""",D3,"""",",")</f>
         <v>"MAIN":"Principal",</v>
       </c>
       <c r="K3" s="20" t="str">
-        <f>CONCATENATE("""",A3,"""",":","""",E3,"""",",")</f>
+        <f t="shared" ref="K3:K16" si="3">CONCATENATE("""",A3,"""",":","""",E3,"""",",")</f>
         <v>"MAIN":"Główny",</v>
       </c>
       <c r="L3" s="20" t="str">
-        <f>CONCATENATE("""",A3,"""",":","""",F3,"""",",")</f>
+        <f t="shared" ref="L3:L20" si="4">CONCATENATE("""",A3,"""",":","""",F3,"""",",")</f>
         <v>"MAIN":"Principal",</v>
       </c>
     </row>
@@ -2816,15 +2861,15 @@
         <v>"BRIGHTNESS":"Яскравість",</v>
       </c>
       <c r="J4" s="20" t="str">
-        <f>CONCATENATE("""",A4,"""",":","""",D4,"""",",")</f>
+        <f t="shared" si="2"/>
         <v>"BRIGHTNESS":"Brillo",</v>
       </c>
       <c r="K4" s="20" t="str">
-        <f>CONCATENATE("""",A4,"""",":","""",E4,"""",",")</f>
+        <f t="shared" si="3"/>
         <v>"BRIGHTNESS":"Jasność",</v>
       </c>
       <c r="L4" s="20" t="str">
-        <f>CONCATENATE("""",A4,"""",":","""",F4,"""",",")</f>
+        <f t="shared" si="4"/>
         <v>"BRIGHTNESS":"Luminosité",</v>
       </c>
     </row>
@@ -2857,15 +2902,15 @@
         <v>"SPEED":"Швидкість",</v>
       </c>
       <c r="J5" s="20" t="str">
-        <f>CONCATENATE("""",A5,"""",":","""",D5,"""",",")</f>
+        <f t="shared" si="2"/>
         <v>"SPEED":"Velocidad",</v>
       </c>
       <c r="K5" s="20" t="str">
-        <f>CONCATENATE("""",A5,"""",":","""",E5,"""",",")</f>
+        <f t="shared" si="3"/>
         <v>"SPEED":"Prędkość",</v>
       </c>
       <c r="L5" s="20" t="str">
-        <f>CONCATENATE("""",A5,"""",":","""",F5,"""",",")</f>
+        <f t="shared" si="4"/>
         <v>"SPEED":"La rapidité",</v>
       </c>
     </row>
@@ -2898,15 +2943,15 @@
         <v>"SCALE":"Масштаб / Колір",</v>
       </c>
       <c r="J6" s="20" t="str">
-        <f>CONCATENATE("""",A6,"""",":","""",D6,"""",",")</f>
+        <f t="shared" si="2"/>
         <v>"SCALE":"Escala / Color",</v>
       </c>
       <c r="K6" s="20" t="str">
-        <f>CONCATENATE("""",A6,"""",":","""",E6,"""",",")</f>
+        <f t="shared" si="3"/>
         <v>"SCALE":"Skala/kolor",</v>
       </c>
       <c r="L6" s="20" t="str">
-        <f>CONCATENATE("""",A6,"""",":","""",F6,"""",",")</f>
+        <f t="shared" si="4"/>
         <v>"SCALE":"Echelle / Couleur",</v>
       </c>
     </row>
@@ -2939,15 +2984,15 @@
         <v>"CUR_EFF_SET":"Налаштування поточного ефекту",</v>
       </c>
       <c r="J7" s="20" t="str">
-        <f>CONCATENATE("""",A7,"""",":","""",D7,"""",",")</f>
+        <f t="shared" si="2"/>
         <v>"CUR_EFF_SET":"Ajuste del efecto actual",</v>
       </c>
       <c r="K7" s="20" t="str">
-        <f>CONCATENATE("""",A7,"""",":","""",E7,"""",",")</f>
+        <f t="shared" si="3"/>
         <v>"CUR_EFF_SET":"Ustawianie bieżącego efektu",</v>
       </c>
       <c r="L7" s="20" t="str">
-        <f>CONCATENATE("""",A7,"""",":","""",F7,"""",",")</f>
+        <f t="shared" si="4"/>
         <v>"CUR_EFF_SET":"Réglage de l'effet actuel",</v>
       </c>
     </row>
@@ -2980,15 +3025,15 @@
         <v>"DEFAULT":"За замовчуванням",</v>
       </c>
       <c r="J8" s="20" t="str">
-        <f>CONCATENATE("""",A8,"""",":","""",D8,"""",",")</f>
+        <f t="shared" si="2"/>
         <v>"DEFAULT":"Defecto",</v>
       </c>
       <c r="K8" s="20" t="str">
-        <f>CONCATENATE("""",A8,"""",":","""",E8,"""",",")</f>
+        <f t="shared" si="3"/>
         <v>"DEFAULT":"Domyślna",</v>
       </c>
       <c r="L8" s="20" t="str">
-        <f>CONCATENATE("""",A8,"""",":","""",F8,"""",",")</f>
+        <f t="shared" si="4"/>
         <v>"DEFAULT":"Défaut",</v>
       </c>
     </row>
@@ -3021,15 +3066,15 @@
         <v>"RANDOM":"Випадкові",</v>
       </c>
       <c r="J9" s="20" t="str">
-        <f>CONCATENATE("""",A9,"""",":","""",D9,"""",",")</f>
+        <f t="shared" si="2"/>
         <v>"RANDOM":"Aleatorio",</v>
       </c>
       <c r="K9" s="20" t="str">
-        <f>CONCATENATE("""",A9,"""",":","""",E9,"""",",")</f>
+        <f t="shared" si="3"/>
         <v>"RANDOM":"Losowy",</v>
       </c>
       <c r="L9" s="20" t="str">
-        <f>CONCATENATE("""",A9,"""",":","""",F9,"""",",")</f>
+        <f t="shared" si="4"/>
         <v>"RANDOM":"Aléatoire",</v>
       </c>
     </row>
@@ -3062,15 +3107,15 @@
         <v>"USER_SET":"Налаштування користувача",</v>
       </c>
       <c r="J10" s="20" t="str">
-        <f>CONCATENATE("""",A10,"""",":","""",D10,"""",",")</f>
+        <f t="shared" si="2"/>
         <v>"USER_SET":"Ajustes de usuario",</v>
       </c>
       <c r="K10" s="20" t="str">
-        <f>CONCATENATE("""",A10,"""",":","""",E10,"""",",")</f>
+        <f t="shared" si="3"/>
         <v>"USER_SET":"Ustawienia użytkownika",</v>
       </c>
       <c r="L10" s="20" t="str">
-        <f>CONCATENATE("""",A10,"""",":","""",F10,"""",",")</f>
+        <f t="shared" si="4"/>
         <v>"USER_SET":"Paramètres utilisateur",</v>
       </c>
     </row>
@@ -3103,15 +3148,15 @@
         <v>"INIT_SET":"Початкові установки",</v>
       </c>
       <c r="J11" s="20" t="str">
-        <f>CONCATENATE("""",A11,"""",":","""",D11,"""",",")</f>
+        <f t="shared" si="2"/>
         <v>"INIT_SET":"Ajustes iniciales",</v>
       </c>
       <c r="K11" s="20" t="str">
-        <f>CONCATENATE("""",A11,"""",":","""",E11,"""",",")</f>
+        <f t="shared" si="3"/>
         <v>"INIT_SET":"Ustawienia początkowe",</v>
       </c>
       <c r="L11" s="20" t="str">
-        <f>CONCATENATE("""",A11,"""",":","""",F11,"""",",")</f>
+        <f t="shared" si="4"/>
         <v>"INIT_SET":"Paramètres initiaux",</v>
       </c>
     </row>
@@ -3144,15 +3189,15 @@
         <v>"SOUND_ON":"Увімкнути звук",</v>
       </c>
       <c r="J12" s="20" t="str">
-        <f>CONCATENATE("""",A12,"""",":","""",D12,"""",",")</f>
+        <f t="shared" si="2"/>
         <v>"SOUND_ON":"enciende el sonido",</v>
       </c>
       <c r="K12" s="20" t="str">
-        <f>CONCATENATE("""",A12,"""",":","""",E12,"""",",")</f>
+        <f t="shared" si="3"/>
         <v>"SOUND_ON":"Włącz dźwięk",</v>
       </c>
       <c r="L12" s="20" t="str">
-        <f>CONCATENATE("""",A12,"""",":","""",F12,"""",",")</f>
+        <f t="shared" si="4"/>
         <v>"SOUND_ON":"Allume le son",</v>
       </c>
     </row>
@@ -3185,15 +3230,15 @@
         <v>"S_VOLUM":"Гучність",</v>
       </c>
       <c r="J13" s="20" t="str">
-        <f>CONCATENATE("""",A13,"""",":","""",D13,"""",",")</f>
+        <f t="shared" si="2"/>
         <v>"S_VOLUM":"Volumen de sonido",</v>
       </c>
       <c r="K13" s="20" t="str">
-        <f>CONCATENATE("""",A13,"""",":","""",E13,"""",",")</f>
+        <f t="shared" si="3"/>
         <v>"S_VOLUM":"Głośność dźwięku",</v>
       </c>
       <c r="L13" s="20" t="str">
-        <f>CONCATENATE("""",A13,"""",":","""",F13,"""",",")</f>
+        <f t="shared" si="4"/>
         <v>"S_VOLUM":"Volume sonore",</v>
       </c>
     </row>
@@ -3226,15 +3271,15 @@
         <v>"FOLDER":"Папка",</v>
       </c>
       <c r="J14" s="20" t="str">
-        <f>CONCATENATE("""",A14,"""",":","""",D14,"""",",")</f>
+        <f t="shared" si="2"/>
         <v>"FOLDER":"Carpeta",</v>
       </c>
       <c r="K14" s="20" t="str">
-        <f>CONCATENATE("""",A14,"""",":","""",E14,"""",",")</f>
+        <f t="shared" si="3"/>
         <v>"FOLDER":"Teczka",</v>
       </c>
       <c r="L14" s="20" t="str">
-        <f>CONCATENATE("""",A14,"""",":","""",F14,"""",",")</f>
+        <f t="shared" si="4"/>
         <v>"FOLDER":"Dossier",</v>
       </c>
     </row>
@@ -3267,4596 +3312,4713 @@
         <v>"ALT_PANEL":"Альтернативна панель керування",</v>
       </c>
       <c r="J15" s="20" t="str">
-        <f>CONCATENATE("""",A15,"""",":","""",D15,"""",",")</f>
+        <f t="shared" si="2"/>
         <v>"ALT_PANEL":"Panel de control alternativo",</v>
       </c>
       <c r="K15" s="20" t="str">
-        <f>CONCATENATE("""",A15,"""",":","""",E15,"""",",")</f>
+        <f t="shared" si="3"/>
         <v>"ALT_PANEL":"Alternatywny panel sterowania",</v>
       </c>
       <c r="L15" s="20" t="str">
-        <f>CONCATENATE("""",A15,"""",":","""",F15,"""",",")</f>
+        <f t="shared" si="4"/>
         <v>"ALT_PANEL":"Panneau de contrôle alternatif",</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-      <c r="J16" s="20"/>
+    <row r="16" spans="1:28" s="25" customFormat="1">
+      <c r="A16" s="16" t="s">
+        <v>740</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>736</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>735</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>737</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>738</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>739</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>"AUTO_BRIGHTNESS":"Automatic reduction of brightness at night by ",</v>
+      </c>
+      <c r="I16" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>"AUTO_BRIGHTNESS":"Автоматичне зниження яскравості у нічний час на",</v>
+      </c>
+      <c r="J16" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>"AUTO_BRIGHTNESS":"Reducción automática del brillo por la noche en un",</v>
+      </c>
+      <c r="K16" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>"AUTO_BRIGHTNESS":"Automatyczna redukcja jasności w nocy o ",</v>
+      </c>
       <c r="L16" s="20" t="str">
-        <f>CONCATENATE("""",A16,"""",":","""",F16,"""",",")</f>
-        <v>"":"",</v>
+        <f t="shared" si="4"/>
+        <v>"AUTO_BRIGHTNESS":"Réduction automatique de la luminosité la nuit de",</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>586</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="16" t="str">
-        <f t="shared" ref="H17:H19" si="2">CONCATENATE("""",A17,"""",":","""",B17,"""",",")</f>
-        <v>"LAMP_OFF_ON":"'Lamp OFF':'Lamp ON'",</v>
-      </c>
-      <c r="I17" s="19" t="str">
-        <f t="shared" ref="I17:I19" si="3">CONCATENATE("""",A17,"""",":","""",C17,"""",",")</f>
-        <v>"LAMP_OFF_ON":"'Лампа ВІДКЛ':'Лампа ВКЛ'",</v>
-      </c>
-      <c r="J17" s="20" t="str">
-        <f>CONCATENATE("""",A17,"""",":","""",D17,"""",",")</f>
-        <v>"LAMP_OFF_ON":"Lámpara APAGADA': 'Lámpara ENCENDIDA'",</v>
-      </c>
-      <c r="K17" s="20" t="str">
-        <f>CONCATENATE("""",A17,"""",":","""",E17,"""",",")</f>
-        <v>"LAMP_OFF_ON":"„Lampa wyłączona”: „Lampa włączona”",</v>
-      </c>
-      <c r="L17" s="20" t="str">
-        <f>CONCATENATE("""",A17,"""",":","""",F17,"""",",")</f>
-        <v>"LAMP_OFF_ON":" 'Lampe éteinte' : 'Lampe allumée'",</v>
-      </c>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="J17" s="20"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>"CYCLE_OFF_ON":"'Cycle OFF':'Cycle ON'",</v>
+        <f t="shared" ref="H18:H20" si="5">CONCATENATE("""",A18,"""",":","""",B18,"""",",")</f>
+        <v>"LAMP_OFF_ON":"'Lamp OFF':'Lamp ON'",</v>
       </c>
       <c r="I18" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>"CYCLE_OFF_ON":"'Цикл ВІДКЛ':'Цикл ВКЛ'",</v>
+        <f t="shared" ref="I18:I20" si="6">CONCATENATE("""",A18,"""",":","""",C18,"""",",")</f>
+        <v>"LAMP_OFF_ON":"'Лампа ВІДКЛ':'Лампа ВКЛ'",</v>
       </c>
       <c r="J18" s="20" t="str">
         <f>CONCATENATE("""",A18,"""",":","""",D18,"""",",")</f>
-        <v>"CYCLE_OFF_ON":"Ciclo APAGADO': 'Ciclo ENCENDIDO'",</v>
+        <v>"LAMP_OFF_ON":"Lámpara APAGADA': 'Lámpara ENCENDIDA'",</v>
       </c>
       <c r="K18" s="20" t="str">
         <f>CONCATENATE("""",A18,"""",":","""",E18,"""",",")</f>
-        <v>"CYCLE_OFF_ON":"„Cykl WYŁ”: „Cykl WŁ”",</v>
+        <v>"LAMP_OFF_ON":"„Lampa wyłączona”: „Lampa włączona”",</v>
       </c>
       <c r="L18" s="20" t="str">
-        <f>CONCATENATE("""",A18,"""",":","""",F18,"""",",")</f>
-        <v>"CYCLE_OFF_ON":" 'Cycle OFF':'Cycle ON'",</v>
+        <f t="shared" si="4"/>
+        <v>"LAMP_OFF_ON":" 'Lampe éteinte' : 'Lampe allumée'",</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="16" t="str">
-        <f t="shared" si="2"/>
-        <v>"OTHER_USE_SET":"Other user settings",</v>
+        <f t="shared" si="5"/>
+        <v>"CYCLE_OFF_ON":"'Cycle OFF':'Cycle ON'",</v>
       </c>
       <c r="I19" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>"OTHER_USE_SET":"Інші налаштування користувача",</v>
+        <f t="shared" si="6"/>
+        <v>"CYCLE_OFF_ON":"'Цикл ВІДКЛ':'Цикл ВКЛ'",</v>
       </c>
       <c r="J19" s="20" t="str">
         <f>CONCATENATE("""",A19,"""",":","""",D19,"""",",")</f>
-        <v>"OTHER_USE_SET":"Otras configuraciones de usuario",</v>
+        <v>"CYCLE_OFF_ON":"Ciclo APAGADO': 'Ciclo ENCENDIDO'",</v>
       </c>
       <c r="K19" s="20" t="str">
         <f>CONCATENATE("""",A19,"""",":","""",E19,"""",",")</f>
+        <v>"CYCLE_OFF_ON":"„Cykl WYŁ”: „Cykl WŁ”",</v>
+      </c>
+      <c r="L19" s="20" t="str">
+        <f t="shared" si="4"/>
+        <v>"CYCLE_OFF_ON":" 'Cycle OFF':'Cycle ON'",</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>"OTHER_USE_SET":"Other user settings",</v>
+      </c>
+      <c r="I20" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v>"OTHER_USE_SET":"Інші налаштування користувача",</v>
+      </c>
+      <c r="J20" s="20" t="str">
+        <f>CONCATENATE("""",A20,"""",":","""",D20,"""",",")</f>
+        <v>"OTHER_USE_SET":"Otras configuraciones de usuario",</v>
+      </c>
+      <c r="K20" s="20" t="str">
+        <f>CONCATENATE("""",A20,"""",":","""",E20,"""",",")</f>
         <v>"OTHER_USE_SET":"Inne ustawienia użytkownika",</v>
       </c>
-      <c r="L19" s="20" t="str">
-        <f>CONCATENATE("""",A19,"""",":","""",F19,"""",",")</f>
+      <c r="L20" s="20" t="str">
+        <f t="shared" si="4"/>
         <v>"OTHER_USE_SET":"Autres paramètres utilisateur",</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="J20" s="20"/>
-      <c r="L20" s="20"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A21" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>589</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="16" t="str">
-        <f t="shared" ref="H21:H38" si="4">CONCATENATE("""",A21,"""",":","""",B21,"""",",")</f>
-        <v>"ALARM_SET":"Setting the alarm clock 'Dawn'",</v>
-      </c>
-      <c r="I21" s="19" t="str">
-        <f t="shared" ref="I21:I38" si="5">CONCATENATE("""",A21,"""",":","""",C21,"""",",")</f>
-        <v>"ALARM_SET":"Установка будильника 'Світанок'",</v>
-      </c>
-      <c r="J21" s="20" t="str">
-        <f>CONCATENATE("""",A21,"""",":","""",D21,"""",",")</f>
-        <v>"ALARM_SET":"Configuración del despertador 'Amanecer'",</v>
-      </c>
-      <c r="K21" s="20" t="str">
-        <f>CONCATENATE("""",A21,"""",":","""",E21,"""",",")</f>
-        <v>"ALARM_SET":"Ustawianie budzika „Świt”",</v>
-      </c>
-      <c r="L21" s="20" t="str">
-        <f>CONCATENATE("""",A21,"""",":","""",F21,"""",",")</f>
-        <v>"ALARM_SET":"Réglage du réveil 'Dawn'",</v>
-      </c>
+    <row r="21" spans="1:12">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="J21" s="20"/>
+      <c r="L21" s="20"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>"BACK":"Back",</v>
+        <f t="shared" ref="H22:H39" si="7">CONCATENATE("""",A22,"""",":","""",B22,"""",",")</f>
+        <v>"ALARM_SET":"Setting the alarm clock 'Dawn'",</v>
       </c>
       <c r="I22" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>"BACK":"Назад",</v>
+        <f t="shared" ref="I22:I39" si="8">CONCATENATE("""",A22,"""",":","""",C22,"""",",")</f>
+        <v>"ALARM_SET":"Установка будильника 'Світанок'",</v>
       </c>
       <c r="J22" s="20" t="str">
-        <f>CONCATENATE("""",A22,"""",":","""",D22,"""",",")</f>
-        <v>"BACK":"atrás",</v>
+        <f t="shared" ref="J22:J39" si="9">CONCATENATE("""",A22,"""",":","""",D22,"""",",")</f>
+        <v>"ALARM_SET":"Configuración del despertador 'Amanecer'",</v>
       </c>
       <c r="K22" s="20" t="str">
-        <f>CONCATENATE("""",A22,"""",":","""",E22,"""",",")</f>
-        <v>"BACK":"Z powrotem",</v>
+        <f t="shared" ref="K22:K39" si="10">CONCATENATE("""",A22,"""",":","""",E22,"""",",")</f>
+        <v>"ALARM_SET":"Ustawianie budzika „Świt”",</v>
       </c>
       <c r="L22" s="20" t="str">
-        <f>CONCATENATE("""",A22,"""",":","""",F22,"""",",")</f>
-        <v>"BACK":"Retour",</v>
+        <f t="shared" ref="L22:L39" si="11">CONCATENATE("""",A22,"""",":","""",F22,"""",",")</f>
+        <v>"ALARM_SET":"Réglage du réveil 'Dawn'",</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G23" s="18"/>
       <c r="H23" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>"MON":"Monday",</v>
+        <f t="shared" si="7"/>
+        <v>"BACK":"Back",</v>
       </c>
       <c r="I23" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>"MON":"Понеділок",</v>
+        <f t="shared" si="8"/>
+        <v>"BACK":"Назад",</v>
       </c>
       <c r="J23" s="20" t="str">
-        <f>CONCATENATE("""",A23,"""",":","""",D23,"""",",")</f>
-        <v>"MON":"Lunes",</v>
+        <f t="shared" si="9"/>
+        <v>"BACK":"atrás",</v>
       </c>
       <c r="K23" s="20" t="str">
-        <f>CONCATENATE("""",A23,"""",":","""",E23,"""",",")</f>
-        <v>"MON":"Poniedziałek",</v>
+        <f t="shared" si="10"/>
+        <v>"BACK":"Z powrotem",</v>
       </c>
       <c r="L23" s="20" t="str">
-        <f>CONCATENATE("""",A23,"""",":","""",F23,"""",",")</f>
-        <v>"MON":"Lundi",</v>
+        <f t="shared" si="11"/>
+        <v>"BACK":"Retour",</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>"TUES":"Tuesday",</v>
+        <f t="shared" si="7"/>
+        <v>"MON":"Monday",</v>
       </c>
       <c r="I24" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>"TUES":"Вівторок",</v>
+        <f t="shared" si="8"/>
+        <v>"MON":"Понеділок",</v>
       </c>
       <c r="J24" s="20" t="str">
-        <f>CONCATENATE("""",A24,"""",":","""",D24,"""",",")</f>
-        <v>"TUES":"martes",</v>
+        <f t="shared" si="9"/>
+        <v>"MON":"Lunes",</v>
       </c>
       <c r="K24" s="20" t="str">
-        <f>CONCATENATE("""",A24,"""",":","""",E24,"""",",")</f>
-        <v>"TUES":"Wtorek",</v>
+        <f t="shared" si="10"/>
+        <v>"MON":"Poniedziałek",</v>
       </c>
       <c r="L24" s="20" t="str">
-        <f>CONCATENATE("""",A24,"""",":","""",F24,"""",",")</f>
-        <v>"TUES":"Mardi",</v>
+        <f t="shared" si="11"/>
+        <v>"MON":"Lundi",</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G25" s="18"/>
       <c r="H25" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>"WEDNES":"Wednesday",</v>
+        <f t="shared" si="7"/>
+        <v>"TUES":"Tuesday",</v>
       </c>
       <c r="I25" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>"WEDNES":"Середа",</v>
+        <f t="shared" si="8"/>
+        <v>"TUES":"Вівторок",</v>
       </c>
       <c r="J25" s="20" t="str">
-        <f>CONCATENATE("""",A25,"""",":","""",D25,"""",",")</f>
-        <v>"WEDNES":"miércoles",</v>
+        <f t="shared" si="9"/>
+        <v>"TUES":"martes",</v>
       </c>
       <c r="K25" s="20" t="str">
-        <f>CONCATENATE("""",A25,"""",":","""",E25,"""",",")</f>
-        <v>"WEDNES":"Środa",</v>
+        <f t="shared" si="10"/>
+        <v>"TUES":"Wtorek",</v>
       </c>
       <c r="L25" s="20" t="str">
-        <f>CONCATENATE("""",A25,"""",":","""",F25,"""",",")</f>
-        <v>"WEDNES":"Mercredi",</v>
+        <f t="shared" si="11"/>
+        <v>"TUES":"Mardi",</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G26" s="18"/>
       <c r="H26" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>"STHURS":"Thursday",</v>
+        <f t="shared" si="7"/>
+        <v>"WEDNES":"Wednesday",</v>
       </c>
       <c r="I26" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>"STHURS":"Четвер",</v>
+        <f t="shared" si="8"/>
+        <v>"WEDNES":"Середа",</v>
       </c>
       <c r="J26" s="20" t="str">
-        <f>CONCATENATE("""",A26,"""",":","""",D26,"""",",")</f>
-        <v>"STHURS":"jueves",</v>
+        <f t="shared" si="9"/>
+        <v>"WEDNES":"miércoles",</v>
       </c>
       <c r="K26" s="20" t="str">
-        <f>CONCATENATE("""",A26,"""",":","""",E26,"""",",")</f>
-        <v>"STHURS":"Czwartek",</v>
+        <f t="shared" si="10"/>
+        <v>"WEDNES":"Środa",</v>
       </c>
       <c r="L26" s="20" t="str">
-        <f>CONCATENATE("""",A26,"""",":","""",F26,"""",",")</f>
-        <v>"STHURS":"Jeudi",</v>
+        <f t="shared" si="11"/>
+        <v>"WEDNES":"Mercredi",</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="16" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>"FRI":"Friday",</v>
+        <f t="shared" si="7"/>
+        <v>"STHURS":"Thursday",</v>
       </c>
       <c r="I27" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>"FRI":"П'ятниця",</v>
+        <f t="shared" si="8"/>
+        <v>"STHURS":"Четвер",</v>
       </c>
       <c r="J27" s="20" t="str">
-        <f>CONCATENATE("""",A27,"""",":","""",D27,"""",",")</f>
-        <v>"FRI":"Viernes",</v>
+        <f t="shared" si="9"/>
+        <v>"STHURS":"jueves",</v>
       </c>
       <c r="K27" s="20" t="str">
-        <f>CONCATENATE("""",A27,"""",":","""",E27,"""",",")</f>
-        <v>"FRI":"Piątek",</v>
+        <f t="shared" si="10"/>
+        <v>"STHURS":"Czwartek",</v>
       </c>
       <c r="L27" s="20" t="str">
-        <f>CONCATENATE("""",A27,"""",":","""",F27,"""",",")</f>
-        <v>"FRI":"Vendredi",</v>
+        <f t="shared" si="11"/>
+        <v>"STHURS":"Jeudi",</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>"SATUR":"Saturday",</v>
+        <f t="shared" si="7"/>
+        <v>"FRI":"Friday",</v>
       </c>
       <c r="I28" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>"SATUR":"Субота",</v>
+        <f t="shared" si="8"/>
+        <v>"FRI":"П'ятниця",</v>
       </c>
       <c r="J28" s="20" t="str">
-        <f>CONCATENATE("""",A28,"""",":","""",D28,"""",",")</f>
-        <v>"SATUR":"sábado",</v>
+        <f t="shared" si="9"/>
+        <v>"FRI":"Viernes",</v>
       </c>
       <c r="K28" s="20" t="str">
-        <f>CONCATENATE("""",A28,"""",":","""",E28,"""",",")</f>
-        <v>"SATUR":"Sobota",</v>
+        <f t="shared" si="10"/>
+        <v>"FRI":"Piątek",</v>
       </c>
       <c r="L28" s="20" t="str">
-        <f>CONCATENATE("""",A28,"""",":","""",F28,"""",",")</f>
-        <v>"SATUR":"Samedi",</v>
+        <f t="shared" si="11"/>
+        <v>"FRI":"Vendredi",</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="16" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G29" s="18"/>
       <c r="H29" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>"SUN":"Sunday",</v>
+        <f t="shared" si="7"/>
+        <v>"SATUR":"Saturday",</v>
       </c>
       <c r="I29" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>"SUN":"Неділя",</v>
+        <f t="shared" si="8"/>
+        <v>"SATUR":"Субота",</v>
       </c>
       <c r="J29" s="20" t="str">
-        <f>CONCATENATE("""",A29,"""",":","""",D29,"""",",")</f>
-        <v>"SUN":"Domingo",</v>
+        <f t="shared" si="9"/>
+        <v>"SATUR":"sábado",</v>
       </c>
       <c r="K29" s="20" t="str">
-        <f>CONCATENATE("""",A29,"""",":","""",E29,"""",",")</f>
-        <v>"SUN":"Niedziela",</v>
+        <f t="shared" si="10"/>
+        <v>"SATUR":"Sobota",</v>
       </c>
       <c r="L29" s="20" t="str">
-        <f>CONCATENATE("""",A29,"""",":","""",F29,"""",",")</f>
-        <v>"SUN":"Dimanche",</v>
+        <f t="shared" si="11"/>
+        <v>"SATUR":"Samedi",</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="16" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>"DURATION_DAWN":"Duration of 'dawn'",</v>
+        <f t="shared" si="7"/>
+        <v>"SUN":"Sunday",</v>
       </c>
       <c r="I30" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>"DURATION_DAWN":"Тривалість 'світанку'",</v>
+        <f t="shared" si="8"/>
+        <v>"SUN":"Неділя",</v>
       </c>
       <c r="J30" s="20" t="str">
-        <f>CONCATENATE("""",A30,"""",":","""",D30,"""",",")</f>
-        <v>"DURATION_DAWN":"Duración del 'amanecer'",</v>
+        <f t="shared" si="9"/>
+        <v>"SUN":"Domingo",</v>
       </c>
       <c r="K30" s="20" t="str">
-        <f>CONCATENATE("""",A30,"""",":","""",E30,"""",",")</f>
-        <v>"DURATION_DAWN":"Czas trwania „świtu”",</v>
+        <f t="shared" si="10"/>
+        <v>"SUN":"Niedziela",</v>
       </c>
       <c r="L30" s="20" t="str">
-        <f>CONCATENATE("""",A30,"""",":","""",F30,"""",",")</f>
-        <v>"DURATION_DAWN":"Durée de L'aube",</v>
+        <f t="shared" si="11"/>
+        <v>"SUN":"Dimanche",</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>"GLOWING_DAWN":"Glowing time after 'dawn' min",</v>
+        <f t="shared" si="7"/>
+        <v>"DURATION_DAWN":"Duration of 'dawn'",</v>
       </c>
       <c r="I31" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>"GLOWING_DAWN":"Час світіння після 'світанку' хв.",</v>
+        <f t="shared" si="8"/>
+        <v>"DURATION_DAWN":"Тривалість 'світанку'",</v>
       </c>
       <c r="J31" s="20" t="str">
-        <f>CONCATENATE("""",A31,"""",":","""",D31,"""",",")</f>
-        <v>"GLOWING_DAWN":"Tiempo de brillo después del minuto 'amanecer'",</v>
+        <f t="shared" si="9"/>
+        <v>"DURATION_DAWN":"Duración del 'amanecer'",</v>
       </c>
       <c r="K31" s="20" t="str">
-        <f>CONCATENATE("""",A31,"""",":","""",E31,"""",",")</f>
-        <v>"GLOWING_DAWN":"Czas świecenia po „świcie” min",</v>
+        <f t="shared" si="10"/>
+        <v>"DURATION_DAWN":"Czas trwania „świtu”",</v>
       </c>
       <c r="L31" s="20" t="str">
-        <f>CONCATENATE("""",A31,"""",":","""",F31,"""",",")</f>
-        <v>"GLOWING_DAWN":"Temps d'éclairement après L'aube min",</v>
+        <f t="shared" si="11"/>
+        <v>"DURATION_DAWN":"Durée de L'aube",</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="16" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>"MAX_BR_DAWN":"Max. brightness of 'dawn'",</v>
+        <f t="shared" si="7"/>
+        <v>"GLOWING_DAWN":"Glowing time after 'dawn' min",</v>
       </c>
       <c r="I32" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>"MAX_BR_DAWN":"Макс. яскравість 'світанку'",</v>
+        <f t="shared" si="8"/>
+        <v>"GLOWING_DAWN":"Час світіння після 'світанку' хв.",</v>
       </c>
       <c r="J32" s="20" t="str">
-        <f>CONCATENATE("""",A32,"""",":","""",D32,"""",",")</f>
-        <v>"MAX_BR_DAWN":"máx. brillo de 'amanecer'",</v>
+        <f t="shared" si="9"/>
+        <v>"GLOWING_DAWN":"Tiempo de brillo después del minuto 'amanecer'",</v>
       </c>
       <c r="K32" s="20" t="str">
-        <f>CONCATENATE("""",A32,"""",":","""",E32,"""",",")</f>
-        <v>"MAX_BR_DAWN":"Maks. jasność „świtu”",</v>
+        <f t="shared" si="10"/>
+        <v>"GLOWING_DAWN":"Czas świecenia po „świcie” min",</v>
       </c>
       <c r="L32" s="20" t="str">
-        <f>CONCATENATE("""",A32,"""",":","""",F32,"""",",")</f>
-        <v>"MAX_BR_DAWN":"Max. luminosité de L'aube",</v>
+        <f t="shared" si="11"/>
+        <v>"GLOWING_DAWN":"Temps d'éclairement après L'aube min",</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
       <c r="A33" s="16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>"SAVE":"Save",</v>
+        <f t="shared" si="7"/>
+        <v>"MAX_BR_DAWN":"Max. brightness of 'dawn'",</v>
       </c>
       <c r="I33" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>"SAVE":"Зберегти",</v>
+        <f t="shared" si="8"/>
+        <v>"MAX_BR_DAWN":"Макс. яскравість 'світанку'",</v>
       </c>
       <c r="J33" s="20" t="str">
-        <f>CONCATENATE("""",A33,"""",":","""",D33,"""",",")</f>
-        <v>"SAVE":"Ahorrar",</v>
+        <f t="shared" si="9"/>
+        <v>"MAX_BR_DAWN":"máx. brillo de 'amanecer'",</v>
       </c>
       <c r="K33" s="20" t="str">
-        <f>CONCATENATE("""",A33,"""",":","""",E33,"""",",")</f>
-        <v>"SAVE":"Ratować",</v>
+        <f t="shared" si="10"/>
+        <v>"MAX_BR_DAWN":"Maks. jasność „świtu”",</v>
       </c>
       <c r="L33" s="20" t="str">
-        <f>CONCATENATE("""",A33,"""",":","""",F33,"""",",")</f>
-        <v>"SAVE":"sauvegarder",</v>
+        <f t="shared" si="11"/>
+        <v>"MAX_BR_DAWN":"Max. luminosité de L'aube",</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
       <c r="A34" s="16" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>"ANNOUNCE_TIME_ALARM":"Announce the time with an alarm clock",</v>
+        <f t="shared" si="7"/>
+        <v>"SAVE":"Save",</v>
       </c>
       <c r="I34" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>"ANNOUNCE_TIME_ALARM":"Озвучувати час будильником",</v>
+        <f t="shared" si="8"/>
+        <v>"SAVE":"Зберегти",</v>
       </c>
       <c r="J34" s="20" t="str">
-        <f>CONCATENATE("""",A34,"""",":","""",D34,"""",",")</f>
-        <v>"ANNOUNCE_TIME_ALARM":"Anunciar la hora con un despertador",</v>
+        <f t="shared" si="9"/>
+        <v>"SAVE":"Ahorrar",</v>
       </c>
       <c r="K34" s="20" t="str">
-        <f>CONCATENATE("""",A34,"""",":","""",E34,"""",",")</f>
-        <v>"ANNOUNCE_TIME_ALARM":"Ogłaszaj godzinę za pomocą budzika",</v>
+        <f t="shared" si="10"/>
+        <v>"SAVE":"Ratować",</v>
       </c>
       <c r="L34" s="20" t="str">
-        <f>CONCATENATE("""",A34,"""",":","""",F34,"""",",")</f>
-        <v>"ANNOUNCE_TIME_ALARM":"Annoncer l'heure avec un réveil",</v>
+        <f t="shared" si="11"/>
+        <v>"SAVE":"sauvegarder",</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="16" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G35" s="18"/>
       <c r="H35" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>"ALM_SOUND":"Turn on the alarm sound",</v>
+        <f t="shared" si="7"/>
+        <v>"ANNOUNCE_TIME_ALARM":"Announce the time with an alarm clock",</v>
       </c>
       <c r="I35" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>"ALM_SOUND":"Увімкнути звук будильника",</v>
+        <f t="shared" si="8"/>
+        <v>"ANNOUNCE_TIME_ALARM":"Озвучувати час будильником",</v>
       </c>
       <c r="J35" s="20" t="str">
-        <f>CONCATENATE("""",A35,"""",":","""",D35,"""",",")</f>
-        <v>"ALM_SOUND":"Enciende el sonido de la alarma",</v>
+        <f t="shared" si="9"/>
+        <v>"ANNOUNCE_TIME_ALARM":"Anunciar la hora con un despertador",</v>
       </c>
       <c r="K35" s="20" t="str">
-        <f>CONCATENATE("""",A35,"""",":","""",E35,"""",",")</f>
-        <v>"ALM_SOUND":"Włącz dźwięk alarmu",</v>
+        <f t="shared" si="10"/>
+        <v>"ANNOUNCE_TIME_ALARM":"Ogłaszaj godzinę za pomocą budzika",</v>
       </c>
       <c r="L35" s="20" t="str">
-        <f>CONCATENATE("""",A35,"""",":","""",F35,"""",",")</f>
-        <v>"ALM_SOUND":"Activer le son de l'alarme",</v>
+        <f t="shared" si="11"/>
+        <v>"ANNOUNCE_TIME_ALARM":"Annoncer l'heure avec un réveil",</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="A36" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>"ALM_VOLUM":"Alarm volume",</v>
+        <f t="shared" si="7"/>
+        <v>"ALM_SOUND":"Turn on the alarm sound",</v>
       </c>
       <c r="I36" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>"ALM_VOLUM":"Гучність будильника",</v>
+        <f t="shared" si="8"/>
+        <v>"ALM_SOUND":"Увімкнути звук будильника",</v>
       </c>
       <c r="J36" s="20" t="str">
-        <f>CONCATENATE("""",A36,"""",":","""",D36,"""",",")</f>
-        <v>"ALM_VOLUM":"Volumen de alarma",</v>
+        <f t="shared" si="9"/>
+        <v>"ALM_SOUND":"Enciende el sonido de la alarma",</v>
       </c>
       <c r="K36" s="20" t="str">
-        <f>CONCATENATE("""",A36,"""",":","""",E36,"""",",")</f>
-        <v>"ALM_VOLUM":"Głośność alarmu",</v>
+        <f t="shared" si="10"/>
+        <v>"ALM_SOUND":"Włącz dźwięk alarmu",</v>
       </c>
       <c r="L36" s="20" t="str">
-        <f>CONCATENATE("""",A36,"""",":","""",F36,"""",",")</f>
-        <v>"ALM_VOLUM":"Volume d'alarme",</v>
+        <f t="shared" si="11"/>
+        <v>"ALM_SOUND":"Activer le son de l'alarme",</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1">
       <c r="A37" s="16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>"ALM_FOLD":"Alarm folder",</v>
+        <f t="shared" si="7"/>
+        <v>"ALM_VOLUM":"Alarm volume",</v>
       </c>
       <c r="I37" s="19" t="str">
-        <f t="shared" si="5"/>
-        <v>"ALM_FOLD":"Папка будильника",</v>
+        <f t="shared" si="8"/>
+        <v>"ALM_VOLUM":"Гучність будильника",</v>
       </c>
       <c r="J37" s="20" t="str">
-        <f>CONCATENATE("""",A37,"""",":","""",D37,"""",",")</f>
-        <v>"ALM_FOLD":"Carpeta de alarmas",</v>
+        <f t="shared" si="9"/>
+        <v>"ALM_VOLUM":"Volumen de alarma",</v>
       </c>
       <c r="K37" s="20" t="str">
-        <f>CONCATENATE("""",A37,"""",":","""",E37,"""",",")</f>
-        <v>"ALM_FOLD":"Folder alarmów",</v>
+        <f t="shared" si="10"/>
+        <v>"ALM_VOLUM":"Głośność alarmu",</v>
       </c>
       <c r="L37" s="20" t="str">
-        <f>CONCATENATE("""",A37,"""",":","""",F37,"""",",")</f>
-        <v>"ALM_FOLD":"Dossier d'alarme",</v>
+        <f t="shared" si="11"/>
+        <v>"ALM_VOLUM":"Volume d'alarme",</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
       <c r="A38" s="16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>175</v>
+        <v>605</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
+        <v>"ALM_FOLD":"Alarm folder",</v>
+      </c>
+      <c r="I38" s="19" t="str">
+        <f t="shared" si="8"/>
+        <v>"ALM_FOLD":"Папка будильника",</v>
+      </c>
+      <c r="J38" s="20" t="str">
+        <f t="shared" si="9"/>
+        <v>"ALM_FOLD":"Carpeta de alarmas",</v>
+      </c>
+      <c r="K38" s="20" t="str">
+        <f t="shared" si="10"/>
+        <v>"ALM_FOLD":"Folder alarmów",</v>
+      </c>
+      <c r="L38" s="20" t="str">
+        <f t="shared" si="11"/>
+        <v>"ALM_FOLD":"Dossier d'alarme",</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A39" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="16" t="str">
+        <f t="shared" si="7"/>
         <v>"MINUTES":"minutes",</v>
       </c>
-      <c r="I38" s="19" t="str">
-        <f t="shared" si="5"/>
+      <c r="I39" s="19" t="str">
+        <f t="shared" si="8"/>
         <v>"MINUTES":"хвилин",</v>
       </c>
-      <c r="J38" s="20" t="str">
-        <f>CONCATENATE("""",A38,"""",":","""",D38,"""",",")</f>
+      <c r="J39" s="20" t="str">
+        <f t="shared" si="9"/>
         <v>"MINUTES":"minutos",</v>
       </c>
-      <c r="K38" s="20" t="str">
-        <f>CONCATENATE("""",A38,"""",":","""",E38,"""",",")</f>
+      <c r="K39" s="20" t="str">
+        <f t="shared" si="10"/>
         <v>"MINUTES":"minuty",</v>
       </c>
-      <c r="L38" s="20" t="str">
-        <f>CONCATENATE("""",A38,"""",":","""",F38,"""",",")</f>
+      <c r="L39" s="20" t="str">
+        <f t="shared" si="11"/>
         <v>"MINUTES":"minutes",</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="16"/>
-      <c r="J39" s="20"/>
-      <c r="L39" s="20"/>
-    </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A40" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>606</v>
-      </c>
-      <c r="G40" s="18"/>
-      <c r="H40" s="16" t="str">
-        <f t="shared" ref="H40:H43" si="6">CONCATENATE("""",A40,"""",":","""",B40,"""",",")</f>
-        <v>"EFF_OF_CYCLE":"Selection of 'Cycle' effects",</v>
-      </c>
-      <c r="I40" s="19" t="str">
-        <f t="shared" ref="I40:I43" si="7">CONCATENATE("""",A40,"""",":","""",C40,"""",",")</f>
-        <v>"EFF_OF_CYCLE":"Вибір ефектів 'Цикл'",</v>
-      </c>
-      <c r="J40" s="20" t="str">
-        <f>CONCATENATE("""",A40,"""",":","""",D40,"""",",")</f>
-        <v>"EFF_OF_CYCLE":"Selección de efectos 'Ciclo'",</v>
-      </c>
-      <c r="K40" s="20" t="str">
-        <f>CONCATENATE("""",A40,"""",":","""",E40,"""",",")</f>
-        <v>"EFF_OF_CYCLE":"Wybór efektów „Cykl”",</v>
-      </c>
-      <c r="L40" s="20" t="str">
-        <f>CONCATENATE("""",A40,"""",":","""",F40,"""",",")</f>
-        <v>"EFF_OF_CYCLE":"Sélection des effets 'Cycle'",</v>
-      </c>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="16"/>
+      <c r="J40" s="20"/>
+      <c r="L40" s="20"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1">
       <c r="A41" s="16" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G41" s="18"/>
       <c r="H41" s="16" t="str">
-        <f t="shared" si="6"/>
-        <v>"OVERALL_BR":"Overall brightness",</v>
+        <f t="shared" ref="H41:H44" si="12">CONCATENATE("""",A41,"""",":","""",B41,"""",",")</f>
+        <v>"EFF_OF_CYCLE":"Selection of 'Cycle' effects",</v>
       </c>
       <c r="I41" s="19" t="str">
-        <f t="shared" si="7"/>
-        <v>"OVERALL_BR":"Загальна яскравість",</v>
+        <f t="shared" ref="I41:I44" si="13">CONCATENATE("""",A41,"""",":","""",C41,"""",",")</f>
+        <v>"EFF_OF_CYCLE":"Вибір ефектів 'Цикл'",</v>
       </c>
       <c r="J41" s="20" t="str">
         <f>CONCATENATE("""",A41,"""",":","""",D41,"""",",")</f>
-        <v>"OVERALL_BR":"Brillo general",</v>
+        <v>"EFF_OF_CYCLE":"Selección de efectos 'Ciclo'",</v>
       </c>
       <c r="K41" s="20" t="str">
         <f>CONCATENATE("""",A41,"""",":","""",E41,"""",",")</f>
-        <v>"OVERALL_BR":"Ogólna jasność",</v>
+        <v>"EFF_OF_CYCLE":"Wybór efektów „Cykl”",</v>
       </c>
       <c r="L41" s="20" t="str">
         <f>CONCATENATE("""",A41,"""",":","""",F41,"""",",")</f>
-        <v>"OVERALL_BR":"Luminosité globale",</v>
+        <v>"EFF_OF_CYCLE":"Sélection des effets 'Cycle'",</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1">
       <c r="A42" s="16" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="16" t="str">
-        <f t="shared" si="6"/>
-        <v>"SEL_ALL":"Select all",</v>
+        <f t="shared" si="12"/>
+        <v>"OVERALL_BR":"Overall brightness",</v>
       </c>
       <c r="I42" s="19" t="str">
-        <f t="shared" si="7"/>
-        <v>"SEL_ALL":"Вибрати усі",</v>
+        <f t="shared" si="13"/>
+        <v>"OVERALL_BR":"Загальна яскравість",</v>
       </c>
       <c r="J42" s="20" t="str">
         <f>CONCATENATE("""",A42,"""",":","""",D42,"""",",")</f>
-        <v>"SEL_ALL":"Seleccionar todo",</v>
+        <v>"OVERALL_BR":"Brillo general",</v>
       </c>
       <c r="K42" s="20" t="str">
         <f>CONCATENATE("""",A42,"""",":","""",E42,"""",",")</f>
-        <v>"SEL_ALL":"Zaznacz wszystko",</v>
+        <v>"OVERALL_BR":"Ogólna jasność",</v>
       </c>
       <c r="L42" s="20" t="str">
         <f>CONCATENATE("""",A42,"""",":","""",F42,"""",",")</f>
-        <v>"SEL_ALL":"Tout sélectionner",</v>
+        <v>"OVERALL_BR":"Luminosité globale",</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1">
       <c r="A43" s="16" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="16" t="str">
-        <f t="shared" si="6"/>
-        <v>"CANCEL_SEL":"Cancel selection",</v>
+        <f t="shared" si="12"/>
+        <v>"SEL_ALL":"Select all",</v>
       </c>
       <c r="I43" s="19" t="str">
-        <f t="shared" si="7"/>
-        <v>"CANCEL_SEL":"Скасувати вибір",</v>
+        <f t="shared" si="13"/>
+        <v>"SEL_ALL":"Вибрати усі",</v>
       </c>
       <c r="J43" s="20" t="str">
         <f>CONCATENATE("""",A43,"""",":","""",D43,"""",",")</f>
-        <v>"CANCEL_SEL":"Cancelar selección",</v>
+        <v>"SEL_ALL":"Seleccionar todo",</v>
       </c>
       <c r="K43" s="20" t="str">
         <f>CONCATENATE("""",A43,"""",":","""",E43,"""",",")</f>
-        <v>"CANCEL_SEL":"Anuluj wybór",</v>
+        <v>"SEL_ALL":"Zaznacz wszystko",</v>
       </c>
       <c r="L43" s="20" t="str">
         <f>CONCATENATE("""",A43,"""",":","""",F43,"""",",")</f>
+        <v>"SEL_ALL":"Tout sélectionner",</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A44" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>609</v>
+      </c>
+      <c r="G44" s="18"/>
+      <c r="H44" s="16" t="str">
+        <f t="shared" si="12"/>
+        <v>"CANCEL_SEL":"Cancel selection",</v>
+      </c>
+      <c r="I44" s="19" t="str">
+        <f t="shared" si="13"/>
+        <v>"CANCEL_SEL":"Скасувати вибір",</v>
+      </c>
+      <c r="J44" s="20" t="str">
+        <f>CONCATENATE("""",A44,"""",":","""",D44,"""",",")</f>
+        <v>"CANCEL_SEL":"Cancelar selección",</v>
+      </c>
+      <c r="K44" s="20" t="str">
+        <f>CONCATENATE("""",A44,"""",":","""",E44,"""",",")</f>
+        <v>"CANCEL_SEL":"Anuluj wybór",</v>
+      </c>
+      <c r="L44" s="20" t="str">
+        <f>CONCATENATE("""",A44,"""",":","""",F44,"""",",")</f>
         <v>"CANCEL_SEL":"Annuler la sélection",</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="16"/>
-      <c r="J44" s="20"/>
-      <c r="L44" s="20"/>
-    </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A45" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>610</v>
-      </c>
-      <c r="G45" s="18"/>
-      <c r="H45" s="16" t="str">
-        <f t="shared" ref="H45:H48" si="8">CONCATENATE("""",A45,"""",":","""",B45,"""",",")</f>
-        <v>"LAMP_FOR_SINHRO":"Lamps for synchronous control",</v>
-      </c>
-      <c r="I45" s="19" t="str">
-        <f t="shared" ref="I45:I48" si="9">CONCATENATE("""",A45,"""",":","""",C45,"""",",")</f>
-        <v>"LAMP_FOR_SINHRO":"Лампи для синхронного керування",</v>
-      </c>
-      <c r="J45" s="20" t="str">
-        <f>CONCATENATE("""",A45,"""",":","""",D45,"""",",")</f>
-        <v>"LAMP_FOR_SINHRO":"Lámparas para control síncrono",</v>
-      </c>
-      <c r="K45" s="20" t="str">
-        <f>CONCATENATE("""",A45,"""",":","""",E45,"""",",")</f>
-        <v>"LAMP_FOR_SINHRO":"Lampy do sterowania synchronicznego",</v>
-      </c>
-      <c r="L45" s="20" t="str">
-        <f>CONCATENATE("""",A45,"""",":","""",F45,"""",",")</f>
-        <v>"LAMP_FOR_SINHRO":"Lampes pour contrôle synchrone",</v>
-      </c>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="16"/>
+      <c r="J45" s="20"/>
+      <c r="L45" s="20"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1">
       <c r="A46" s="16" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="16" t="str">
-        <f t="shared" si="8"/>
-        <v>"CONTROL_LAMP":"Control the lamp",</v>
+        <f t="shared" ref="H46:H51" si="14">CONCATENATE("""",A46,"""",":","""",B46,"""",",")</f>
+        <v>"LAMP_FOR_SINHRO":"Lamps for synchronous control",</v>
       </c>
       <c r="I46" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v>"CONTROL_LAMP":"Керувати лампою",</v>
+        <f t="shared" ref="I46:I51" si="15">CONCATENATE("""",A46,"""",":","""",C46,"""",",")</f>
+        <v>"LAMP_FOR_SINHRO":"Лампи для синхронного керування",</v>
       </c>
       <c r="J46" s="20" t="str">
         <f>CONCATENATE("""",A46,"""",":","""",D46,"""",",")</f>
-        <v>"CONTROL_LAMP":"controlar la lámpara",</v>
+        <v>"LAMP_FOR_SINHRO":"Lámparas para control síncrono",</v>
       </c>
       <c r="K46" s="20" t="str">
         <f>CONCATENATE("""",A46,"""",":","""",E46,"""",",")</f>
-        <v>"CONTROL_LAMP":"Kontroluj lampę!",</v>
+        <v>"LAMP_FOR_SINHRO":"Lampy do sterowania synchronicznego",</v>
       </c>
       <c r="L46" s="20" t="str">
         <f>CONCATENATE("""",A46,"""",":","""",F46,"""",",")</f>
-        <v>"CONTROL_LAMP":"Contrôler la lampe",</v>
+        <v>"LAMP_FOR_SINHRO":"Lampes pour contrôle synchrone",</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1">
       <c r="A47" s="16" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="16" t="str">
-        <f t="shared" si="8"/>
-        <v>"LAMP_ADDR":"lamp address",</v>
+        <f t="shared" si="14"/>
+        <v>"CONTROL_LAMP":"Control the lamp",</v>
       </c>
       <c r="I47" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v>"LAMP_ADDR":"адреса лампи",</v>
+        <f t="shared" si="15"/>
+        <v>"CONTROL_LAMP":"Керувати лампою",</v>
       </c>
       <c r="J47" s="20" t="str">
         <f>CONCATENATE("""",A47,"""",":","""",D47,"""",",")</f>
-        <v>"LAMP_ADDR":"dirección de la lámpara",</v>
+        <v>"CONTROL_LAMP":"controlar la lámpara",</v>
       </c>
       <c r="K47" s="20" t="str">
         <f>CONCATENATE("""",A47,"""",":","""",E47,"""",",")</f>
-        <v>"LAMP_ADDR":"adres lampy",</v>
+        <v>"CONTROL_LAMP":"Kontroluj lampę!",</v>
       </c>
       <c r="L47" s="20" t="str">
         <f>CONCATENATE("""",A47,"""",":","""",F47,"""",",")</f>
-        <v>"LAMP_ADDR":"adresse de la lampe",</v>
+        <v>"CONTROL_LAMP":"Contrôler la lampe",</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1">
       <c r="A48" s="16" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="16" t="str">
-        <f t="shared" si="8"/>
-        <v>"COMMENT":"Comment",</v>
+        <f t="shared" si="14"/>
+        <v>"LAMP_ADDR":"lamp address",</v>
       </c>
       <c r="I48" s="19" t="str">
-        <f t="shared" si="9"/>
-        <v>"COMMENT":"Коментар",</v>
+        <f t="shared" si="15"/>
+        <v>"LAMP_ADDR":"адреса лампи",</v>
       </c>
       <c r="J48" s="20" t="str">
         <f>CONCATENATE("""",A48,"""",":","""",D48,"""",",")</f>
-        <v>"COMMENT":"Comentario",</v>
+        <v>"LAMP_ADDR":"dirección de la lámpara",</v>
       </c>
       <c r="K48" s="20" t="str">
         <f>CONCATENATE("""",A48,"""",":","""",E48,"""",",")</f>
-        <v>"COMMENT":"Komentarz",</v>
+        <v>"LAMP_ADDR":"adres lampy",</v>
       </c>
       <c r="L48" s="20" t="str">
         <f>CONCATENATE("""",A48,"""",":","""",F48,"""",",")</f>
+        <v>"LAMP_ADDR":"adresse de la lampe",</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A49" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>613</v>
+      </c>
+      <c r="G49" s="18"/>
+      <c r="H49" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>"COMMENT":"Comment",</v>
+      </c>
+      <c r="I49" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v>"COMMENT":"Коментар",</v>
+      </c>
+      <c r="J49" s="20" t="str">
+        <f>CONCATENATE("""",A49,"""",":","""",D49,"""",",")</f>
+        <v>"COMMENT":"Comentario",</v>
+      </c>
+      <c r="K49" s="20" t="str">
+        <f>CONCATENATE("""",A49,"""",":","""",E49,"""",",")</f>
+        <v>"COMMENT":"Komentarz",</v>
+      </c>
+      <c r="L49" s="20" t="str">
+        <f>CONCATENATE("""",A49,"""",":","""",F49,"""",",")</f>
         <v>"COMMENT":"Commentaire",</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="16"/>
-      <c r="J49" s="20"/>
-      <c r="L49" s="20"/>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1">
+    <row r="50" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
       <c r="A50" s="16" t="s">
-        <v>219</v>
+        <v>742</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>223</v>
+        <v>751</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>741</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>747</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>746</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>614</v>
+        <v>745</v>
       </c>
       <c r="G50" s="18"/>
       <c r="H50" s="16" t="str">
-        <f t="shared" ref="H50:H73" si="10">CONCATENATE("""",A50,"""",":","""",B50,"""",",")</f>
-        <v>"USE_PASS":"Use a password to access this page",</v>
+        <f t="shared" si="14"/>
+        <v>"SEND_SOUND":"Send the current audio folder",</v>
       </c>
       <c r="I50" s="19" t="str">
-        <f t="shared" ref="I50:I73" si="11">CONCATENATE("""",A50,"""",":","""",C50,"""",",")</f>
-        <v>"USE_PASS":"Використовувати пароль для доступу до цієї сторінки",</v>
+        <f t="shared" si="15"/>
+        <v>"SEND_SOUND":"Передавати поточну папку озвучування",</v>
       </c>
       <c r="J50" s="20" t="str">
-        <f>CONCATENATE("""",A50,"""",":","""",D50,"""",",")</f>
-        <v>"USE_PASS":"Utilice una contraseña para acceder a esta página",</v>
+        <f t="shared" ref="J50:J51" si="16">CONCATENATE("""",A50,"""",":","""",D50,"""",",")</f>
+        <v>"SEND_SOUND":"Transmitir la carpeta de audio actual",</v>
       </c>
       <c r="K50" s="20" t="str">
-        <f>CONCATENATE("""",A50,"""",":","""",E50,"""",",")</f>
-        <v>"USE_PASS":"Użyj hasła, aby uzyskać dostęp do tej strony",</v>
+        <f t="shared" ref="K50:K51" si="17">CONCATENATE("""",A50,"""",":","""",E50,"""",",")</f>
+        <v>"SEND_SOUND":"Przesyłaj bieżący folder audio",</v>
       </c>
       <c r="L50" s="20" t="str">
-        <f>CONCATENATE("""",A50,"""",":","""",F50,"""",",")</f>
-        <v>"USE_PASS":"Utilisez un mot de passe pour accéder à cette page",</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1">
+        <f t="shared" ref="L50:L51" si="18">CONCATENATE("""",A50,"""",":","""",F50,"""",",")</f>
+        <v>"SEND_SOUND":"Caster le dossier audio actuel",</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
       <c r="A51" s="16" t="s">
-        <v>224</v>
+        <v>744</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>228</v>
+        <v>752</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>743</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>748</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>749</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>615</v>
+        <v>750</v>
       </c>
       <c r="G51" s="18"/>
       <c r="H51" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>"PASS_DESCRIPTION":"We strongly recommend that you enable this option and change the access point password to your own.",</v>
+        <f t="shared" si="14"/>
+        <v>"SEND_VOLUME":"Send audio on/off and volume as well",</v>
       </c>
       <c r="I51" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>"PASS_DESCRIPTION":"Настійно рекомендуємо включити цю опцію та змінити пароль точки доступу на свій.",</v>
+        <f t="shared" si="15"/>
+        <v>"SEND_VOLUME":"Передавати тако ж озвучування_on/off та гучність",</v>
       </c>
       <c r="J51" s="20" t="str">
-        <f>CONCATENATE("""",A51,"""",":","""",D51,"""",",")</f>
-        <v>"PASS_DESCRIPTION":"Le recomendamos encarecidamente que habilite esta opción y cambie la contraseña del punto de acceso por la suya.",</v>
+        <f t="shared" si="16"/>
+        <v>"SEND_VOLUME":"Transmite encendido/apagado de audio y volumen también.",</v>
       </c>
       <c r="K51" s="20" t="str">
-        <f>CONCATENATE("""",A51,"""",":","""",E51,"""",",")</f>
-        <v>"PASS_DESCRIPTION":"Zdecydowanie zalecamy włączenie tej opcji i zmianę hasła punktu dostępu na własne.",</v>
+        <f t="shared" si="17"/>
+        <v>"SEND_VOLUME":"Włączanie/wyłączanie transmisji dźwięku i regulacja głośności",</v>
       </c>
       <c r="L51" s="20" t="str">
-        <f>CONCATENATE("""",A51,"""",":","""",F51,"""",",")</f>
-        <v>"PASS_DESCRIPTION":"Nous vous recommandons vivement d'activer cette option et de remplacer le mot de passe du point d'accès par le vôtre.",</v>
+        <f t="shared" si="18"/>
+        <v>"SEND_VOLUME":"Transmettre également l'audio marche/arrêt et le volume",</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A52" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="F52" s="30" t="s">
-        <v>616</v>
-      </c>
-      <c r="G52" s="18"/>
-      <c r="H52" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>"USE_PASS_DESCRIPTION":"This section is password protected. Please enter the password you use for the access point.",</v>
-      </c>
-      <c r="I52" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>"USE_PASS_DESCRIPTION":"Цей розділ захищений паролем. Будь ласка, введіть пароль, який ви використовуєте для точки доступу.",</v>
-      </c>
-      <c r="J52" s="20" t="str">
-        <f>CONCATENATE("""",A52,"""",":","""",D52,"""",",")</f>
-        <v>"USE_PASS_DESCRIPTION":"Esta sección está protegida con contraseña. Introduzca la contraseña que utiliza para el punto de acceso.",</v>
-      </c>
-      <c r="K52" s="20" t="str">
-        <f>CONCATENATE("""",A52,"""",":","""",E52,"""",",")</f>
-        <v>"USE_PASS_DESCRIPTION":"Ta sekcja jest chroniona hasłem. Wprowadź hasło, którego używasz dla punktu dostępu.",</v>
-      </c>
-      <c r="L52" s="20" t="str">
-        <f>CONCATENATE("""",A52,"""",":","""",F52,"""",",")</f>
-        <v>"USE_PASS_DESCRIPTION":"Cette section est protégée par un mot de passe. Veuillez entrer le mot de passe que vous utilisez pour le point d'accès.",</v>
-      </c>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="16"/>
+      <c r="J52" s="20"/>
+      <c r="L52" s="20"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1">
       <c r="A53" s="16" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G53" s="18"/>
       <c r="H53" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>"LangAuthorization":"Authorization",</v>
+        <f t="shared" ref="H53:H76" si="19">CONCATENATE("""",A53,"""",":","""",B53,"""",",")</f>
+        <v>"USE_PASS":"Use a password to access this page",</v>
       </c>
       <c r="I53" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>"LangAuthorization":"Авторизація",</v>
+        <f t="shared" ref="I53:I76" si="20">CONCATENATE("""",A53,"""",":","""",C53,"""",",")</f>
+        <v>"USE_PASS":"Використовувати пароль для доступу до цієї сторінки",</v>
       </c>
       <c r="J53" s="20" t="str">
-        <f>CONCATENATE("""",A53,"""",":","""",D53,"""",",")</f>
-        <v>"LangAuthorization":"Autorización",</v>
+        <f t="shared" ref="J53:J76" si="21">CONCATENATE("""",A53,"""",":","""",D53,"""",",")</f>
+        <v>"USE_PASS":"Utilice una contraseña para acceder a esta página",</v>
       </c>
       <c r="K53" s="20" t="str">
-        <f>CONCATENATE("""",A53,"""",":","""",E53,"""",",")</f>
-        <v>"LangAuthorization":"Upoważnienie",</v>
+        <f t="shared" ref="K53:K76" si="22">CONCATENATE("""",A53,"""",":","""",E53,"""",",")</f>
+        <v>"USE_PASS":"Użyj hasła, aby uzyskać dostęp do tej strony",</v>
       </c>
       <c r="L53" s="20" t="str">
-        <f>CONCATENATE("""",A53,"""",":","""",F53,"""",",")</f>
-        <v>"LangAuthorization":"Autorisation",</v>
+        <f t="shared" ref="L53:L76" si="23">CONCATENATE("""",A53,"""",":","""",F53,"""",",")</f>
+        <v>"USE_PASS":"Utilisez un mot de passe pour accéder à cette page",</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.75" customHeight="1">
       <c r="A54" s="16" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G54" s="18"/>
       <c r="H54" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>"DEVICE_NAME":"Device name",</v>
+        <f t="shared" si="19"/>
+        <v>"PASS_DESCRIPTION":"We strongly recommend that you enable this option and change the access point password to your own.",</v>
       </c>
       <c r="I54" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>"DEVICE_NAME":"Ім'я пристрою",</v>
+        <f t="shared" si="20"/>
+        <v>"PASS_DESCRIPTION":"Настійно рекомендуємо включити цю опцію та змінити пароль точки доступу на свій.",</v>
       </c>
       <c r="J54" s="20" t="str">
-        <f>CONCATENATE("""",A54,"""",":","""",D54,"""",",")</f>
-        <v>"DEVICE_NAME":"Nombre del dispositivo",</v>
+        <f t="shared" si="21"/>
+        <v>"PASS_DESCRIPTION":"Le recomendamos encarecidamente que habilite esta opción y cambie la contraseña del punto de acceso por la suya.",</v>
       </c>
       <c r="K54" s="20" t="str">
-        <f>CONCATENATE("""",A54,"""",":","""",E54,"""",",")</f>
-        <v>"DEVICE_NAME":"Nazwa urządzenia",</v>
+        <f t="shared" si="22"/>
+        <v>"PASS_DESCRIPTION":"Zdecydowanie zalecamy włączenie tej opcji i zmianę hasła punktu dostępu na własne.",</v>
       </c>
       <c r="L54" s="20" t="str">
-        <f>CONCATENATE("""",A54,"""",":","""",F54,"""",",")</f>
-        <v>"DEVICE_NAME":"Nom de l'appareil",</v>
+        <f t="shared" si="23"/>
+        <v>"PASS_DESCRIPTION":"Nous vous recommandons vivement d'activer cette option et de remplacer le mot de passe du point d'accès par le vôtre.",</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.75" customHeight="1">
       <c r="A55" s="16" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>"CONN_TO_ROUTER":"Connecting to a Wi-Fi router",</v>
+        <f t="shared" si="19"/>
+        <v>"USE_PASS_DESCRIPTION":"This section is password protected. Please enter the password you use for the access point.",</v>
       </c>
       <c r="I55" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>"CONN_TO_ROUTER":"Підключення до Wi-Fi роутера",</v>
+        <f t="shared" si="20"/>
+        <v>"USE_PASS_DESCRIPTION":"Цей розділ захищений паролем. Будь ласка, введіть пароль, який ви використовуєте для точки доступу.",</v>
       </c>
       <c r="J55" s="20" t="str">
-        <f>CONCATENATE("""",A55,"""",":","""",D55,"""",",")</f>
-        <v>"CONN_TO_ROUTER":"Conexión a un enrutador Wi-Fi",</v>
+        <f t="shared" si="21"/>
+        <v>"USE_PASS_DESCRIPTION":"Esta sección está protegida con contraseña. Introduzca la contraseña que utiliza para el punto de acceso.",</v>
       </c>
       <c r="K55" s="20" t="str">
-        <f>CONCATENATE("""",A55,"""",":","""",E55,"""",",")</f>
-        <v>"CONN_TO_ROUTER":"Łączenie z routerem Wi-Fi",</v>
+        <f t="shared" si="22"/>
+        <v>"USE_PASS_DESCRIPTION":"Ta sekcja jest chroniona hasłem. Wprowadź hasło, którego używasz dla punktu dostępu.",</v>
       </c>
       <c r="L55" s="20" t="str">
-        <f>CONCATENATE("""",A55,"""",":","""",F55,"""",",")</f>
-        <v>"CONN_TO_ROUTER":"Connexion à un routeur Wi-Fi",</v>
+        <f t="shared" si="23"/>
+        <v>"USE_PASS_DESCRIPTION":"Cette section est protégée par un mot de passe. Veuillez entrer le mot de passe que vous utilisez pour le point d'accès.",</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.75" customHeight="1">
       <c r="A56" s="16" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>"USE_ROUTER":"Use a router connection",</v>
+        <f t="shared" si="19"/>
+        <v>"LangAuthorization":"Authorization",</v>
       </c>
       <c r="I56" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>"USE_ROUTER":"Використовувати підключення до роутера",</v>
+        <f t="shared" si="20"/>
+        <v>"LangAuthorization":"Авторизація",</v>
       </c>
       <c r="J56" s="20" t="str">
-        <f>CONCATENATE("""",A56,"""",":","""",D56,"""",",")</f>
-        <v>"USE_ROUTER":"Usar una conexión de enrutador",</v>
+        <f t="shared" si="21"/>
+        <v>"LangAuthorization":"Autorización",</v>
       </c>
       <c r="K56" s="20" t="str">
-        <f>CONCATENATE("""",A56,"""",":","""",E56,"""",",")</f>
-        <v>"USE_ROUTER":"Użyj połączenia routera",</v>
+        <f t="shared" si="22"/>
+        <v>"LangAuthorization":"Upoważnienie",</v>
       </c>
       <c r="L56" s="20" t="str">
-        <f>CONCATENATE("""",A56,"""",":","""",F56,"""",",")</f>
-        <v>"USE_ROUTER":"Utiliser une connexion routeur",</v>
+        <f t="shared" si="23"/>
+        <v>"LangAuthorization":"Autorisation",</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" customHeight="1">
       <c r="A57" s="16" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="G57" s="18"/>
       <c r="H57" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>"NET_NAME":"Network name",</v>
+        <f t="shared" si="19"/>
+        <v>"DEVICE_NAME":"Device name",</v>
       </c>
       <c r="I57" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>"NET_NAME":"Ім'я мережі",</v>
+        <f t="shared" si="20"/>
+        <v>"DEVICE_NAME":"Ім'я пристрою",</v>
       </c>
       <c r="J57" s="20" t="str">
-        <f>CONCATENATE("""",A57,"""",":","""",D57,"""",",")</f>
-        <v>"NET_NAME":"Nombre de red",</v>
+        <f t="shared" si="21"/>
+        <v>"DEVICE_NAME":"Nombre del dispositivo",</v>
       </c>
       <c r="K57" s="20" t="str">
-        <f>CONCATENATE("""",A57,"""",":","""",E57,"""",",")</f>
-        <v>"NET_NAME":"Nazwa sieci",</v>
+        <f t="shared" si="22"/>
+        <v>"DEVICE_NAME":"Nazwa urządzenia",</v>
       </c>
       <c r="L57" s="20" t="str">
-        <f>CONCATENATE("""",A57,"""",":","""",F57,"""",",")</f>
-        <v>"NET_NAME":"Nom de réseau",</v>
+        <f t="shared" si="23"/>
+        <v>"DEVICE_NAME":"Nom de l'appareil",</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.75" customHeight="1">
       <c r="A58" s="16" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="F58" s="30" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G58" s="18"/>
       <c r="H58" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>"PASS":"Password",</v>
+        <f t="shared" si="19"/>
+        <v>"CONN_TO_ROUTER":"Connecting to a Wi-Fi router",</v>
       </c>
       <c r="I58" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>"PASS":"Пароль",</v>
+        <f t="shared" si="20"/>
+        <v>"CONN_TO_ROUTER":"Підключення до Wi-Fi роутера",</v>
       </c>
       <c r="J58" s="20" t="str">
-        <f>CONCATENATE("""",A58,"""",":","""",D58,"""",",")</f>
-        <v>"PASS":"Clave",</v>
+        <f t="shared" si="21"/>
+        <v>"CONN_TO_ROUTER":"Conexión a un enrutador Wi-Fi",</v>
       </c>
       <c r="K58" s="20" t="str">
-        <f>CONCATENATE("""",A58,"""",":","""",E58,"""",",")</f>
-        <v>"PASS":"Hasło",</v>
+        <f t="shared" si="22"/>
+        <v>"CONN_TO_ROUTER":"Łączenie z routerem Wi-Fi",</v>
       </c>
       <c r="L58" s="20" t="str">
-        <f>CONCATENATE("""",A58,"""",":","""",F58,"""",",")</f>
-        <v>"PASS":"Mot de passe",</v>
+        <f t="shared" si="23"/>
+        <v>"CONN_TO_ROUTER":"Connexion à un routeur Wi-Fi",</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1">
       <c r="A59" s="16" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G59" s="18"/>
       <c r="H59" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>"CONN_TIMEOUT":"Connection timeout",</v>
+        <f t="shared" si="19"/>
+        <v>"USE_ROUTER":"Use a router connection",</v>
       </c>
       <c r="I59" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>"CONN_TIMEOUT":"Таймаут з'єднання",</v>
+        <f t="shared" si="20"/>
+        <v>"USE_ROUTER":"Використовувати підключення до роутера",</v>
       </c>
       <c r="J59" s="20" t="str">
-        <f>CONCATENATE("""",A59,"""",":","""",D59,"""",",")</f>
-        <v>"CONN_TIMEOUT":"El tiempo de conexión expiro",</v>
+        <f t="shared" si="21"/>
+        <v>"USE_ROUTER":"Usar una conexión de enrutador",</v>
       </c>
       <c r="K59" s="20" t="str">
-        <f>CONCATENATE("""",A59,"""",":","""",E59,"""",",")</f>
-        <v>"CONN_TIMEOUT":"Czas połączenia minął",</v>
+        <f t="shared" si="22"/>
+        <v>"USE_ROUTER":"Użyj połączenia routera",</v>
       </c>
       <c r="L59" s="20" t="str">
-        <f>CONCATENATE("""",A59,"""",":","""",F59,"""",",")</f>
-        <v>"CONN_TIMEOUT":"Délai de connection dépassé",</v>
+        <f t="shared" si="23"/>
+        <v>"USE_ROUTER":"Utiliser une connexion routeur",</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.75" customHeight="1">
       <c r="A60" s="16" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G60" s="18"/>
       <c r="H60" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>"TIME_ZONE":"Time zone",</v>
+        <f t="shared" si="19"/>
+        <v>"NET_NAME":"Network name",</v>
       </c>
       <c r="I60" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>"TIME_ZONE":"Часовий пояс",</v>
+        <f t="shared" si="20"/>
+        <v>"NET_NAME":"Ім'я мережі",</v>
       </c>
       <c r="J60" s="20" t="str">
-        <f>CONCATENATE("""",A60,"""",":","""",D60,"""",",")</f>
-        <v>"TIME_ZONE":"Zona horaria",</v>
+        <f t="shared" si="21"/>
+        <v>"NET_NAME":"Nombre de red",</v>
       </c>
       <c r="K60" s="20" t="str">
-        <f>CONCATENATE("""",A60,"""",":","""",E60,"""",",")</f>
-        <v>"TIME_ZONE":"Strefa czasowa",</v>
+        <f t="shared" si="22"/>
+        <v>"NET_NAME":"Nazwa sieci",</v>
       </c>
       <c r="L60" s="20" t="str">
-        <f>CONCATENATE("""",A60,"""",":","""",F60,"""",",")</f>
-        <v>"TIME_ZONE":"Fuseau horaire",</v>
+        <f t="shared" si="23"/>
+        <v>"NET_NAME":"Nom de réseau",</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" customHeight="1">
       <c r="A61" s="16" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G61" s="18"/>
       <c r="H61" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>"SUMMER_TIME":"Automatic switch to summer time",</v>
+        <f t="shared" si="19"/>
+        <v>"PASS":"Password",</v>
       </c>
       <c r="I61" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>"SUMMER_TIME":"Авто перехід на літній час",</v>
+        <f t="shared" si="20"/>
+        <v>"PASS":"Пароль",</v>
       </c>
       <c r="J61" s="20" t="str">
-        <f>CONCATENATE("""",A61,"""",":","""",D61,"""",",")</f>
-        <v>"SUMMER_TIME":"Cambio automático al horario de verano",</v>
+        <f t="shared" si="21"/>
+        <v>"PASS":"Clave",</v>
       </c>
       <c r="K61" s="20" t="str">
-        <f>CONCATENATE("""",A61,"""",":","""",E61,"""",",")</f>
-        <v>"SUMMER_TIME":"Automatyczne przełączanie na czas letni",</v>
+        <f t="shared" si="22"/>
+        <v>"PASS":"Hasło",</v>
       </c>
       <c r="L61" s="20" t="str">
-        <f>CONCATENATE("""",A61,"""",":","""",F61,"""",",")</f>
-        <v>"SUMMER_TIME":"Passage automatique à l'heure d'été",</v>
+        <f t="shared" si="23"/>
+        <v>"PASS":"Mot de passe",</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.75" customHeight="1">
       <c r="A62" s="16" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="F62" s="30" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G62" s="18"/>
       <c r="H62" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>"ON_DEVICE_NOW":"On device now",</v>
+        <f t="shared" si="19"/>
+        <v>"CONN_TIMEOUT":"Connection timeout",</v>
       </c>
       <c r="I62" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>"ON_DEVICE_NOW":"На пристрої зараз",</v>
+        <f t="shared" si="20"/>
+        <v>"CONN_TIMEOUT":"Таймаут з'єднання",</v>
       </c>
       <c r="J62" s="20" t="str">
-        <f>CONCATENATE("""",A62,"""",":","""",D62,"""",",")</f>
-        <v>"ON_DEVICE_NOW":"En el dispositivo ahora",</v>
+        <f t="shared" si="21"/>
+        <v>"CONN_TIMEOUT":"El tiempo de conexión expiro",</v>
       </c>
       <c r="K62" s="20" t="str">
-        <f>CONCATENATE("""",A62,"""",":","""",E62,"""",",")</f>
-        <v>"ON_DEVICE_NOW":"Teraz na urządzeniu",</v>
+        <f t="shared" si="22"/>
+        <v>"CONN_TIMEOUT":"Czas połączenia minął",</v>
       </c>
       <c r="L62" s="20" t="str">
-        <f>CONCATENATE("""",A62,"""",":","""",F62,"""",",")</f>
-        <v>"ON_DEVICE_NOW":"Sur l'appareil maintenant",</v>
+        <f t="shared" si="23"/>
+        <v>"CONN_TIMEOUT":"Délai de connection dépassé",</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="15.75" customHeight="1">
       <c r="A63" s="16" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G63" s="18"/>
       <c r="H63" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>"HOUR_FROM_BROWSER":"Take the hour from the browser",</v>
+        <f t="shared" si="19"/>
+        <v>"TIME_ZONE":"Time zone",</v>
       </c>
       <c r="I63" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>"HOUR_FROM_BROWSER":"Отримати час із браузера",</v>
+        <f t="shared" si="20"/>
+        <v>"TIME_ZONE":"Часовий пояс",</v>
       </c>
       <c r="J63" s="20" t="str">
-        <f>CONCATENATE("""",A63,"""",":","""",D63,"""",",")</f>
-        <v>"HOUR_FROM_BROWSER":"Tomar la hora desde el navegador",</v>
+        <f t="shared" si="21"/>
+        <v>"TIME_ZONE":"Zona horaria",</v>
       </c>
       <c r="K63" s="20" t="str">
-        <f>CONCATENATE("""",A63,"""",":","""",E63,"""",",")</f>
-        <v>"HOUR_FROM_BROWSER":"Poświęć godzinę z przeglądarki",</v>
+        <f t="shared" si="22"/>
+        <v>"TIME_ZONE":"Strefa czasowa",</v>
       </c>
       <c r="L63" s="20" t="str">
-        <f>CONCATENATE("""",A63,"""",":","""",F63,"""",",")</f>
-        <v>"HOUR_FROM_BROWSER":"Prendre l'heure du navigateur",</v>
+        <f t="shared" si="23"/>
+        <v>"TIME_ZONE":"Fuseau horaire",</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1">
       <c r="A64" s="16" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="F64" s="30" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G64" s="18"/>
       <c r="H64" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>"NTP":"NTP server address",</v>
+        <f t="shared" si="19"/>
+        <v>"SUMMER_TIME":"Automatic switch to summer time",</v>
       </c>
       <c r="I64" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>"NTP":"Адреса сервера NTP",</v>
+        <f t="shared" si="20"/>
+        <v>"SUMMER_TIME":"Авто перехід на літній час",</v>
       </c>
       <c r="J64" s="20" t="str">
-        <f>CONCATENATE("""",A64,"""",":","""",D64,"""",",")</f>
-        <v>"NTP":"Dirección del servidor NTP",</v>
+        <f t="shared" si="21"/>
+        <v>"SUMMER_TIME":"Cambio automático al horario de verano",</v>
       </c>
       <c r="K64" s="20" t="str">
-        <f>CONCATENATE("""",A64,"""",":","""",E64,"""",",")</f>
-        <v>"NTP":"Adres serwera NTP",</v>
+        <f t="shared" si="22"/>
+        <v>"SUMMER_TIME":"Automatyczne przełączanie na czas letni",</v>
       </c>
       <c r="L64" s="20" t="str">
-        <f>CONCATENATE("""",A64,"""",":","""",F64,"""",",")</f>
-        <v>"NTP":"Adresse du serveur NTP",</v>
+        <f t="shared" si="23"/>
+        <v>"SUMMER_TIME":"Passage automatique à l'heure d'été",</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1">
       <c r="A65" s="16" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="F65" s="30" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="G65" s="18"/>
       <c r="H65" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>"AP":"Access point",</v>
+        <f t="shared" si="19"/>
+        <v>"ON_DEVICE_NOW":"On device now",</v>
       </c>
       <c r="I65" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>"AP":"Точка доступу",</v>
+        <f t="shared" si="20"/>
+        <v>"ON_DEVICE_NOW":"На пристрої зараз",</v>
       </c>
       <c r="J65" s="20" t="str">
-        <f>CONCATENATE("""",A65,"""",":","""",D65,"""",",")</f>
-        <v>"AP":"Punto de acceso",</v>
+        <f t="shared" si="21"/>
+        <v>"ON_DEVICE_NOW":"En el dispositivo ahora",</v>
       </c>
       <c r="K65" s="20" t="str">
-        <f>CONCATENATE("""",A65,"""",":","""",E65,"""",",")</f>
-        <v>"AP":"Punkt dostępu",</v>
+        <f t="shared" si="22"/>
+        <v>"ON_DEVICE_NOW":"Teraz na urządzeniu",</v>
       </c>
       <c r="L65" s="20" t="str">
-        <f>CONCATENATE("""",A65,"""",":","""",F65,"""",",")</f>
-        <v>"AP":"Point d'accès",</v>
+        <f t="shared" si="23"/>
+        <v>"ON_DEVICE_NOW":"Sur l'appareil maintenant",</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1">
       <c r="A66" s="16" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G66" s="18"/>
       <c r="H66" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>"AP_IP":"In access point mode, the IP address of the device",</v>
+        <f t="shared" si="19"/>
+        <v>"HOUR_FROM_BROWSER":"Take the hour from the browser",</v>
       </c>
       <c r="I66" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>"AP_IP":"У режимі точки доступу IP адреса пристрою",</v>
+        <f t="shared" si="20"/>
+        <v>"HOUR_FROM_BROWSER":"Отримати час із браузера",</v>
       </c>
       <c r="J66" s="20" t="str">
-        <f>CONCATENATE("""",A66,"""",":","""",D66,"""",",")</f>
-        <v>"AP_IP":"En el modo de punto de acceso, la dirección IP del dispositivo",</v>
+        <f t="shared" si="21"/>
+        <v>"HOUR_FROM_BROWSER":"Tomar la hora desde el navegador",</v>
       </c>
       <c r="K66" s="20" t="str">
-        <f>CONCATENATE("""",A66,"""",":","""",E66,"""",",")</f>
-        <v>"AP_IP":"W trybie punktu dostępu adres IP urządzenia",</v>
+        <f t="shared" si="22"/>
+        <v>"HOUR_FROM_BROWSER":"Poświęć godzinę z przeglądarki",</v>
       </c>
       <c r="L66" s="20" t="str">
-        <f>CONCATENATE("""",A66,"""",":","""",F66,"""",",")</f>
-        <v>"AP_IP":"En mode point d'accès, l'adresse IP de l'appareil",</v>
+        <f t="shared" si="23"/>
+        <v>"HOUR_FROM_BROWSER":"Prendre l'heure du navigateur",</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1">
       <c r="A67" s="16" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="F67" s="30" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G67" s="18"/>
       <c r="H67" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>"AP_NAME":"The name of the WI-FI network",</v>
+        <f t="shared" si="19"/>
+        <v>"NTP":"NTP server address",</v>
       </c>
       <c r="I67" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>"AP_NAME":"Ім'я WI-FI мережі",</v>
+        <f t="shared" si="20"/>
+        <v>"NTP":"Адреса сервера NTP",</v>
       </c>
       <c r="J67" s="20" t="str">
-        <f>CONCATENATE("""",A67,"""",":","""",D67,"""",",")</f>
-        <v>"AP_NAME":"El nombre de la red WI-FI",</v>
+        <f t="shared" si="21"/>
+        <v>"NTP":"Dirección del servidor NTP",</v>
       </c>
       <c r="K67" s="20" t="str">
-        <f>CONCATENATE("""",A67,"""",":","""",E67,"""",",")</f>
-        <v>"AP_NAME":"Nazwa sieci WI-FI",</v>
+        <f t="shared" si="22"/>
+        <v>"NTP":"Adres serwera NTP",</v>
       </c>
       <c r="L67" s="20" t="str">
-        <f>CONCATENATE("""",A67,"""",":","""",F67,"""",",")</f>
-        <v>"AP_NAME":"Le nom du réseau WI-FI",</v>
+        <f t="shared" si="23"/>
+        <v>"NTP":"Adresse du serveur NTP",</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.75" customHeight="1">
       <c r="A68" s="16" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="F68" s="30" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G68" s="18"/>
       <c r="H68" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>"REBOOTE":"Reboot the device",</v>
+        <f t="shared" si="19"/>
+        <v>"AP":"Access point",</v>
       </c>
       <c r="I68" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>"REBOOTE":"Перезавантажити пристрій",</v>
+        <f t="shared" si="20"/>
+        <v>"AP":"Точка доступу",</v>
       </c>
       <c r="J68" s="20" t="str">
-        <f>CONCATENATE("""",A68,"""",":","""",D68,"""",",")</f>
-        <v>"REBOOTE":"Reiniciar el dispositivo",</v>
+        <f t="shared" si="21"/>
+        <v>"AP":"Punto de acceso",</v>
       </c>
       <c r="K68" s="20" t="str">
-        <f>CONCATENATE("""",A68,"""",":","""",E68,"""",",")</f>
-        <v>"REBOOTE":"Uruchom ponownie urządzenie",</v>
+        <f t="shared" si="22"/>
+        <v>"AP":"Punkt dostępu",</v>
       </c>
       <c r="L68" s="20" t="str">
-        <f>CONCATENATE("""",A68,"""",":","""",F68,"""",",")</f>
-        <v>"REBOOTE":"Redémarrez l'appareil",</v>
+        <f t="shared" si="23"/>
+        <v>"AP":"Point d'accès",</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.75" customHeight="1">
       <c r="A69" s="16" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="F69" s="30" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G69" s="18"/>
       <c r="H69" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>"UPDATE":"Software update",</v>
+        <f t="shared" si="19"/>
+        <v>"AP_IP":"In access point mode, the IP address of the device",</v>
       </c>
       <c r="I69" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>"UPDATE":"Оновлення ПЗ",</v>
+        <f t="shared" si="20"/>
+        <v>"AP_IP":"У режимі точки доступу IP адреса пристрою",</v>
       </c>
       <c r="J69" s="20" t="str">
-        <f>CONCATENATE("""",A69,"""",":","""",D69,"""",",")</f>
-        <v>"UPDATE":"Actualización de software",</v>
+        <f t="shared" si="21"/>
+        <v>"AP_IP":"En el modo de punto de acceso, la dirección IP del dispositivo",</v>
       </c>
       <c r="K69" s="20" t="str">
-        <f>CONCATENATE("""",A69,"""",":","""",E69,"""",",")</f>
-        <v>"UPDATE":"Aktualizacja oprogramowania",</v>
+        <f t="shared" si="22"/>
+        <v>"AP_IP":"W trybie punktu dostępu adres IP urządzenia",</v>
       </c>
       <c r="L69" s="20" t="str">
-        <f>CONCATENATE("""",A69,"""",":","""",F69,"""",",")</f>
-        <v>"UPDATE":"Mise à jour logicielle",</v>
+        <f t="shared" si="23"/>
+        <v>"AP_IP":"En mode point d'accès, l'adresse IP de l'appareil",</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.75" customHeight="1">
       <c r="A70" s="16" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F70" s="30" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G70" s="18"/>
       <c r="H70" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>"MATRIX_TYPE":"Matrix type",</v>
+        <f t="shared" si="19"/>
+        <v>"AP_NAME":"The name of the WI-FI network",</v>
       </c>
       <c r="I70" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>"MATRIX_TYPE":"Тип матриці",</v>
+        <f t="shared" si="20"/>
+        <v>"AP_NAME":"Ім'я WI-FI мережі",</v>
       </c>
       <c r="J70" s="20" t="str">
-        <f>CONCATENATE("""",A70,"""",":","""",D70,"""",",")</f>
-        <v>"MATRIX_TYPE":"tipo de matriz",</v>
+        <f t="shared" si="21"/>
+        <v>"AP_NAME":"El nombre de la red WI-FI",</v>
       </c>
       <c r="K70" s="20" t="str">
-        <f>CONCATENATE("""",A70,"""",":","""",E70,"""",",")</f>
-        <v>"MATRIX_TYPE":"Typ matrycy",</v>
+        <f t="shared" si="22"/>
+        <v>"AP_NAME":"Nazwa sieci WI-FI",</v>
       </c>
       <c r="L70" s="20" t="str">
-        <f>CONCATENATE("""",A70,"""",":","""",F70,"""",",")</f>
-        <v>"MATRIX_TYPE":"Type de matrice",</v>
+        <f t="shared" si="23"/>
+        <v>"AP_NAME":"Le nom du réseau WI-FI",</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.75" customHeight="1">
       <c r="A71" s="16" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="F71" s="30" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G71" s="18"/>
       <c r="H71" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>"MATRIX_ORIEN":"Matrix orientation",</v>
+        <f t="shared" si="19"/>
+        <v>"REBOOTE":"Reboot the device",</v>
       </c>
       <c r="I71" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>"MATRIX_ORIEN":"Орієнтація матриці",</v>
+        <f t="shared" si="20"/>
+        <v>"REBOOTE":"Перезавантажити пристрій",</v>
       </c>
       <c r="J71" s="20" t="str">
-        <f>CONCATENATE("""",A71,"""",":","""",D71,"""",",")</f>
-        <v>"MATRIX_ORIEN":"Orientación de la matriz",</v>
+        <f t="shared" si="21"/>
+        <v>"REBOOTE":"Reiniciar el dispositivo",</v>
       </c>
       <c r="K71" s="20" t="str">
-        <f>CONCATENATE("""",A71,"""",":","""",E71,"""",",")</f>
-        <v>"MATRIX_ORIEN":"Orientacja matrycy",</v>
+        <f t="shared" si="22"/>
+        <v>"REBOOTE":"Uruchom ponownie urządzenie",</v>
       </c>
       <c r="L71" s="20" t="str">
-        <f>CONCATENATE("""",A71,"""",":","""",F71,"""",",")</f>
-        <v>"MATRIX_ORIEN":"Orientation de la matrice",</v>
+        <f t="shared" si="23"/>
+        <v>"REBOOTE":"Redémarrez l'appareil",</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" customHeight="1">
       <c r="A72" s="16" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="F72" s="30" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G72" s="18"/>
       <c r="H72" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>"MAX_CURRENT":"The maximum matrix current",</v>
+        <f t="shared" si="19"/>
+        <v>"UPDATE":"Software update",</v>
       </c>
       <c r="I72" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>"MAX_CURRENT":"Максимальный ток матрицы",</v>
+        <f t="shared" si="20"/>
+        <v>"UPDATE":"Оновлення ПЗ",</v>
       </c>
       <c r="J72" s="20" t="str">
-        <f>CONCATENATE("""",A72,"""",":","""",D72,"""",",")</f>
-        <v>"MAX_CURRENT":"La corriente de matriz máxima",</v>
+        <f t="shared" si="21"/>
+        <v>"UPDATE":"Actualización de software",</v>
       </c>
       <c r="K72" s="20" t="str">
-        <f>CONCATENATE("""",A72,"""",":","""",E72,"""",",")</f>
-        <v>"MAX_CURRENT":"Maksymalny prąd matrycy",</v>
+        <f t="shared" si="22"/>
+        <v>"UPDATE":"Aktualizacja oprogramowania",</v>
       </c>
       <c r="L72" s="20" t="str">
-        <f>CONCATENATE("""",A72,"""",":","""",F72,"""",",")</f>
-        <v>"MAX_CURRENT":"Le courant de matrice maximal",</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
+        <f t="shared" si="23"/>
+        <v>"UPDATE":"Mise à jour logicielle",</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" customHeight="1">
       <c r="A73" s="16" t="s">
-        <v>692</v>
+        <v>319</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>693</v>
+        <v>320</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>694</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>695</v>
-      </c>
-      <c r="E73" s="28" t="s">
-        <v>696</v>
+        <v>321</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>323</v>
       </c>
       <c r="F73" s="30" t="s">
-        <v>697</v>
+        <v>634</v>
       </c>
       <c r="G73" s="18"/>
       <c r="H73" s="16" t="str">
-        <f t="shared" si="10"/>
-        <v>"RESTORE_DEFAULT":"Restore Defaults",</v>
+        <f t="shared" si="19"/>
+        <v>"MATRIX_TYPE":"Matrix type",</v>
       </c>
       <c r="I73" s="19" t="str">
-        <f t="shared" si="11"/>
-        <v>"RESTORE_DEFAULT":"Відновити стандартні налаштування",</v>
+        <f t="shared" si="20"/>
+        <v>"MATRIX_TYPE":"Тип матриці",</v>
       </c>
       <c r="J73" s="20" t="str">
-        <f>CONCATENATE("""",A73,"""",":","""",D73,"""",",")</f>
-        <v>"RESTORE_DEFAULT":"Restaurar valores por defecto",</v>
+        <f t="shared" si="21"/>
+        <v>"MATRIX_TYPE":"tipo de matriz",</v>
       </c>
       <c r="K73" s="20" t="str">
-        <f>CONCATENATE("""",A73,"""",":","""",E73,"""",",")</f>
-        <v>"RESTORE_DEFAULT":"Przywróć domyślne",</v>
+        <f t="shared" si="22"/>
+        <v>"MATRIX_TYPE":"Typ matrycy",</v>
       </c>
       <c r="L73" s="20" t="str">
-        <f>CONCATENATE("""",A73,"""",":","""",F73,"""",",")</f>
-        <v>"RESTORE_DEFAULT":"Restaurer les valeurs par défaut",</v>
+        <f t="shared" si="23"/>
+        <v>"MATRIX_TYPE":"Type de matrice",</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="16"/>
-      <c r="J74" s="20"/>
-      <c r="L74" s="20"/>
+      <c r="A74" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="B74" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="F74" s="30" t="s">
+        <v>635</v>
+      </c>
+      <c r="G74" s="18"/>
+      <c r="H74" s="16" t="str">
+        <f t="shared" si="19"/>
+        <v>"MATRIX_ORIEN":"Matrix orientation",</v>
+      </c>
+      <c r="I74" s="19" t="str">
+        <f t="shared" si="20"/>
+        <v>"MATRIX_ORIEN":"Орієнтація матриці",</v>
+      </c>
+      <c r="J74" s="20" t="str">
+        <f t="shared" si="21"/>
+        <v>"MATRIX_ORIEN":"Orientación de la matriz",</v>
+      </c>
+      <c r="K74" s="20" t="str">
+        <f t="shared" si="22"/>
+        <v>"MATRIX_ORIEN":"Orientacja matrycy",</v>
+      </c>
+      <c r="L74" s="20" t="str">
+        <f t="shared" si="23"/>
+        <v>"MATRIX_ORIEN":"Orientation de la matrice",</v>
+      </c>
     </row>
     <row r="75" spans="1:12" ht="15.75" customHeight="1">
       <c r="A75" s="16" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F75" s="30" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G75" s="18"/>
       <c r="H75" s="16" t="str">
-        <f t="shared" ref="H75:H129" si="12">CONCATENATE("""",A75,"""",":","""",B75,"""",",")</f>
-        <v>"EFFECT":"Effect",</v>
+        <f t="shared" si="19"/>
+        <v>"MAX_CURRENT":"The maximum matrix current",</v>
       </c>
       <c r="I75" s="19" t="str">
-        <f t="shared" ref="I75:I129" si="13">CONCATENATE("""",A75,"""",":","""",C75,"""",",")</f>
-        <v>"EFFECT":"Ефект",</v>
+        <f t="shared" si="20"/>
+        <v>"MAX_CURRENT":"Максимальный ток матрицы",</v>
       </c>
       <c r="J75" s="20" t="str">
-        <f>CONCATENATE("""",A75,"""",":","""",D75,"""",",")</f>
-        <v>"EFFECT":"Efecto",</v>
+        <f t="shared" si="21"/>
+        <v>"MAX_CURRENT":"La corriente de matriz máxima",</v>
       </c>
       <c r="K75" s="20" t="str">
-        <f>CONCATENATE("""",A75,"""",":","""",E75,"""",",")</f>
-        <v>"EFFECT":"Efekt",</v>
+        <f t="shared" si="22"/>
+        <v>"MAX_CURRENT":"Maksymalny prąd matrycy",</v>
       </c>
       <c r="L75" s="20" t="str">
-        <f>CONCATENATE("""",A75,"""",":","""",F75,"""",",")</f>
-        <v>"EFFECT":"Effet",</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1">
+        <f t="shared" si="23"/>
+        <v>"MAX_CURRENT":"Le courant de matrice maximal",</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
       <c r="A76" s="16" t="s">
-        <v>339</v>
+        <v>692</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>340</v>
+        <v>693</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>343</v>
+        <v>694</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>695</v>
+      </c>
+      <c r="E76" s="28" t="s">
+        <v>696</v>
       </c>
       <c r="F76" s="30" t="s">
-        <v>638</v>
+        <v>697</v>
       </c>
       <c r="G76" s="18"/>
       <c r="H76" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"SEL_EFF_CYCLE":"Select effects for Cycle",</v>
+        <f t="shared" si="19"/>
+        <v>"RESTORE_DEFAULT":"Restore Defaults",</v>
       </c>
       <c r="I76" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"SEL_EFF_CYCLE":"Вибрати ефекти для Циклу",</v>
+        <f t="shared" si="20"/>
+        <v>"RESTORE_DEFAULT":"Відновити стандартні налаштування",</v>
       </c>
       <c r="J76" s="20" t="str">
-        <f>CONCATENATE("""",A76,"""",":","""",D76,"""",",")</f>
-        <v>"SEL_EFF_CYCLE":"Seleccionar efectos para Ciclo",</v>
+        <f t="shared" si="21"/>
+        <v>"RESTORE_DEFAULT":"Restaurar valores por defecto",</v>
       </c>
       <c r="K76" s="20" t="str">
-        <f>CONCATENATE("""",A76,"""",":","""",E76,"""",",")</f>
-        <v>"SEL_EFF_CYCLE":"Wybierz efekty dla cyklu",</v>
+        <f t="shared" si="22"/>
+        <v>"RESTORE_DEFAULT":"Przywróć domyślne",</v>
       </c>
       <c r="L76" s="20" t="str">
-        <f>CONCATENATE("""",A76,"""",":","""",F76,"""",",")</f>
-        <v>"SEL_EFF_CYCLE":"Sélectionner les effets pour Cycle",</v>
+        <f t="shared" si="23"/>
+        <v>"RESTORE_DEFAULT":"Restaurer les valeurs par défaut",</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A77" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="F77" s="30" t="s">
-        <v>639</v>
-      </c>
-      <c r="G77" s="18"/>
-      <c r="H77" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"CYCLE_ON":"Cycle ON",</v>
-      </c>
-      <c r="I77" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"CYCLE_ON":"Вкл. Цикл",</v>
-      </c>
-      <c r="J77" s="20" t="str">
-        <f>CONCATENATE("""",A77,"""",":","""",D77,"""",",")</f>
-        <v>"CYCLE_ON":"Ciclo ENCENDIDO",</v>
-      </c>
-      <c r="K77" s="20" t="str">
-        <f>CONCATENATE("""",A77,"""",":","""",E77,"""",",")</f>
-        <v>"CYCLE_ON":"Cykl WŁ.",</v>
-      </c>
-      <c r="L77" s="20" t="str">
-        <f>CONCATENATE("""",A77,"""",":","""",F77,"""",",")</f>
-        <v>"CYCLE_ON":"Cycle MARCHE",</v>
-      </c>
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="16"/>
+      <c r="J77" s="20"/>
+      <c r="L77" s="20"/>
     </row>
     <row r="78" spans="1:12" ht="15.75" customHeight="1">
       <c r="A78" s="16" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="F78" s="30" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G78" s="18"/>
       <c r="H78" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"EFF_CHANGE_TIME":"Effect change time, sec.",</v>
+        <f t="shared" ref="H78:H132" si="24">CONCATENATE("""",A78,"""",":","""",B78,"""",",")</f>
+        <v>"EFFECT":"Effect",</v>
       </c>
       <c r="I78" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"EFF_CHANGE_TIME":"Час зміни ефектів, сек.",</v>
+        <f t="shared" ref="I78:I132" si="25">CONCATENATE("""",A78,"""",":","""",C78,"""",",")</f>
+        <v>"EFFECT":"Ефект",</v>
       </c>
       <c r="J78" s="20" t="str">
-        <f>CONCATENATE("""",A78,"""",":","""",D78,"""",",")</f>
-        <v>"EFF_CHANGE_TIME":"Tiempo de cambio de efecto, seg.",</v>
+        <f t="shared" ref="J78:J109" si="26">CONCATENATE("""",A78,"""",":","""",D78,"""",",")</f>
+        <v>"EFFECT":"Efecto",</v>
       </c>
       <c r="K78" s="20" t="str">
-        <f>CONCATENATE("""",A78,"""",":","""",E78,"""",",")</f>
-        <v>"EFF_CHANGE_TIME":"Czas zmiany efektu, sek.",</v>
+        <f t="shared" ref="K78:K109" si="27">CONCATENATE("""",A78,"""",":","""",E78,"""",",")</f>
+        <v>"EFFECT":"Efekt",</v>
       </c>
       <c r="L78" s="20" t="str">
-        <f>CONCATENATE("""",A78,"""",":","""",F78,"""",",")</f>
-        <v>"EFF_CHANGE_TIME":"Temps de changement d'effet, sec.",</v>
+        <f t="shared" ref="L78:L109" si="28">CONCATENATE("""",A78,"""",":","""",F78,"""",",")</f>
+        <v>"EFFECT":"Effet",</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="15.75" customHeight="1">
       <c r="A79" s="16" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>357</v>
+        <v>341</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>342</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="F79" s="30" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G79" s="18"/>
       <c r="H79" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"RANDOM_TIME":"+ random time to ... sec.",</v>
+        <f t="shared" si="24"/>
+        <v>"SEL_EFF_CYCLE":"Select effects for Cycle",</v>
       </c>
       <c r="I79" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"RANDOM_TIME":"+ випадковий час до ... сек.",</v>
+        <f t="shared" si="25"/>
+        <v>"SEL_EFF_CYCLE":"Вибрати ефекти для Циклу",</v>
       </c>
       <c r="J79" s="20" t="str">
-        <f>CONCATENATE("""",A79,"""",":","""",D79,"""",",")</f>
-        <v>"RANDOM_TIME":",+ tiempo aleatorio hasta ... seg.",</v>
+        <f t="shared" si="26"/>
+        <v>"SEL_EFF_CYCLE":"Seleccionar efectos para Ciclo",</v>
       </c>
       <c r="K79" s="20" t="str">
-        <f>CONCATENATE("""",A79,"""",":","""",E79,"""",",")</f>
-        <v>"RANDOM_TIME":",+ losowy czas do ... sek.",</v>
+        <f t="shared" si="27"/>
+        <v>"SEL_EFF_CYCLE":"Wybierz efekty dla cyklu",</v>
       </c>
       <c r="L79" s="20" t="str">
-        <f>CONCATENATE("""",A79,"""",":","""",F79,"""",",")</f>
-        <v>"RANDOM_TIME":". + temps aléatoire à ... sec.",</v>
+        <f t="shared" si="28"/>
+        <v>"SEL_EFF_CYCLE":"Sélectionner les effets pour Cycle",</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="15.75" customHeight="1">
       <c r="A80" s="16" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="F80" s="31" t="s">
-        <v>642</v>
+        <v>348</v>
+      </c>
+      <c r="F80" s="30" t="s">
+        <v>639</v>
       </c>
       <c r="G80" s="18"/>
       <c r="H80" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"MIX_EFF":"Mix selected effects",</v>
+        <f t="shared" si="24"/>
+        <v>"CYCLE_ON":"Cycle ON",</v>
       </c>
       <c r="I80" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"MIX_EFF":"Перемішати вибрані ефекти",</v>
+        <f t="shared" si="25"/>
+        <v>"CYCLE_ON":"Вкл. Цикл",</v>
       </c>
       <c r="J80" s="20" t="str">
-        <f>CONCATENATE("""",A80,"""",":","""",D80,"""",",")</f>
-        <v>"MIX_EFF":"Mezclar efectos seleccionados",</v>
+        <f t="shared" si="26"/>
+        <v>"CYCLE_ON":"Ciclo ENCENDIDO",</v>
       </c>
       <c r="K80" s="20" t="str">
-        <f>CONCATENATE("""",A80,"""",":","""",E80,"""",",")</f>
-        <v>"MIX_EFF":"Wymieszaj wybrane efekty",</v>
+        <f t="shared" si="27"/>
+        <v>"CYCLE_ON":"Cykl WŁ.",</v>
       </c>
       <c r="L80" s="20" t="str">
-        <f>CONCATENATE("""",A80,"""",":","""",F80,"""",",")</f>
-        <v>"MIX_EFF":"Mélanger les effets sélectionnés",</v>
+        <f t="shared" si="28"/>
+        <v>"CYCLE_ON":"Cycle MARCHE",</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="15.75" customHeight="1">
       <c r="A81" s="16" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="F81" s="30" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G81" s="18"/>
       <c r="H81" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"RANDOM_EFF_PARAM":"Random selection of effects parameters",</v>
+        <f t="shared" si="24"/>
+        <v>"EFF_CHANGE_TIME":"Effect change time, sec.",</v>
       </c>
       <c r="I81" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"RANDOM_EFF_PARAM":"Випадковий вибір параметрів ефектів",</v>
+        <f t="shared" si="25"/>
+        <v>"EFF_CHANGE_TIME":"Час зміни ефектів, сек.",</v>
       </c>
       <c r="J81" s="20" t="str">
-        <f>CONCATENATE("""",A81,"""",":","""",D81,"""",",")</f>
-        <v>"RANDOM_EFF_PARAM":"Selección aleatoria de parámetros de efectos",</v>
+        <f t="shared" si="26"/>
+        <v>"EFF_CHANGE_TIME":"Tiempo de cambio de efecto, seg.",</v>
       </c>
       <c r="K81" s="20" t="str">
-        <f>CONCATENATE("""",A81,"""",":","""",E81,"""",",")</f>
-        <v>"RANDOM_EFF_PARAM":"Losowy wybór parametrów efektów",</v>
+        <f t="shared" si="27"/>
+        <v>"EFF_CHANGE_TIME":"Czas zmiany efektu, sek.",</v>
       </c>
       <c r="L81" s="20" t="str">
-        <f>CONCATENATE("""",A81,"""",":","""",F81,"""",",")</f>
-        <v>"RANDOM_EFF_PARAM":"Sélection aléatoire des paramètres d'effets",</v>
+        <f t="shared" si="28"/>
+        <v>"EFF_CHANGE_TIME":"Temps de changement d'effet, sec.",</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="15.75" customHeight="1">
       <c r="A82" s="16" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>372</v>
+        <v>356</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>357</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G82" s="18"/>
       <c r="H82" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"ON_CYCLE_AFTER_RESTART":"Enable Cycle after lamp restart",</v>
+        <f t="shared" si="24"/>
+        <v>"RANDOM_TIME":"+ random time to ... sec.",</v>
       </c>
       <c r="I82" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"ON_CYCLE_AFTER_RESTART":"Увімк. Цикл після перезапуску лампи",</v>
+        <f t="shared" si="25"/>
+        <v>"RANDOM_TIME":"+ випадковий час до ... сек.",</v>
       </c>
       <c r="J82" s="20" t="str">
-        <f>CONCATENATE("""",A82,"""",":","""",D82,"""",",")</f>
-        <v>"ON_CYCLE_AFTER_RESTART":"Habilitar ciclo después de reiniciar la lámpara",</v>
+        <f t="shared" si="26"/>
+        <v>"RANDOM_TIME":",+ tiempo aleatorio hasta ... seg.",</v>
       </c>
       <c r="K82" s="20" t="str">
-        <f>CONCATENATE("""",A82,"""",":","""",E82,"""",",")</f>
-        <v>"ON_CYCLE_AFTER_RESTART":"Włącz cykl po ponownym uruchomieniu lampy",</v>
+        <f t="shared" si="27"/>
+        <v>"RANDOM_TIME":",+ losowy czas do ... sek.",</v>
       </c>
       <c r="L82" s="20" t="str">
-        <f>CONCATENATE("""",A82,"""",":","""",F82,"""",",")</f>
-        <v>"ON_CYCLE_AFTER_RESTART":"Activer le cycle après le redémarrage de la lampe",</v>
+        <f t="shared" si="28"/>
+        <v>"RANDOM_TIME":". + temps aléatoire à ... sec.",</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="15.75" customHeight="1">
       <c r="A83" s="16" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="F83" s="30" t="s">
-        <v>645</v>
+        <v>363</v>
+      </c>
+      <c r="F83" s="31" t="s">
+        <v>642</v>
       </c>
       <c r="G83" s="18"/>
       <c r="H83" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"BUTTON_ONLY_CYCLE_EFF":"Button - only the effects selected in the Cycle",</v>
+        <f t="shared" si="24"/>
+        <v>"MIX_EFF":"Mix selected effects",</v>
       </c>
       <c r="I83" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"BUTTON_ONLY_CYCLE_EFF":"Кнопкою - лише ефекти, вибрані в Циклі",</v>
+        <f t="shared" si="25"/>
+        <v>"MIX_EFF":"Перемішати вибрані ефекти",</v>
       </c>
       <c r="J83" s="20" t="str">
-        <f>CONCATENATE("""",A83,"""",":","""",D83,"""",",")</f>
-        <v>"BUTTON_ONLY_CYCLE_EFF":"Botón - solo los efectos seleccionados en el Ciclo",</v>
+        <f t="shared" si="26"/>
+        <v>"MIX_EFF":"Mezclar efectos seleccionados",</v>
       </c>
       <c r="K83" s="20" t="str">
-        <f>CONCATENATE("""",A83,"""",":","""",E83,"""",",")</f>
-        <v>"BUTTON_ONLY_CYCLE_EFF":"Przycisk - tylko efekty wybrane w Cyklu",</v>
+        <f t="shared" si="27"/>
+        <v>"MIX_EFF":"Wymieszaj wybrane efekty",</v>
       </c>
       <c r="L83" s="20" t="str">
-        <f>CONCATENATE("""",A83,"""",":","""",F83,"""",",")</f>
-        <v>"BUTTON_ONLY_CYCLE_EFF":"Bouton - uniquement les effets sélectionnés dans le Cycle",</v>
+        <f t="shared" si="28"/>
+        <v>"MIX_EFF":"Mélanger les effets sélectionnés",</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="15.75" customHeight="1">
       <c r="A84" s="16" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="F84" s="30" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G84" s="18"/>
       <c r="H84" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"ORIGINAL_STATE_EFF":"Resetting effects settings to their original state",</v>
+        <f t="shared" si="24"/>
+        <v>"RANDOM_EFF_PARAM":"Random selection of effects parameters",</v>
       </c>
       <c r="I84" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"ORIGINAL_STATE_EFF":"Скидання налаштувань ефектів у початкові",</v>
+        <f t="shared" si="25"/>
+        <v>"RANDOM_EFF_PARAM":"Випадковий вибір параметрів ефектів",</v>
       </c>
       <c r="J84" s="20" t="str">
-        <f>CONCATENATE("""",A84,"""",":","""",D84,"""",",")</f>
-        <v>"ORIGINAL_STATE_EFF":"Restablecimiento de la configuración de efectos a su estado original",</v>
+        <f t="shared" si="26"/>
+        <v>"RANDOM_EFF_PARAM":"Selección aleatoria de parámetros de efectos",</v>
       </c>
       <c r="K84" s="20" t="str">
-        <f>CONCATENATE("""",A84,"""",":","""",E84,"""",",")</f>
-        <v>"ORIGINAL_STATE_EFF":"Resetowanie ustawień efektów do ich pierwotnego stanu",</v>
+        <f t="shared" si="27"/>
+        <v>"RANDOM_EFF_PARAM":"Losowy wybór parametrów efektów",</v>
       </c>
       <c r="L84" s="20" t="str">
-        <f>CONCATENATE("""",A84,"""",":","""",F84,"""",",")</f>
-        <v>"ORIGINAL_STATE_EFF":"Réinitialisation des paramètres d'effets à leur état d'origine",</v>
+        <f t="shared" si="28"/>
+        <v>"RANDOM_EFF_PARAM":"Sélection aléatoire des paramètres d'effets",</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="15.75" customHeight="1">
       <c r="A85" s="16" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="F85" s="30" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="G85" s="18"/>
       <c r="H85" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"SAVE_EFF_TO_FILE":"Save effects settings to a file",</v>
+        <f t="shared" si="24"/>
+        <v>"ON_CYCLE_AFTER_RESTART":"Enable Cycle after lamp restart",</v>
       </c>
       <c r="I85" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"SAVE_EFF_TO_FILE":"Зберегти налаштування ефектів у файл",</v>
+        <f t="shared" si="25"/>
+        <v>"ON_CYCLE_AFTER_RESTART":"Увімк. Цикл після перезапуску лампи",</v>
       </c>
       <c r="J85" s="20" t="str">
-        <f>CONCATENATE("""",A85,"""",":","""",D85,"""",",")</f>
-        <v>"SAVE_EFF_TO_FILE":"Guardar ajustes de efectos en un archivo",</v>
+        <f t="shared" si="26"/>
+        <v>"ON_CYCLE_AFTER_RESTART":"Habilitar ciclo después de reiniciar la lámpara",</v>
       </c>
       <c r="K85" s="20" t="str">
-        <f>CONCATENATE("""",A85,"""",":","""",E85,"""",",")</f>
-        <v>"SAVE_EFF_TO_FILE":"Zapisz ustawienia efektów do pliku",</v>
+        <f t="shared" si="27"/>
+        <v>"ON_CYCLE_AFTER_RESTART":"Włącz cykl po ponownym uruchomieniu lampy",</v>
       </c>
       <c r="L85" s="20" t="str">
-        <f>CONCATENATE("""",A85,"""",":","""",F85,"""",",")</f>
-        <v>"SAVE_EFF_TO_FILE":"Enregistrer les paramètres d'effets dans un fichier",</v>
+        <f t="shared" si="28"/>
+        <v>"ON_CYCLE_AFTER_RESTART":"Activer le cycle après le redémarrage de la lampe",</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="15.75" customHeight="1">
       <c r="A86" s="16" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="F86" s="30" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G86" s="18"/>
       <c r="H86" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"READ_EFF_FROM_FILE":"Read effect settings from a file",</v>
+        <f t="shared" si="24"/>
+        <v>"BUTTON_ONLY_CYCLE_EFF":"Button - only the effects selected in the Cycle",</v>
       </c>
       <c r="I86" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"READ_EFF_FROM_FILE":"Читати налаштування ефектів із файлу",</v>
+        <f t="shared" si="25"/>
+        <v>"BUTTON_ONLY_CYCLE_EFF":"Кнопкою - лише ефекти, вибрані в Циклі",</v>
       </c>
       <c r="J86" s="20" t="str">
-        <f>CONCATENATE("""",A86,"""",":","""",D86,"""",",")</f>
-        <v>"READ_EFF_FROM_FILE":"Leer ajustes de efectos desde un archivo",</v>
+        <f t="shared" si="26"/>
+        <v>"BUTTON_ONLY_CYCLE_EFF":"Botón - solo los efectos seleccionados en el Ciclo",</v>
       </c>
       <c r="K86" s="20" t="str">
-        <f>CONCATENATE("""",A86,"""",":","""",E86,"""",",")</f>
-        <v>"READ_EFF_FROM_FILE":"Odczytaj ustawienia efektów z pliku",</v>
+        <f t="shared" si="27"/>
+        <v>"BUTTON_ONLY_CYCLE_EFF":"Przycisk - tylko efekty wybrane w Cyklu",</v>
       </c>
       <c r="L86" s="20" t="str">
-        <f>CONCATENATE("""",A86,"""",":","""",F86,"""",",")</f>
-        <v>"READ_EFF_FROM_FILE":"Lire les paramètres d'effet à partir d'un fichier",</v>
+        <f t="shared" si="28"/>
+        <v>"BUTTON_ONLY_CYCLE_EFF":"Bouton - uniquement les effets sélectionnés dans le Cycle",</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="15.75" customHeight="1">
       <c r="A87" s="16" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="F87" s="30" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G87" s="18"/>
       <c r="H87" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"RUN_TEXT":"Running line text",</v>
+        <f t="shared" si="24"/>
+        <v>"ORIGINAL_STATE_EFF":"Resetting effects settings to their original state",</v>
       </c>
       <c r="I87" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"RUN_TEXT":"Текст рядка, що біжить",</v>
+        <f t="shared" si="25"/>
+        <v>"ORIGINAL_STATE_EFF":"Скидання налаштувань ефектів у початкові",</v>
       </c>
       <c r="J87" s="20" t="str">
-        <f>CONCATENATE("""",A87,"""",":","""",D87,"""",",")</f>
-        <v>"RUN_TEXT":"Texto de línea continua",</v>
+        <f t="shared" si="26"/>
+        <v>"ORIGINAL_STATE_EFF":"Restablecimiento de la configuración de efectos a su estado original",</v>
       </c>
       <c r="K87" s="20" t="str">
-        <f>CONCATENATE("""",A87,"""",":","""",E87,"""",",")</f>
-        <v>"RUN_TEXT":"Uruchomiony tekst linii",</v>
+        <f t="shared" si="27"/>
+        <v>"ORIGINAL_STATE_EFF":"Resetowanie ustawień efektów do ich pierwotnego stanu",</v>
       </c>
       <c r="L87" s="20" t="str">
-        <f>CONCATENATE("""",A87,"""",":","""",F87,"""",",")</f>
-        <v>"RUN_TEXT":"Texte en ligne courant",</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
+        <f t="shared" si="28"/>
+        <v>"ORIGINAL_STATE_EFF":"Réinitialisation des paramètres d'effets à leur état d'origine",</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="15.75" customHeight="1">
       <c r="A88" s="16" t="s">
-        <v>562</v>
+        <v>384</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>730</v>
-      </c>
-      <c r="C88" s="29" t="s">
-        <v>732</v>
-      </c>
-      <c r="D88" s="28" t="s">
-        <v>734</v>
-      </c>
-      <c r="E88" s="28" t="s">
-        <v>733</v>
-      </c>
-      <c r="F88" s="35" t="s">
-        <v>731</v>
+        <v>385</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="F88" s="30" t="s">
+        <v>647</v>
       </c>
       <c r="G88" s="18"/>
       <c r="H88" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"TEXT_OVER_EFFECTS":"Periodicity of text show over effects 0-60 min. 0 - do not show. More than 60 - show continuously",</v>
-      </c>
-      <c r="I88" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>"TEXT_OVER_EFFECTS":"Періодичність виведення тексту поверх ефектів 0-60 хв. 0 - не виводити. Більше 60 - вивидити безперервно",</v>
+        <f t="shared" si="24"/>
+        <v>"SAVE_EFF_TO_FILE":"Save effects settings to a file",</v>
+      </c>
+      <c r="I88" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"SAVE_EFF_TO_FILE":"Зберегти налаштування ефектів у файл",</v>
       </c>
       <c r="J88" s="20" t="str">
-        <f>CONCATENATE("""",A88,"""",":","""",D88,"""",",")</f>
-        <v>"TEXT_OVER_EFFECTS":"Periodicidad de visualización de texto sobre efectos 0-60 min. 0 - no salida. Más de 60 - para ver continuamente",</v>
+        <f t="shared" si="26"/>
+        <v>"SAVE_EFF_TO_FILE":"Guardar ajustes de efectos en un archivo",</v>
       </c>
       <c r="K88" s="20" t="str">
-        <f>CONCATENATE("""",A88,"""",":","""",E88,"""",",")</f>
-        <v>"TEXT_OVER_EFFECTS":"Częstotliwość wyświetlania tekstu nad efektami 0-60 min. 0 - nie wyprowadzaj. Ponad 60 - do ciągłego oglądania",</v>
+        <f t="shared" si="27"/>
+        <v>"SAVE_EFF_TO_FILE":"Zapisz ustawienia efektów do pliku",</v>
       </c>
       <c r="L88" s="20" t="str">
-        <f>CONCATENATE("""",A88,"""",":","""",F88,"""",",")</f>
-        <v>"TEXT_OVER_EFFECTS":"Périodicité du texte affiché sur les effets 0-60 min. 0 - ne pas afficher. Plus de 60 - afficher en continu",</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
+        <f t="shared" si="28"/>
+        <v>"SAVE_EFF_TO_FILE":"Enregistrer les paramètres d'effets dans un fichier",</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15.75" customHeight="1">
       <c r="A89" s="16" t="s">
-        <v>565</v>
+        <v>389</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>564</v>
-      </c>
-      <c r="C89" s="29" t="s">
-        <v>563</v>
-      </c>
-      <c r="D89" s="28" t="s">
-        <v>566</v>
-      </c>
-      <c r="E89" s="28" t="s">
-        <v>567</v>
-      </c>
-      <c r="F89" s="32" t="s">
-        <v>650</v>
+        <v>390</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="F89" s="30" t="s">
+        <v>648</v>
       </c>
       <c r="G89" s="18"/>
       <c r="H89" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"COLORED_TEXT_BACKGROUND":"Colored text background",</v>
-      </c>
-      <c r="I89" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>"COLORED_TEXT_BACKGROUND":"Кольоровий фон тексту",</v>
+        <f t="shared" si="24"/>
+        <v>"READ_EFF_FROM_FILE":"Read effect settings from a file",</v>
+      </c>
+      <c r="I89" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"READ_EFF_FROM_FILE":"Читати налаштування ефектів із файлу",</v>
       </c>
       <c r="J89" s="20" t="str">
-        <f>CONCATENATE("""",A89,"""",":","""",D89,"""",",")</f>
-        <v>"COLORED_TEXT_BACKGROUND":"Fondo de texto en color",</v>
+        <f t="shared" si="26"/>
+        <v>"READ_EFF_FROM_FILE":"Leer ajustes de efectos desde un archivo",</v>
       </c>
       <c r="K89" s="20" t="str">
-        <f>CONCATENATE("""",A89,"""",":","""",E89,"""",",")</f>
-        <v>"COLORED_TEXT_BACKGROUND":"Kolorowe tło tekstu",</v>
+        <f t="shared" si="27"/>
+        <v>"READ_EFF_FROM_FILE":"Odczytaj ustawienia efektów z pliku",</v>
       </c>
       <c r="L89" s="20" t="str">
-        <f>CONCATENATE("""",A89,"""",":","""",F89,"""",",")</f>
-        <v>"COLORED_TEXT_BACKGROUND":"Arrière-plan de texte coloré",</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
+        <f t="shared" si="28"/>
+        <v>"READ_EFF_FROM_FILE":"Lire les paramètres d'effet à partir d'un fichier",</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15.75" customHeight="1">
       <c r="A90" s="16" t="s">
-        <v>553</v>
+        <v>394</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>555</v>
+        <v>395</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="D90" s="28" t="s">
-        <v>556</v>
-      </c>
-      <c r="E90" s="28" t="s">
-        <v>557</v>
-      </c>
-      <c r="F90" s="32" t="s">
-        <v>651</v>
+        <v>396</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>649</v>
       </c>
       <c r="G90" s="18"/>
       <c r="H90" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"SPEED_TEXT":"Running text output speed",</v>
-      </c>
-      <c r="I90" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>"SPEED_TEXT":"Швидкість виведення рядка, що біжить",</v>
+        <f t="shared" si="24"/>
+        <v>"RUN_TEXT":"Running line text",</v>
+      </c>
+      <c r="I90" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"RUN_TEXT":"Текст рядка, що біжить",</v>
       </c>
       <c r="J90" s="20" t="str">
-        <f>CONCATENATE("""",A90,"""",":","""",D90,"""",",")</f>
-        <v>"SPEED_TEXT":"Velocidad de salida de texto en movimiento",</v>
+        <f t="shared" si="26"/>
+        <v>"RUN_TEXT":"Texto de línea continua",</v>
       </c>
       <c r="K90" s="20" t="str">
-        <f>CONCATENATE("""",A90,"""",":","""",E90,"""",",")</f>
-        <v>"SPEED_TEXT":"Szybkość przewijania tekstu",</v>
+        <f t="shared" si="27"/>
+        <v>"RUN_TEXT":"Uruchomiony tekst linii",</v>
       </c>
       <c r="L90" s="20" t="str">
-        <f>CONCATENATE("""",A90,"""",":","""",F90,"""",",")</f>
-        <v>"SPEED_TEXT":"Vitesse de sortie de ligne en cours d'exécution",</v>
+        <f t="shared" si="28"/>
+        <v>"RUN_TEXT":"Texte en ligne courant",</v>
       </c>
     </row>
     <row r="91" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
       <c r="A91" s="16" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>559</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>698</v>
+        <v>730</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>732</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>561</v>
+        <v>734</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>560</v>
-      </c>
-      <c r="F91" s="32" t="s">
-        <v>652</v>
+        <v>733</v>
+      </c>
+      <c r="F91" s="35" t="s">
+        <v>731</v>
       </c>
       <c r="G91" s="18"/>
       <c r="H91" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"TEXT_COLOR":"Text color",</v>
+        <f t="shared" si="24"/>
+        <v>"TEXT_OVER_EFFECTS":"Periodicity of text show over effects 0-60 min. 0 - do not show. More than 60 - show continuously",</v>
       </c>
       <c r="I91" s="20" t="str">
-        <f t="shared" si="13"/>
-        <v>"TEXT_COLOR":"Колір тексту",</v>
+        <f t="shared" si="25"/>
+        <v>"TEXT_OVER_EFFECTS":"Періодичність виведення тексту поверх ефектів 0-60 хв. 0 - не виводити. Більше 60 - вивидити безперервно",</v>
       </c>
       <c r="J91" s="20" t="str">
-        <f>CONCATENATE("""",A91,"""",":","""",D91,"""",",")</f>
-        <v>"TEXT_COLOR":"Color de texto",</v>
+        <f t="shared" si="26"/>
+        <v>"TEXT_OVER_EFFECTS":"Periodicidad de visualización de texto sobre efectos 0-60 min. 0 - no salida. Más de 60 - para ver continuamente",</v>
       </c>
       <c r="K91" s="20" t="str">
-        <f>CONCATENATE("""",A91,"""",":","""",E91,"""",",")</f>
-        <v>"TEXT_COLOR":"Kolor tekstu",</v>
+        <f t="shared" si="27"/>
+        <v>"TEXT_OVER_EFFECTS":"Częstotliwość wyświetlania tekstu nad efektami 0-60 min. 0 - nie wyprowadzaj. Ponad 60 - do ciągłego oglądania",</v>
       </c>
       <c r="L91" s="20" t="str">
-        <f>CONCATENATE("""",A91,"""",":","""",F91,"""",",")</f>
-        <v>"TEXT_COLOR":"Couleur du texte",</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="15.75" customHeight="1">
+        <f t="shared" si="28"/>
+        <v>"TEXT_OVER_EFFECTS":"Périodicité du texte affiché sur les effets 0-60 min. 0 - ne pas afficher. Plus de 60 - afficher en continu",</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
       <c r="A92" s="16" t="s">
-        <v>399</v>
+        <v>565</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="F92" s="30" t="s">
-        <v>653</v>
+        <v>564</v>
+      </c>
+      <c r="C92" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="E92" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="F92" s="32" t="s">
+        <v>650</v>
       </c>
       <c r="G92" s="18"/>
       <c r="H92" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"PERIOD_RUN_TIME":"Periodicity of time output in a line 0-60 min. 0 - do not display time",</v>
-      </c>
-      <c r="I92" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"PERIOD_RUN_TIME":"Періодичність виведення часу рядком 0-60 хв. 0 - не виводити час",</v>
+        <f t="shared" si="24"/>
+        <v>"COLORED_TEXT_BACKGROUND":"Colored text background",</v>
+      </c>
+      <c r="I92" s="20" t="str">
+        <f t="shared" si="25"/>
+        <v>"COLORED_TEXT_BACKGROUND":"Кольоровий фон тексту",</v>
       </c>
       <c r="J92" s="20" t="str">
-        <f>CONCATENATE("""",A92,"""",":","""",D92,"""",",")</f>
-        <v>"PERIOD_RUN_TIME":"Periodicidad de salida de tiempo en una línea 0-60 min. 0 - no muestra la hora",</v>
+        <f t="shared" si="26"/>
+        <v>"COLORED_TEXT_BACKGROUND":"Fondo de texto en color",</v>
       </c>
       <c r="K92" s="20" t="str">
-        <f>CONCATENATE("""",A92,"""",":","""",E92,"""",",")</f>
-        <v>"PERIOD_RUN_TIME":"Częstotliwość czasu wyprowadzania w linii 0-60 min. 0 - nie wyświetlaj czasu",</v>
+        <f t="shared" si="27"/>
+        <v>"COLORED_TEXT_BACKGROUND":"Kolorowe tło tekstu",</v>
       </c>
       <c r="L92" s="20" t="str">
-        <f>CONCATENATE("""",A92,"""",":","""",F92,"""",",")</f>
-        <v>"PERIOD_RUN_TIME":"Périodicité de sortie de temps dans une ligne 0-60 min. 0 - ne pas afficher l'heure",</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1">
+        <f t="shared" si="28"/>
+        <v>"COLORED_TEXT_BACKGROUND":"Arrière-plan de texte coloré",</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
       <c r="A93" s="16" t="s">
-        <v>404</v>
+        <v>553</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>405</v>
+        <v>555</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="F93" s="30" t="s">
-        <v>654</v>
+        <v>554</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="E93" s="28" t="s">
+        <v>557</v>
+      </c>
+      <c r="F93" s="32" t="s">
+        <v>651</v>
       </c>
       <c r="G93" s="18"/>
       <c r="H93" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"DISPLAY_TIME_LAMP_OFF":"Display the time on a switched-off lamp",</v>
-      </c>
-      <c r="I93" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"DISPLAY_TIME_LAMP_OFF":"Виводити час на вимкненій лампі",</v>
+        <f t="shared" si="24"/>
+        <v>"SPEED_TEXT":"Running text output speed",</v>
+      </c>
+      <c r="I93" s="20" t="str">
+        <f t="shared" si="25"/>
+        <v>"SPEED_TEXT":"Швидкість виведення рядка, що біжить",</v>
       </c>
       <c r="J93" s="20" t="str">
-        <f>CONCATENATE("""",A93,"""",":","""",D93,"""",",")</f>
-        <v>"DISPLAY_TIME_LAMP_OFF":"Mostrar la hora en una lámpara apagada",</v>
+        <f t="shared" si="26"/>
+        <v>"SPEED_TEXT":"Velocidad de salida de texto en movimiento",</v>
       </c>
       <c r="K93" s="20" t="str">
-        <f>CONCATENATE("""",A93,"""",":","""",E93,"""",",")</f>
-        <v>"DISPLAY_TIME_LAMP_OFF":"Wyświetlaj czas na wyłączonej lampie",</v>
+        <f t="shared" si="27"/>
+        <v>"SPEED_TEXT":"Szybkość przewijania tekstu",</v>
       </c>
       <c r="L93" s="20" t="str">
-        <f>CONCATENATE("""",A93,"""",":","""",F93,"""",",")</f>
-        <v>"DISPLAY_TIME_LAMP_OFF":"Afficher l'heure sur une lampe éteinte",</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1">
+        <f t="shared" si="28"/>
+        <v>"SPEED_TEXT":"Vitesse de sortie de ligne en cours d'exécution",</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
       <c r="A94" s="16" t="s">
-        <v>409</v>
+        <v>558</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>410</v>
+        <v>559</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="F94" s="30" t="s">
-        <v>655</v>
+        <v>698</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="E94" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="F94" s="32" t="s">
+        <v>652</v>
       </c>
       <c r="G94" s="18"/>
       <c r="H94" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"HOUR_OF_NIGHT":"Hour of transition to night time",</v>
-      </c>
-      <c r="I94" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"HOUR_OF_NIGHT":"Година переходу на нічний час",</v>
+        <f t="shared" si="24"/>
+        <v>"TEXT_COLOR":"Text color",</v>
+      </c>
+      <c r="I94" s="20" t="str">
+        <f t="shared" si="25"/>
+        <v>"TEXT_COLOR":"Колір тексту",</v>
       </c>
       <c r="J94" s="20" t="str">
-        <f>CONCATENATE("""",A94,"""",":","""",D94,"""",",")</f>
-        <v>"HOUR_OF_NIGHT":"Hora de transición a la noche",</v>
+        <f t="shared" si="26"/>
+        <v>"TEXT_COLOR":"Color de texto",</v>
       </c>
       <c r="K94" s="20" t="str">
-        <f>CONCATENATE("""",A94,"""",":","""",E94,"""",",")</f>
-        <v>"HOUR_OF_NIGHT":"Godzina przejścia na porę nocną",</v>
+        <f t="shared" si="27"/>
+        <v>"TEXT_COLOR":"Kolor tekstu",</v>
       </c>
       <c r="L94" s="20" t="str">
-        <f>CONCATENATE("""",A94,"""",":","""",F94,"""",",")</f>
-        <v>"HOUR_OF_NIGHT":"Heure de passage à la nuit",</v>
+        <f t="shared" si="28"/>
+        <v>"TEXT_COLOR":"Couleur du texte",</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="15.75" customHeight="1">
       <c r="A95" s="16" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="F95" s="30" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G95" s="18"/>
       <c r="H95" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"BR_NIGHT":"Brightness at night",</v>
+        <f t="shared" si="24"/>
+        <v>"PERIOD_RUN_TIME":"Periodicity of time output in a line 0-60 min. 0 - do not display time",</v>
       </c>
       <c r="I95" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"BR_NIGHT":"Яскравість у нічний час",</v>
+        <f t="shared" si="25"/>
+        <v>"PERIOD_RUN_TIME":"Періодичність виведення часу рядком 0-60 хв. 0 - не виводити час",</v>
       </c>
       <c r="J95" s="20" t="str">
-        <f>CONCATENATE("""",A95,"""",":","""",D95,"""",",")</f>
-        <v>"BR_NIGHT":"Brillo en la noche",</v>
+        <f t="shared" si="26"/>
+        <v>"PERIOD_RUN_TIME":"Periodicidad de salida de tiempo en una línea 0-60 min. 0 - no muestra la hora",</v>
       </c>
       <c r="K95" s="20" t="str">
-        <f>CONCATENATE("""",A95,"""",":","""",E95,"""",",")</f>
-        <v>"BR_NIGHT":"Jasność w nocy",</v>
+        <f t="shared" si="27"/>
+        <v>"PERIOD_RUN_TIME":"Częstotliwość czasu wyprowadzania w linii 0-60 min. 0 - nie wyświetlaj czasu",</v>
       </c>
       <c r="L95" s="20" t="str">
-        <f>CONCATENATE("""",A95,"""",":","""",F95,"""",",")</f>
-        <v>"BR_NIGHT":"Luminosité la nuit",</v>
+        <f t="shared" si="28"/>
+        <v>"PERIOD_RUN_TIME":"Périodicité de sortie de temps dans une ligne 0-60 min. 0 - ne pas afficher l'heure",</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15.75" customHeight="1">
       <c r="A96" s="16" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="F96" s="30" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G96" s="18"/>
       <c r="H96" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"VOICE_TIME_NIGHT":"Voice the time at night",</v>
+        <f t="shared" si="24"/>
+        <v>"DISPLAY_TIME_LAMP_OFF":"Display the time on a switched-off lamp",</v>
       </c>
       <c r="I96" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"VOICE_TIME_NIGHT":"Озвучувати час уночі",</v>
+        <f t="shared" si="25"/>
+        <v>"DISPLAY_TIME_LAMP_OFF":"Виводити час на вимкненій лампі",</v>
       </c>
       <c r="J96" s="20" t="str">
-        <f>CONCATENATE("""",A96,"""",":","""",D96,"""",",")</f>
-        <v>"VOICE_TIME_NIGHT":"Voz el tiempo en la noche",</v>
+        <f t="shared" si="26"/>
+        <v>"DISPLAY_TIME_LAMP_OFF":"Mostrar la hora en una lámpara apagada",</v>
       </c>
       <c r="K96" s="20" t="str">
-        <f>CONCATENATE("""",A96,"""",":","""",E96,"""",",")</f>
-        <v>"VOICE_TIME_NIGHT":"Wypowiadaj czas w nocy",</v>
+        <f t="shared" si="27"/>
+        <v>"DISPLAY_TIME_LAMP_OFF":"Wyświetlaj czas na wyłączonej lampie",</v>
       </c>
       <c r="L96" s="20" t="str">
-        <f>CONCATENATE("""",A96,"""",":","""",F96,"""",",")</f>
-        <v>"VOICE_TIME_NIGHT":"Exprimez l'heure la nuit",</v>
+        <f t="shared" si="28"/>
+        <v>"DISPLAY_TIME_LAMP_OFF":"Afficher l'heure sur une lampe éteinte",</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="15.75" customHeight="1">
       <c r="A97" s="16" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="F97" s="30" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G97" s="18"/>
       <c r="H97" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"SOUND_VOLUM":"The volume of sounding",</v>
+        <f t="shared" si="24"/>
+        <v>"HOUR_OF_NIGHT":"Hour of transition to night time",</v>
       </c>
       <c r="I97" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"SOUND_VOLUM":"Гучність озвучування",</v>
+        <f t="shared" si="25"/>
+        <v>"HOUR_OF_NIGHT":"Година переходу на нічний час",</v>
       </c>
       <c r="J97" s="20" t="str">
-        <f>CONCATENATE("""",A97,"""",":","""",D97,"""",",")</f>
-        <v>"SOUND_VOLUM":"El volumen de sonido",</v>
+        <f t="shared" si="26"/>
+        <v>"HOUR_OF_NIGHT":"Hora de transición a la noche",</v>
       </c>
       <c r="K97" s="20" t="str">
-        <f>CONCATENATE("""",A97,"""",":","""",E97,"""",",")</f>
-        <v>"SOUND_VOLUM":"Głośność brzmienia",</v>
+        <f t="shared" si="27"/>
+        <v>"HOUR_OF_NIGHT":"Godzina przejścia na porę nocną",</v>
       </c>
       <c r="L97" s="20" t="str">
-        <f>CONCATENATE("""",A97,"""",":","""",F97,"""",",")</f>
-        <v>"SOUND_VOLUM":"Le volume sonore",</v>
+        <f t="shared" si="28"/>
+        <v>"HOUR_OF_NIGHT":"Heure de passage à la nuit",</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="15.75" customHeight="1">
       <c r="A98" s="16" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="F98" s="30" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G98" s="18"/>
       <c r="H98" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"HOUR_OF_DAY":"Hour of transition to day time",</v>
+        <f t="shared" si="24"/>
+        <v>"BR_NIGHT":"Brightness at night",</v>
       </c>
       <c r="I98" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"HOUR_OF_DAY":"Година переходу на денний час",</v>
+        <f t="shared" si="25"/>
+        <v>"BR_NIGHT":"Яскравість у нічний час",</v>
       </c>
       <c r="J98" s="20" t="str">
-        <f>CONCATENATE("""",A98,"""",":","""",D98,"""",",")</f>
-        <v>"HOUR_OF_DAY":"Hora de transición a la hora del día",</v>
+        <f t="shared" si="26"/>
+        <v>"BR_NIGHT":"Brillo en la noche",</v>
       </c>
       <c r="K98" s="20" t="str">
-        <f>CONCATENATE("""",A98,"""",":","""",E98,"""",",")</f>
-        <v>"HOUR_OF_DAY":"Godzina przejścia na czas dzienny",</v>
+        <f t="shared" si="27"/>
+        <v>"BR_NIGHT":"Jasność w nocy",</v>
       </c>
       <c r="L98" s="20" t="str">
-        <f>CONCATENATE("""",A98,"""",":","""",F98,"""",",")</f>
-        <v>"HOUR_OF_DAY":"Heure de passage à l'heure de jour",</v>
+        <f t="shared" si="28"/>
+        <v>"BR_NIGHT":"Luminosité la nuit",</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="15.75" customHeight="1">
       <c r="A99" s="16" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="F99" s="30" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G99" s="18"/>
       <c r="H99" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"BR_DAY":"Brightness during the day",</v>
+        <f t="shared" si="24"/>
+        <v>"VOICE_TIME_NIGHT":"Voice the time at night",</v>
       </c>
       <c r="I99" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"BR_DAY":"Яскравість у денний час",</v>
+        <f t="shared" si="25"/>
+        <v>"VOICE_TIME_NIGHT":"Озвучувати час уночі",</v>
       </c>
       <c r="J99" s="20" t="str">
-        <f>CONCATENATE("""",A99,"""",":","""",D99,"""",",")</f>
-        <v>"BR_DAY":"Brillo durante el día",</v>
+        <f t="shared" si="26"/>
+        <v>"VOICE_TIME_NIGHT":"Voz el tiempo en la noche",</v>
       </c>
       <c r="K99" s="20" t="str">
-        <f>CONCATENATE("""",A99,"""",":","""",E99,"""",",")</f>
-        <v>"BR_DAY":"Jasność w ciągu dnia",</v>
+        <f t="shared" si="27"/>
+        <v>"VOICE_TIME_NIGHT":"Wypowiadaj czas w nocy",</v>
       </c>
       <c r="L99" s="20" t="str">
-        <f>CONCATENATE("""",A99,"""",":","""",F99,"""",",")</f>
-        <v>"BR_DAY":"Luminosité pendant la journée",</v>
+        <f t="shared" si="28"/>
+        <v>"VOICE_TIME_NIGHT":"Exprimez l'heure la nuit",</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="15.75" customHeight="1">
       <c r="A100" s="16" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="F100" s="30" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G100" s="18"/>
       <c r="H100" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"VOICE_TIME_DAY":"Voice the time of day",</v>
+        <f t="shared" si="24"/>
+        <v>"SOUND_VOLUM":"The volume of sounding",</v>
       </c>
       <c r="I100" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"VOICE_TIME_DAY":"Озвучувати час вдень",</v>
+        <f t="shared" si="25"/>
+        <v>"SOUND_VOLUM":"Гучність озвучування",</v>
       </c>
       <c r="J100" s="20" t="str">
-        <f>CONCATENATE("""",A100,"""",":","""",D100,"""",",")</f>
-        <v>"VOICE_TIME_DAY":"Voz de la hora del día",</v>
+        <f t="shared" si="26"/>
+        <v>"SOUND_VOLUM":"El volumen de sonido",</v>
       </c>
       <c r="K100" s="20" t="str">
-        <f>CONCATENATE("""",A100,"""",":","""",E100,"""",",")</f>
-        <v>"VOICE_TIME_DAY":"Wypowiedz porę dnia",</v>
+        <f t="shared" si="27"/>
+        <v>"SOUND_VOLUM":"Głośność brzmienia",</v>
       </c>
       <c r="L100" s="20" t="str">
-        <f>CONCATENATE("""",A100,"""",":","""",F100,"""",",")</f>
-        <v>"VOICE_TIME_DAY":"Voix de l'heure du jour",</v>
+        <f t="shared" si="28"/>
+        <v>"SOUND_VOLUM":"Le volume sonore",</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="15.75" customHeight="1">
       <c r="A101" s="16" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="F101" s="30" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G101" s="18"/>
       <c r="H101" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"TIMER_ON_OFF":"Timer on/off of Lamp",</v>
+        <f t="shared" si="24"/>
+        <v>"HOUR_OF_DAY":"Hour of transition to day time",</v>
       </c>
       <c r="I101" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"TIMER_ON_OFF":"Таймер вкл / відкл лампы.",</v>
+        <f t="shared" si="25"/>
+        <v>"HOUR_OF_DAY":"Година переходу на денний час",</v>
       </c>
       <c r="J101" s="20" t="str">
-        <f>CONCATENATE("""",A101,"""",":","""",D101,"""",",")</f>
-        <v>"TIMER_ON_OFF":"Temporizador de encendido/apagado de la lámpara",</v>
+        <f t="shared" si="26"/>
+        <v>"HOUR_OF_DAY":"Hora de transición a la hora del día",</v>
       </c>
       <c r="K101" s="20" t="str">
-        <f>CONCATENATE("""",A101,"""",":","""",E101,"""",",")</f>
-        <v>"TIMER_ON_OFF":"Włącznik/wyłącznik czasowy lampy",</v>
+        <f t="shared" si="27"/>
+        <v>"HOUR_OF_DAY":"Godzina przejścia na czas dzienny",</v>
       </c>
       <c r="L101" s="20" t="str">
-        <f>CONCATENATE("""",A101,"""",":","""",F101,"""",",")</f>
-        <v>"TIMER_ON_OFF":"Minuterie marche/arrêt de la lampe",</v>
+        <f t="shared" si="28"/>
+        <v>"HOUR_OF_DAY":"Heure de passage à l'heure de jour",</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="15.75" customHeight="1">
       <c r="A102" s="16" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="D102" s="21" t="s">
-        <v>452</v>
+        <v>436</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>437</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="F102" s="30" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G102" s="18"/>
       <c r="H102" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"TIMER_RUN":" 'Run': 'Runing'",</v>
+        <f t="shared" si="24"/>
+        <v>"BR_DAY":"Brightness during the day",</v>
       </c>
       <c r="I102" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"TIMER_RUN":"'Запустити':'Запущено'",</v>
+        <f t="shared" si="25"/>
+        <v>"BR_DAY":"Яскравість у денний час",</v>
       </c>
       <c r="J102" s="20" t="str">
-        <f>CONCATENATE("""",A102,"""",":","""",D102,"""",",")</f>
-        <v>"TIMER_RUN":"Correr': 'Corriendo'",</v>
+        <f t="shared" si="26"/>
+        <v>"BR_DAY":"Brillo durante el día",</v>
       </c>
       <c r="K102" s="20" t="str">
-        <f>CONCATENATE("""",A102,"""",":","""",E102,"""",",")</f>
-        <v>"TIMER_RUN":"„Bieg”: „Bieg”",</v>
+        <f t="shared" si="27"/>
+        <v>"BR_DAY":"Jasność w ciągu dnia",</v>
       </c>
       <c r="L102" s="20" t="str">
-        <f>CONCATENATE("""",A102,"""",":","""",F102,"""",",")</f>
-        <v>"TIMER_RUN":" 'Courir' : 'Lancé'",</v>
+        <f t="shared" si="28"/>
+        <v>"BR_DAY":"Luminosité pendant la journée",</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="15.75" customHeight="1">
       <c r="A103" s="16" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="F103" s="30" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G103" s="18"/>
       <c r="H103" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"BUTTON_ACTIVE":"The button is activated",</v>
+        <f t="shared" si="24"/>
+        <v>"VOICE_TIME_DAY":"Voice the time of day",</v>
       </c>
       <c r="I103" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"BUTTON_ACTIVE":"Кнопка активована",</v>
+        <f t="shared" si="25"/>
+        <v>"VOICE_TIME_DAY":"Озвучувати час вдень",</v>
       </c>
       <c r="J103" s="20" t="str">
-        <f>CONCATENATE("""",A103,"""",":","""",D103,"""",",")</f>
-        <v>"BUTTON_ACTIVE":"El botón está activado",</v>
+        <f t="shared" si="26"/>
+        <v>"VOICE_TIME_DAY":"Voz de la hora del día",</v>
       </c>
       <c r="K103" s="20" t="str">
-        <f>CONCATENATE("""",A103,"""",":","""",E103,"""",",")</f>
-        <v>"BUTTON_ACTIVE":"Przycisk jest aktywny",</v>
+        <f t="shared" si="27"/>
+        <v>"VOICE_TIME_DAY":"Wypowiedz porę dnia",</v>
       </c>
       <c r="L103" s="20" t="str">
-        <f>CONCATENATE("""",A103,"""",":","""",F103,"""",",")</f>
-        <v>"BUTTON_ACTIVE":"Le bouton est activé",</v>
+        <f t="shared" si="28"/>
+        <v>"VOICE_TIME_DAY":"Voix de l'heure du jour",</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="15.75" customHeight="1">
       <c r="A104" s="16" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="F104" s="30" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G104" s="18"/>
       <c r="H104" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"POWER_FAILURE":"Do not turn on after power failure",</v>
+        <f t="shared" si="24"/>
+        <v>"TIMER_ON_OFF":"Timer on/off of Lamp",</v>
       </c>
       <c r="I104" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"POWER_FAILURE":"Не включати після знеструмлення",</v>
+        <f t="shared" si="25"/>
+        <v>"TIMER_ON_OFF":"Таймер вкл / відкл лампы.",</v>
       </c>
       <c r="J104" s="20" t="str">
-        <f>CONCATENATE("""",A104,"""",":","""",D104,"""",",")</f>
-        <v>"POWER_FAILURE":"No encender después de un corte de energía",</v>
+        <f t="shared" si="26"/>
+        <v>"TIMER_ON_OFF":"Temporizador de encendido/apagado de la lámpara",</v>
       </c>
       <c r="K104" s="20" t="str">
-        <f>CONCATENATE("""",A104,"""",":","""",E104,"""",",")</f>
-        <v>"POWER_FAILURE":"Nie włączaj po awarii zasilania",</v>
+        <f t="shared" si="27"/>
+        <v>"TIMER_ON_OFF":"Włącznik/wyłącznik czasowy lampy",</v>
       </c>
       <c r="L104" s="20" t="str">
-        <f>CONCATENATE("""",A104,"""",":","""",F104,"""",",")</f>
-        <v>"POWER_FAILURE":"Ne pas allumer après une panne de courant",</v>
+        <f t="shared" si="28"/>
+        <v>"TIMER_ON_OFF":"Minuterie marche/arrêt de la lampe",</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="15.75" customHeight="1">
       <c r="A105" s="16" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>467</v>
+        <v>451</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>452</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="F105" s="30" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G105" s="18"/>
       <c r="H105" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"DARK_THEME":"Dark theme",</v>
+        <f t="shared" si="24"/>
+        <v>"TIMER_RUN":" 'Run': 'Runing'",</v>
       </c>
       <c r="I105" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"DARK_THEME":"Темна тема",</v>
+        <f t="shared" si="25"/>
+        <v>"TIMER_RUN":"'Запустити':'Запущено'",</v>
       </c>
       <c r="J105" s="20" t="str">
-        <f>CONCATENATE("""",A105,"""",":","""",D105,"""",",")</f>
-        <v>"DARK_THEME":"tema oscuro",</v>
+        <f t="shared" si="26"/>
+        <v>"TIMER_RUN":"Correr': 'Corriendo'",</v>
       </c>
       <c r="K105" s="20" t="str">
-        <f>CONCATENATE("""",A105,"""",":","""",E105,"""",",")</f>
-        <v>"DARK_THEME":"ciemny schemat",</v>
+        <f t="shared" si="27"/>
+        <v>"TIMER_RUN":"„Bieg”: „Bieg”",</v>
       </c>
       <c r="L105" s="20" t="str">
-        <f>CONCATENATE("""",A105,"""",":","""",F105,"""",",")</f>
-        <v>"DARK_THEME":"Thème sombre",</v>
+        <f t="shared" si="28"/>
+        <v>"TIMER_RUN":" 'Courir' : 'Lancé'",</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="15.75" customHeight="1">
       <c r="A106" s="16" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="F106" s="30" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="G106" s="18"/>
       <c r="H106" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"AUTO_TIMER":"Automatic lamp shutdown timer (for the forgetful)",</v>
+        <f t="shared" si="24"/>
+        <v>"BUTTON_ACTIVE":"The button is activated",</v>
       </c>
       <c r="I106" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"AUTO_TIMER":"Автоматичний таймер відключення лампи (для забудькуватих)",</v>
+        <f t="shared" si="25"/>
+        <v>"BUTTON_ACTIVE":"Кнопка активована",</v>
       </c>
       <c r="J106" s="20" t="str">
-        <f>CONCATENATE("""",A106,"""",":","""",D106,"""",",")</f>
-        <v>"AUTO_TIMER":"Temporizador de apagado automático de la lámpara (para los olvidadizos)",</v>
+        <f t="shared" si="26"/>
+        <v>"BUTTON_ACTIVE":"El botón está activado",</v>
       </c>
       <c r="K106" s="20" t="str">
-        <f>CONCATENATE("""",A106,"""",":","""",E106,"""",",")</f>
-        <v>"AUTO_TIMER":"Automatyczny wyłącznik czasowy lampy (dla zapominalskich)",</v>
+        <f t="shared" si="27"/>
+        <v>"BUTTON_ACTIVE":"Przycisk jest aktywny",</v>
       </c>
       <c r="L106" s="20" t="str">
-        <f>CONCATENATE("""",A106,"""",":","""",F106,"""",",")</f>
-        <v>"AUTO_TIMER":"Minuterie d'arrêt automatique de la lampe (pour les oublieux)",</v>
+        <f t="shared" si="28"/>
+        <v>"BUTTON_ACTIVE":"Le bouton est activé",</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="15.75" customHeight="1">
       <c r="A107" s="16" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="E107" s="17" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="F107" s="30" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G107" s="18"/>
       <c r="H107" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"NOT_OFF":"Do not turn off",</v>
+        <f t="shared" si="24"/>
+        <v>"POWER_FAILURE":"Do not turn on after power failure",</v>
       </c>
       <c r="I107" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"NOT_OFF":"Не вимикати",</v>
+        <f t="shared" si="25"/>
+        <v>"POWER_FAILURE":"Не включати після знеструмлення",</v>
       </c>
       <c r="J107" s="20" t="str">
-        <f>CONCATENATE("""",A107,"""",":","""",D107,"""",",")</f>
-        <v>"NOT_OFF":"No apagar",</v>
+        <f t="shared" si="26"/>
+        <v>"POWER_FAILURE":"No encender después de un corte de energía",</v>
       </c>
       <c r="K107" s="20" t="str">
-        <f>CONCATENATE("""",A107,"""",":","""",E107,"""",",")</f>
-        <v>"NOT_OFF":"Nie wyłączać",</v>
+        <f t="shared" si="27"/>
+        <v>"POWER_FAILURE":"Nie włączaj po awarii zasilania",</v>
       </c>
       <c r="L107" s="20" t="str">
-        <f>CONCATENATE("""",A107,"""",":","""",F107,"""",",")</f>
-        <v>"NOT_OFF":"Ne pas eteindre",</v>
+        <f t="shared" si="28"/>
+        <v>"POWER_FAILURE":"Ne pas allumer après une panne de courant",</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="15.75" customHeight="1">
       <c r="A108" s="16" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="F108" s="30" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="G108" s="18"/>
       <c r="H108" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"HOURS":"hours",</v>
+        <f t="shared" si="24"/>
+        <v>"DARK_THEME":"Dark theme",</v>
       </c>
       <c r="I108" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"HOURS":"годин",</v>
+        <f t="shared" si="25"/>
+        <v>"DARK_THEME":"Темна тема",</v>
       </c>
       <c r="J108" s="20" t="str">
-        <f>CONCATENATE("""",A108,"""",":","""",D108,"""",",")</f>
-        <v>"HOURS":"horas",</v>
+        <f t="shared" si="26"/>
+        <v>"DARK_THEME":"tema oscuro",</v>
       </c>
       <c r="K108" s="20" t="str">
-        <f>CONCATENATE("""",A108,"""",":","""",E108,"""",",")</f>
-        <v>"HOURS":"godziny",</v>
+        <f t="shared" si="27"/>
+        <v>"DARK_THEME":"ciemny schemat",</v>
       </c>
       <c r="L108" s="20" t="str">
-        <f>CONCATENATE("""",A108,"""",":","""",F108,"""",",")</f>
-        <v>"HOURS":"heures",</v>
+        <f t="shared" si="28"/>
+        <v>"DARK_THEME":"Thème sombre",</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="15.75" customHeight="1">
       <c r="A109" s="16" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="E109" s="17" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="F109" s="30" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G109" s="18"/>
       <c r="H109" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"HOUR":"hour",</v>
+        <f t="shared" si="24"/>
+        <v>"AUTO_TIMER":"Automatic lamp shutdown timer (for the forgetful)",</v>
       </c>
       <c r="I109" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"HOUR":"година",</v>
+        <f t="shared" si="25"/>
+        <v>"AUTO_TIMER":"Автоматичний таймер відключення лампи (для забудькуватих)",</v>
       </c>
       <c r="J109" s="20" t="str">
-        <f>CONCATENATE("""",A109,"""",":","""",D109,"""",",")</f>
-        <v>"HOUR":"hora",</v>
+        <f t="shared" si="26"/>
+        <v>"AUTO_TIMER":"Temporizador de apagado automático de la lámpara (para los olvidadizos)",</v>
       </c>
       <c r="K109" s="20" t="str">
-        <f>CONCATENATE("""",A109,"""",":","""",E109,"""",",")</f>
-        <v>"HOUR":"godzina",</v>
+        <f t="shared" si="27"/>
+        <v>"AUTO_TIMER":"Automatyczny wyłącznik czasowy lampy (dla zapominalskich)",</v>
       </c>
       <c r="L109" s="20" t="str">
-        <f>CONCATENATE("""",A109,"""",":","""",F109,"""",",")</f>
-        <v>"HOUR":"heure",</v>
+        <f t="shared" si="28"/>
+        <v>"AUTO_TIMER":"Minuterie d'arrêt automatique de la lampe (pour les oublieux)",</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="15.75" customHeight="1">
       <c r="A110" s="16" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E110" s="17" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F110" s="30" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G110" s="18"/>
       <c r="H110" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"HOURS2":"hours",</v>
+        <f t="shared" si="24"/>
+        <v>"NOT_OFF":"Do not turn off",</v>
       </c>
       <c r="I110" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"HOURS2":"години",</v>
+        <f t="shared" si="25"/>
+        <v>"NOT_OFF":"Не вимикати",</v>
       </c>
       <c r="J110" s="20" t="str">
-        <f>CONCATENATE("""",A110,"""",":","""",D110,"""",",")</f>
-        <v>"HOURS2":"horas",</v>
+        <f t="shared" ref="J110:J132" si="29">CONCATENATE("""",A110,"""",":","""",D110,"""",",")</f>
+        <v>"NOT_OFF":"No apagar",</v>
       </c>
       <c r="K110" s="20" t="str">
-        <f>CONCATENATE("""",A110,"""",":","""",E110,"""",",")</f>
-        <v>"HOURS2":"godziny",</v>
+        <f t="shared" ref="K110:K132" si="30">CONCATENATE("""",A110,"""",":","""",E110,"""",",")</f>
+        <v>"NOT_OFF":"Nie wyłączać",</v>
       </c>
       <c r="L110" s="20" t="str">
-        <f>CONCATENATE("""",A110,"""",":","""",F110,"""",",")</f>
-        <v>"HOURS2":"heures",</v>
+        <f t="shared" ref="L110:L132" si="31">CONCATENATE("""",A110,"""",":","""",F110,"""",",")</f>
+        <v>"NOT_OFF":"Ne pas eteindre",</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="15.75" customHeight="1">
       <c r="A111" s="16" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="E111" s="17" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F111" s="30" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="G111" s="18"/>
       <c r="H111" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"CONTROL_SEVERAL_LAMPS":"Control of several lamps",</v>
+        <f t="shared" si="24"/>
+        <v>"HOURS":"hours",</v>
       </c>
       <c r="I111" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"CONTROL_SEVERAL_LAMPS":"Управління кількома лампами",</v>
+        <f t="shared" si="25"/>
+        <v>"HOURS":"годин",</v>
       </c>
       <c r="J111" s="20" t="str">
-        <f>CONCATENATE("""",A111,"""",":","""",D111,"""",",")</f>
-        <v>"CONTROL_SEVERAL_LAMPS":"Control de varias lámparas",</v>
+        <f t="shared" si="29"/>
+        <v>"HOURS":"horas",</v>
       </c>
       <c r="K111" s="20" t="str">
-        <f>CONCATENATE("""",A111,"""",":","""",E111,"""",",")</f>
-        <v>"CONTROL_SEVERAL_LAMPS":"Sterowanie kilkoma lampami",</v>
+        <f t="shared" si="30"/>
+        <v>"HOURS":"godziny",</v>
       </c>
       <c r="L111" s="20" t="str">
-        <f>CONCATENATE("""",A111,"""",":","""",F111,"""",",")</f>
-        <v>"CONTROL_SEVERAL_LAMPS":"Commande de plusieurs lampes",</v>
+        <f t="shared" si="31"/>
+        <v>"HOURS":"heures",</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="15.75" customHeight="1">
       <c r="A112" s="16" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="E112" s="17" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="F112" s="30" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G112" s="18"/>
       <c r="H112" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"SOUND_EFF_SET":"Sound effects settings",</v>
+        <f t="shared" si="24"/>
+        <v>"HOUR":"hour",</v>
       </c>
       <c r="I112" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"SOUND_EFF_SET":"Налаштування озвучування ефектів",</v>
+        <f t="shared" si="25"/>
+        <v>"HOUR":"година",</v>
       </c>
       <c r="J112" s="20" t="str">
-        <f>CONCATENATE("""",A112,"""",":","""",D112,"""",",")</f>
-        <v>"SOUND_EFF_SET":"Ajustes de efectos de sonido",</v>
+        <f t="shared" si="29"/>
+        <v>"HOUR":"hora",</v>
       </c>
       <c r="K112" s="20" t="str">
-        <f>CONCATENATE("""",A112,"""",":","""",E112,"""",",")</f>
-        <v>"SOUND_EFF_SET":"Ustawienia efektów dźwiękowych",</v>
+        <f t="shared" si="30"/>
+        <v>"HOUR":"godzina",</v>
       </c>
       <c r="L112" s="20" t="str">
-        <f>CONCATENATE("""",A112,"""",":","""",F112,"""",",")</f>
-        <v>"SOUND_EFF_SET":"Paramètres des effets sonores",</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
+        <f t="shared" si="31"/>
+        <v>"HOUR":"heure",</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="15.75" customHeight="1">
       <c r="A113" s="16" t="s">
-        <v>686</v>
+        <v>489</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>687</v>
+        <v>480</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>691</v>
-      </c>
-      <c r="D113" s="28" t="s">
-        <v>690</v>
-      </c>
-      <c r="E113" s="28" t="s">
-        <v>689</v>
+        <v>490</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>483</v>
       </c>
       <c r="F113" s="30" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="G113" s="18"/>
       <c r="H113" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"HARDWARE":"Hardware settings",</v>
+        <f t="shared" si="24"/>
+        <v>"HOURS2":"hours",</v>
       </c>
       <c r="I113" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"HARDWARE":"Налаштування обладнання",</v>
+        <f t="shared" si="25"/>
+        <v>"HOURS2":"години",</v>
       </c>
       <c r="J113" s="20" t="str">
-        <f>CONCATENATE("""",A113,"""",":","""",D113,"""",",")</f>
-        <v>"HARDWARE":"Configuración de hardware",</v>
+        <f t="shared" si="29"/>
+        <v>"HOURS2":"horas",</v>
       </c>
       <c r="K113" s="20" t="str">
-        <f>CONCATENATE("""",A113,"""",":","""",E113,"""",",")</f>
-        <v>"HARDWARE":"Ustawienia sprzętu",</v>
+        <f t="shared" si="30"/>
+        <v>"HOURS2":"godziny",</v>
       </c>
       <c r="L113" s="20" t="str">
-        <f>CONCATENATE("""",A113,"""",":","""",F113,"""",",")</f>
-        <v>"HARDWARE":"Paramètres matériels",</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" s="25" customFormat="1" ht="15" customHeight="1">
+        <f t="shared" si="31"/>
+        <v>"HOURS2":"heures",</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="15.75" customHeight="1">
       <c r="A114" s="16" t="s">
-        <v>568</v>
+        <v>491</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>569</v>
+        <v>492</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>570</v>
-      </c>
-      <c r="D114" s="28" t="s">
-        <v>571</v>
-      </c>
-      <c r="E114" s="28" t="s">
-        <v>572</v>
+        <v>493</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>495</v>
       </c>
       <c r="F114" s="30" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="G114" s="18"/>
       <c r="H114" s="16" t="str">
-        <f t="shared" ref="H114" si="14">CONCATENATE("""",A114,"""",":","""",B114,"""",",")</f>
-        <v>"FS_EDITOR":"File System Editor",</v>
+        <f t="shared" si="24"/>
+        <v>"CONTROL_SEVERAL_LAMPS":"Control of several lamps",</v>
       </c>
       <c r="I114" s="19" t="str">
-        <f t="shared" ref="I114" si="15">CONCATENATE("""",A114,"""",":","""",C114,"""",",")</f>
-        <v>"FS_EDITOR":"Редактор файлової системи",</v>
+        <f t="shared" si="25"/>
+        <v>"CONTROL_SEVERAL_LAMPS":"Управління кількома лампами",</v>
       </c>
       <c r="J114" s="20" t="str">
-        <f>CONCATENATE("""",A114,"""",":","""",D114,"""",",")</f>
-        <v>"FS_EDITOR":"Editor del sistema de archivos",</v>
+        <f t="shared" si="29"/>
+        <v>"CONTROL_SEVERAL_LAMPS":"Control de varias lámparas",</v>
       </c>
       <c r="K114" s="20" t="str">
-        <f>CONCATENATE("""",A114,"""",":","""",E114,"""",",")</f>
-        <v>"FS_EDITOR":"Edytor systemu plików",</v>
+        <f t="shared" si="30"/>
+        <v>"CONTROL_SEVERAL_LAMPS":"Sterowanie kilkoma lampami",</v>
       </c>
       <c r="L114" s="20" t="str">
-        <f>CONCATENATE("""",A114,"""",":","""",F114,"""",",")</f>
-        <v>"FS_EDITOR":"Éditeur de système de fichiers",</v>
+        <f t="shared" si="31"/>
+        <v>"CONTROL_SEVERAL_LAMPS":"Commande de plusieurs lampes",</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="15.75" customHeight="1">
       <c r="A115" s="16" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E115" s="17" t="s">
-        <v>505</v>
-      </c>
-      <c r="F115" s="32" t="s">
-        <v>673</v>
+        <v>500</v>
+      </c>
+      <c r="F115" s="30" t="s">
+        <v>672</v>
       </c>
       <c r="G115" s="18"/>
       <c r="H115" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"SNAKE":"Snake",</v>
+        <f t="shared" si="24"/>
+        <v>"SOUND_EFF_SET":"Sound effects settings",</v>
       </c>
       <c r="I115" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"SNAKE":"Змійка",</v>
+        <f t="shared" si="25"/>
+        <v>"SOUND_EFF_SET":"Налаштування озвучування ефектів",</v>
       </c>
       <c r="J115" s="20" t="str">
-        <f>CONCATENATE("""",A115,"""",":","""",D115,"""",",")</f>
-        <v>"SNAKE":"Serpiente",</v>
+        <f t="shared" si="29"/>
+        <v>"SOUND_EFF_SET":"Ajustes de efectos de sonido",</v>
       </c>
       <c r="K115" s="20" t="str">
-        <f>CONCATENATE("""",A115,"""",":","""",E115,"""",",")</f>
-        <v>"SNAKE":"Wąż",</v>
+        <f t="shared" si="30"/>
+        <v>"SOUND_EFF_SET":"Ustawienia efektów dźwiękowych",</v>
       </c>
       <c r="L115" s="20" t="str">
-        <f>CONCATENATE("""",A115,"""",":","""",F115,"""",",")</f>
-        <v>"SNAKE":"Serpent",</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="15.75" customHeight="1">
+        <f t="shared" si="31"/>
+        <v>"SOUND_EFF_SET":"Paramètres des effets sonores",</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
       <c r="A116" s="16" t="s">
-        <v>506</v>
+        <v>686</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>507</v>
+        <v>687</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>509</v>
-      </c>
-      <c r="E116" s="17" t="s">
-        <v>510</v>
+        <v>691</v>
+      </c>
+      <c r="D116" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="E116" s="28" t="s">
+        <v>689</v>
       </c>
       <c r="F116" s="30" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="G116" s="18"/>
       <c r="H116" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"PARALLEL":"Parallel",</v>
+        <f t="shared" si="24"/>
+        <v>"HARDWARE":"Hardware settings",</v>
       </c>
       <c r="I116" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"PARALLEL":"Паралельна",</v>
+        <f t="shared" si="25"/>
+        <v>"HARDWARE":"Налаштування обладнання",</v>
       </c>
       <c r="J116" s="20" t="str">
-        <f>CONCATENATE("""",A116,"""",":","""",D116,"""",",")</f>
-        <v>"PARALLEL":"Paralela",</v>
+        <f t="shared" si="29"/>
+        <v>"HARDWARE":"Configuración de hardware",</v>
       </c>
       <c r="K116" s="20" t="str">
-        <f>CONCATENATE("""",A116,"""",":","""",E116,"""",",")</f>
-        <v>"PARALLEL":"Równoległy",</v>
+        <f t="shared" si="30"/>
+        <v>"HARDWARE":"Ustawienia sprzętu",</v>
       </c>
       <c r="L116" s="20" t="str">
-        <f>CONCATENATE("""",A116,"""",":","""",F116,"""",",")</f>
-        <v>"PARALLEL":"Parallèle",</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A117" s="23" t="s">
-        <v>511</v>
+        <f t="shared" si="31"/>
+        <v>"HARDWARE":"Paramètres matériels",</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" s="25" customFormat="1" ht="15" customHeight="1">
+      <c r="A117" s="16" t="s">
+        <v>568</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="E117" s="17" t="s">
-        <v>515</v>
+        <v>570</v>
+      </c>
+      <c r="D117" s="28" t="s">
+        <v>571</v>
+      </c>
+      <c r="E117" s="28" t="s">
+        <v>572</v>
       </c>
       <c r="F117" s="30" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="G117" s="18"/>
       <c r="H117" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"0_0":"LL corner - to the right",</v>
+        <f t="shared" ref="H117" si="32">CONCATENATE("""",A117,"""",":","""",B117,"""",",")</f>
+        <v>"FS_EDITOR":"File System Editor",</v>
       </c>
       <c r="I117" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"0_0":"Кут ЛН - вправо",</v>
+        <f t="shared" ref="I117" si="33">CONCATENATE("""",A117,"""",":","""",C117,"""",",")</f>
+        <v>"FS_EDITOR":"Редактор файлової системи",</v>
       </c>
       <c r="J117" s="20" t="str">
-        <f>CONCATENATE("""",A117,"""",":","""",D117,"""",",")</f>
-        <v>"0_0":"Esquina LL - a la derecha",</v>
+        <f t="shared" si="29"/>
+        <v>"FS_EDITOR":"Editor del sistema de archivos",</v>
       </c>
       <c r="K117" s="20" t="str">
-        <f>CONCATENATE("""",A117,"""",":","""",E117,"""",",")</f>
-        <v>"0_0":"Narożnik LL - w prawo",</v>
+        <f t="shared" si="30"/>
+        <v>"FS_EDITOR":"Edytor systemu plików",</v>
       </c>
       <c r="L117" s="20" t="str">
-        <f>CONCATENATE("""",A117,"""",":","""",F117,"""",",")</f>
-        <v>"0_0":"Coin LL - à droite",</v>
+        <f t="shared" si="31"/>
+        <v>"FS_EDITOR":"Éditeur de système de fichiers",</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A118" s="23" t="s">
-        <v>516</v>
+      <c r="A118" s="16" t="s">
+        <v>501</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="E118" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="F118" s="30" t="s">
-        <v>676</v>
+        <v>505</v>
+      </c>
+      <c r="F118" s="32" t="s">
+        <v>673</v>
       </c>
       <c r="G118" s="18"/>
       <c r="H118" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"0_1":"LL corner - up",</v>
+        <f t="shared" si="24"/>
+        <v>"SNAKE":"Snake",</v>
       </c>
       <c r="I118" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"0_1":"Кут ЛН - вгору",</v>
+        <f t="shared" si="25"/>
+        <v>"SNAKE":"Змійка",</v>
       </c>
       <c r="J118" s="20" t="str">
-        <f>CONCATENATE("""",A118,"""",":","""",D118,"""",",")</f>
-        <v>"0_1":"Esquina LL - arriba",</v>
+        <f t="shared" si="29"/>
+        <v>"SNAKE":"Serpiente",</v>
       </c>
       <c r="K118" s="20" t="str">
-        <f>CONCATENATE("""",A118,"""",":","""",E118,"""",",")</f>
-        <v>"0_1":"Narożnik LL - do góry",</v>
+        <f t="shared" si="30"/>
+        <v>"SNAKE":"Wąż",</v>
       </c>
       <c r="L118" s="20" t="str">
-        <f>CONCATENATE("""",A118,"""",":","""",F118,"""",",")</f>
-        <v>"0_1":"Coin LL - vers le haut",</v>
+        <f t="shared" si="31"/>
+        <v>"SNAKE":"Serpent",</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A119" s="23" t="s">
-        <v>521</v>
+      <c r="A119" s="16" t="s">
+        <v>506</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="E119" s="17" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="F119" s="30" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G119" s="18"/>
       <c r="H119" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"1_0":"UL corner -  to the right",</v>
+        <f t="shared" si="24"/>
+        <v>"PARALLEL":"Parallel",</v>
       </c>
       <c r="I119" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"1_0":"Кут ЛВ - вправо",</v>
+        <f t="shared" si="25"/>
+        <v>"PARALLEL":"Паралельна",</v>
       </c>
       <c r="J119" s="20" t="str">
-        <f>CONCATENATE("""",A119,"""",":","""",D119,"""",",")</f>
-        <v>"1_0":"Esquina UL - a la derecha",</v>
+        <f t="shared" si="29"/>
+        <v>"PARALLEL":"Paralela",</v>
       </c>
       <c r="K119" s="20" t="str">
-        <f>CONCATENATE("""",A119,"""",":","""",E119,"""",",")</f>
-        <v>"1_0":"Narożnik UL - w prawo",</v>
+        <f t="shared" si="30"/>
+        <v>"PARALLEL":"Równoległy",</v>
       </c>
       <c r="L119" s="20" t="str">
-        <f>CONCATENATE("""",A119,"""",":","""",F119,"""",",")</f>
-        <v>"1_0":"Coin UL - à droite",</v>
+        <f t="shared" si="31"/>
+        <v>"PARALLEL":"Parallèle",</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="15.75" customHeight="1">
       <c r="A120" s="23" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="E120" s="17" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="F120" s="30" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G120" s="18"/>
       <c r="H120" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"1_3":"UL corner - down",</v>
+        <f t="shared" si="24"/>
+        <v>"0_0":"LL corner - to the right",</v>
       </c>
       <c r="I120" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"1_3":"Кут ЛВ - вниз",</v>
+        <f t="shared" si="25"/>
+        <v>"0_0":"Кут ЛН - вправо",</v>
       </c>
       <c r="J120" s="20" t="str">
-        <f>CONCATENATE("""",A120,"""",":","""",D120,"""",",")</f>
-        <v>"1_3":"Esquina UL - abajo",</v>
+        <f t="shared" si="29"/>
+        <v>"0_0":"Esquina LL - a la derecha",</v>
       </c>
       <c r="K120" s="20" t="str">
-        <f>CONCATENATE("""",A120,"""",":","""",E120,"""",",")</f>
-        <v>"1_3":"Narożnik UL - dół",</v>
+        <f t="shared" si="30"/>
+        <v>"0_0":"Narożnik LL - w prawo",</v>
       </c>
       <c r="L120" s="20" t="str">
-        <f>CONCATENATE("""",A120,"""",":","""",F120,"""",",")</f>
-        <v>"1_3":"Coin UL - vers le bas",</v>
+        <f t="shared" si="31"/>
+        <v>"0_0":"Coin LL - à droite",</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="15.75" customHeight="1">
       <c r="A121" s="23" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="F121" s="30" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G121" s="18"/>
       <c r="H121" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"2_2":"UR corner - to the  left",</v>
+        <f t="shared" si="24"/>
+        <v>"0_1":"LL corner - up",</v>
       </c>
       <c r="I121" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"2_2":"Кут ПВ - вліво",</v>
+        <f t="shared" si="25"/>
+        <v>"0_1":"Кут ЛН - вгору",</v>
       </c>
       <c r="J121" s="20" t="str">
-        <f>CONCATENATE("""",A121,"""",":","""",D121,"""",",")</f>
-        <v>"2_2":"Esquina UR - a la izquierda",</v>
+        <f t="shared" si="29"/>
+        <v>"0_1":"Esquina LL - arriba",</v>
       </c>
       <c r="K121" s="20" t="str">
-        <f>CONCATENATE("""",A121,"""",":","""",E121,"""",",")</f>
-        <v>"2_2":"Narożnik UR - w lewo",</v>
+        <f t="shared" si="30"/>
+        <v>"0_1":"Narożnik LL - do góry",</v>
       </c>
       <c r="L121" s="20" t="str">
-        <f>CONCATENATE("""",A121,"""",":","""",F121,"""",",")</f>
-        <v>"2_2":"Coin UR - à gauche",</v>
+        <f t="shared" si="31"/>
+        <v>"0_1":"Coin LL - vers le haut",</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="15.75" customHeight="1">
       <c r="A122" s="23" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="E122" s="17" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="F122" s="30" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G122" s="18"/>
       <c r="H122" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"2_3":"UR corner - down",</v>
+        <f t="shared" si="24"/>
+        <v>"1_0":"UL corner -  to the right",</v>
       </c>
       <c r="I122" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"2_3":"Кут ПВ - вниз",</v>
+        <f t="shared" si="25"/>
+        <v>"1_0":"Кут ЛВ - вправо",</v>
       </c>
       <c r="J122" s="20" t="str">
-        <f>CONCATENATE("""",A122,"""",":","""",D122,"""",",")</f>
-        <v>"2_3":"Esquina UR - abajo",</v>
+        <f t="shared" si="29"/>
+        <v>"1_0":"Esquina UL - a la derecha",</v>
       </c>
       <c r="K122" s="20" t="str">
-        <f>CONCATENATE("""",A122,"""",":","""",E122,"""",",")</f>
-        <v>"2_3":"Narożnik UR - dół",</v>
+        <f t="shared" si="30"/>
+        <v>"1_0":"Narożnik UL - w prawo",</v>
       </c>
       <c r="L122" s="20" t="str">
-        <f>CONCATENATE("""",A122,"""",":","""",F122,"""",",")</f>
-        <v>"2_3":"Coin UR - vers le bas",</v>
+        <f t="shared" si="31"/>
+        <v>"1_0":"Coin UL - à droite",</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="15.75" customHeight="1">
       <c r="A123" s="23" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="E123" s="17" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="F123" s="30" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="G123" s="18"/>
       <c r="H123" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"3_2":"LR corner - to the  left",</v>
+        <f t="shared" si="24"/>
+        <v>"1_3":"UL corner - down",</v>
       </c>
       <c r="I123" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"3_2":"Кут ПН - вліво",</v>
+        <f t="shared" si="25"/>
+        <v>"1_3":"Кут ЛВ - вниз",</v>
       </c>
       <c r="J123" s="20" t="str">
-        <f>CONCATENATE("""",A123,"""",":","""",D123,"""",",")</f>
-        <v>"3_2":"Esquina LR - a la izquierda",</v>
+        <f t="shared" si="29"/>
+        <v>"1_3":"Esquina UL - abajo",</v>
       </c>
       <c r="K123" s="20" t="str">
-        <f>CONCATENATE("""",A123,"""",":","""",E123,"""",",")</f>
-        <v>"3_2":"Narożnik LR - w lewo",</v>
+        <f t="shared" si="30"/>
+        <v>"1_3":"Narożnik UL - dół",</v>
       </c>
       <c r="L123" s="20" t="str">
-        <f>CONCATENATE("""",A123,"""",":","""",F123,"""",",")</f>
-        <v>"3_2":"Coin LR - à gauche",</v>
+        <f t="shared" si="31"/>
+        <v>"1_3":"Coin UL - vers le bas",</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="15.75" customHeight="1">
       <c r="A124" s="23" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="F124" s="30" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G124" s="18"/>
       <c r="H124" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"3_1":"LR corner - up",</v>
+        <f t="shared" si="24"/>
+        <v>"2_2":"UR corner - to the  left",</v>
       </c>
       <c r="I124" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"3_1":"Кут ПН - вгору",</v>
+        <f t="shared" si="25"/>
+        <v>"2_2":"Кут ПВ - вліво",</v>
       </c>
       <c r="J124" s="20" t="str">
-        <f>CONCATENATE("""",A124,"""",":","""",D124,"""",",")</f>
-        <v>"3_1":"Esquina LR - arriba",</v>
+        <f t="shared" si="29"/>
+        <v>"2_2":"Esquina UR - a la izquierda",</v>
       </c>
       <c r="K124" s="20" t="str">
-        <f>CONCATENATE("""",A124,"""",":","""",E124,"""",",")</f>
-        <v>"3_1":"Narożnik LR - do góry",</v>
+        <f t="shared" si="30"/>
+        <v>"2_2":"Narożnik UR - w lewo",</v>
       </c>
       <c r="L124" s="20" t="str">
-        <f>CONCATENATE("""",A124,"""",":","""",F124,"""",",")</f>
-        <v>"3_1":"Coin LR - vers le haut",</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
+        <f t="shared" si="31"/>
+        <v>"2_2":"Coin UR - à gauche",</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="15.75" customHeight="1">
       <c r="A125" s="23" t="s">
-        <v>699</v>
+        <v>536</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>705</v>
+        <v>537</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>710</v>
-      </c>
-      <c r="D125" s="28" t="s">
-        <v>720</v>
-      </c>
-      <c r="E125" s="28" t="s">
-        <v>711</v>
+        <v>538</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="E125" s="17" t="s">
+        <v>540</v>
       </c>
       <c r="F125" s="30" t="s">
-        <v>712</v>
+        <v>680</v>
       </c>
       <c r="G125" s="18"/>
       <c r="H125" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"SET_STATIC_IP":"Setings static IP addres",</v>
+        <f t="shared" si="24"/>
+        <v>"2_3":"UR corner - down",</v>
       </c>
       <c r="I125" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"SET_STATIC_IP":"Налаштування статичної IP-адреси",</v>
+        <f t="shared" si="25"/>
+        <v>"2_3":"Кут ПВ - вниз",</v>
       </c>
       <c r="J125" s="20" t="str">
-        <f>CONCATENATE("""",A125,"""",":","""",D125,"""",",")</f>
-        <v>"SET_STATIC_IP":"Configuración de dirección dirección IP",</v>
+        <f t="shared" si="29"/>
+        <v>"2_3":"Esquina UR - abajo",</v>
       </c>
       <c r="K125" s="20" t="str">
-        <f>CONCATENATE("""",A125,"""",":","""",E125,"""",",")</f>
-        <v>"SET_STATIC_IP":"Ustaw statyczny adres IP",</v>
+        <f t="shared" si="30"/>
+        <v>"2_3":"Narożnik UR - dół",</v>
       </c>
       <c r="L125" s="20" t="str">
-        <f>CONCATENATE("""",A125,"""",":","""",F125,"""",",")</f>
-        <v>"SET_STATIC_IP":"Paramètres adresse IP statique",</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
+        <f t="shared" si="31"/>
+        <v>"2_3":"Coin UR - vers le bas",</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="15.75" customHeight="1">
       <c r="A126" s="23" t="s">
-        <v>700</v>
+        <v>541</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>706</v>
+        <v>542</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>721</v>
-      </c>
-      <c r="D126" s="28" t="s">
-        <v>719</v>
-      </c>
-      <c r="E126" s="28" t="s">
-        <v>714</v>
+        <v>543</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="E126" s="17" t="s">
+        <v>545</v>
       </c>
       <c r="F126" s="30" t="s">
-        <v>713</v>
+        <v>681</v>
       </c>
       <c r="G126" s="18"/>
       <c r="H126" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"USE_STATIC_IP":"Use static IP address",</v>
+        <f t="shared" si="24"/>
+        <v>"3_2":"LR corner - to the  left",</v>
       </c>
       <c r="I126" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"USE_STATIC_IP":"Використовувать статичну IP-адресу",</v>
+        <f t="shared" si="25"/>
+        <v>"3_2":"Кут ПН - вліво",</v>
       </c>
       <c r="J126" s="20" t="str">
-        <f>CONCATENATE("""",A126,"""",":","""",D126,"""",",")</f>
-        <v>"USE_STATIC_IP":"Usar dirección dirección  IP",</v>
+        <f t="shared" si="29"/>
+        <v>"3_2":"Esquina LR - a la izquierda",</v>
       </c>
       <c r="K126" s="20" t="str">
-        <f>CONCATENATE("""",A126,"""",":","""",E126,"""",",")</f>
-        <v>"USE_STATIC_IP":"Użyj statycznego adresu IP",</v>
+        <f t="shared" si="30"/>
+        <v>"3_2":"Narożnik LR - w lewo",</v>
       </c>
       <c r="L126" s="20" t="str">
-        <f>CONCATENATE("""",A126,"""",":","""",F126,"""",",")</f>
-        <v>"USE_STATIC_IP":"Utiliser une adresse IP statique",</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
+        <f t="shared" si="31"/>
+        <v>"3_2":"Coin LR - à gauche",</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="15.75" customHeight="1">
       <c r="A127" s="23" t="s">
-        <v>701</v>
+        <v>546</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>707</v>
+        <v>547</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>715</v>
-      </c>
-      <c r="D127" s="28" t="s">
-        <v>718</v>
-      </c>
-      <c r="E127" s="28" t="s">
-        <v>716</v>
+        <v>548</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="E127" s="17" t="s">
+        <v>550</v>
       </c>
       <c r="F127" s="30" t="s">
-        <v>717</v>
+        <v>682</v>
       </c>
       <c r="G127" s="18"/>
       <c r="H127" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"IP":"IP address",</v>
+        <f t="shared" si="24"/>
+        <v>"3_1":"LR corner - up",</v>
       </c>
       <c r="I127" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"IP":"IP-адреса",</v>
+        <f t="shared" si="25"/>
+        <v>"3_1":"Кут ПН - вгору",</v>
       </c>
       <c r="J127" s="20" t="str">
-        <f>CONCATENATE("""",A127,"""",":","""",D127,"""",",")</f>
-        <v>"IP":"Dirección IP",</v>
+        <f t="shared" si="29"/>
+        <v>"3_1":"Esquina LR - arriba",</v>
       </c>
       <c r="K127" s="20" t="str">
-        <f>CONCATENATE("""",A127,"""",":","""",E127,"""",",")</f>
-        <v>"IP":"IP-adresa",</v>
+        <f t="shared" si="30"/>
+        <v>"3_1":"Narożnik LR - do góry",</v>
       </c>
       <c r="L127" s="20" t="str">
-        <f>CONCATENATE("""",A127,"""",":","""",F127,"""",",")</f>
-        <v>"IP":"Adresse IP",</v>
+        <f t="shared" si="31"/>
+        <v>"3_1":"Coin LR - vers le haut",</v>
       </c>
     </row>
     <row r="128" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
       <c r="A128" s="23" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E128" s="28" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="F128" s="30" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="G128" s="18"/>
       <c r="H128" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"GATEWAY":"Gateway",</v>
+        <f t="shared" si="24"/>
+        <v>"SET_STATIC_IP":"Setings static IP addres",</v>
       </c>
       <c r="I128" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"GATEWAY":"Шлюз",</v>
+        <f t="shared" si="25"/>
+        <v>"SET_STATIC_IP":"Налаштування статичної IP-адреси",</v>
       </c>
       <c r="J128" s="20" t="str">
-        <f>CONCATENATE("""",A128,"""",":","""",D128,"""",",")</f>
-        <v>"GATEWAY":"Puerta",</v>
+        <f t="shared" si="29"/>
+        <v>"SET_STATIC_IP":"Configuración de dirección dirección IP",</v>
       </c>
       <c r="K128" s="20" t="str">
-        <f>CONCATENATE("""",A128,"""",":","""",E128,"""",",")</f>
-        <v>"GATEWAY":"Wejście",</v>
+        <f t="shared" si="30"/>
+        <v>"SET_STATIC_IP":"Ustaw statyczny adres IP",</v>
       </c>
       <c r="L128" s="20" t="str">
-        <f>CONCATENATE("""",A128,"""",":","""",F128,"""",",")</f>
-        <v>"GATEWAY":"Passerelle",</v>
+        <f t="shared" si="31"/>
+        <v>"SET_STATIC_IP":"Paramètres adresse IP statique",</v>
       </c>
     </row>
     <row r="129" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
       <c r="A129" s="23" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="E129" s="28" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="F129" s="30" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="G129" s="18"/>
       <c r="H129" s="16" t="str">
-        <f t="shared" si="12"/>
-        <v>"SUBNET":"Subnet",</v>
+        <f t="shared" si="24"/>
+        <v>"USE_STATIC_IP":"Use static IP address",</v>
       </c>
       <c r="I129" s="19" t="str">
-        <f t="shared" si="13"/>
-        <v>"SUBNET":"Маска підмережі",</v>
+        <f t="shared" si="25"/>
+        <v>"USE_STATIC_IP":"Використовувать статичну IP-адресу",</v>
       </c>
       <c r="J129" s="20" t="str">
-        <f>CONCATENATE("""",A129,"""",":","""",D129,"""",",")</f>
-        <v>"SUBNET":"Máscara de subred",</v>
+        <f t="shared" si="29"/>
+        <v>"USE_STATIC_IP":"Usar dirección dirección  IP",</v>
       </c>
       <c r="K129" s="20" t="str">
-        <f>CONCATENATE("""",A129,"""",":","""",E129,"""",",")</f>
-        <v>"SUBNET":"Maska podsieci",</v>
+        <f t="shared" si="30"/>
+        <v>"USE_STATIC_IP":"Użyj statycznego adresu IP",</v>
       </c>
       <c r="L129" s="20" t="str">
-        <f>CONCATENATE("""",A129,"""",":","""",F129,"""",",")</f>
-        <v>"SUBNET":"Masque de sous-réseau",</v>
+        <f t="shared" si="31"/>
+        <v>"USE_STATIC_IP":"Utiliser une adresse IP statique",</v>
       </c>
     </row>
     <row r="130" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
       <c r="A130" s="23" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="E130" s="28" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="F130" s="30" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="G130" s="18"/>
       <c r="H130" s="16" t="str">
-        <f t="shared" ref="H130" si="16">CONCATENATE("""",A130,"""",":","""",B130,"""")</f>
+        <f t="shared" si="24"/>
+        <v>"IP":"IP address",</v>
+      </c>
+      <c r="I130" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"IP":"IP-адреса",</v>
+      </c>
+      <c r="J130" s="20" t="str">
+        <f t="shared" si="29"/>
+        <v>"IP":"Dirección IP",</v>
+      </c>
+      <c r="K130" s="20" t="str">
+        <f t="shared" si="30"/>
+        <v>"IP":"IP-adresa",</v>
+      </c>
+      <c r="L130" s="20" t="str">
+        <f t="shared" si="31"/>
+        <v>"IP":"Adresse IP",</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A131" s="23" t="s">
+        <v>702</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>708</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>725</v>
+      </c>
+      <c r="D131" s="28" t="s">
+        <v>722</v>
+      </c>
+      <c r="E131" s="28" t="s">
+        <v>724</v>
+      </c>
+      <c r="F131" s="30" t="s">
+        <v>723</v>
+      </c>
+      <c r="G131" s="18"/>
+      <c r="H131" s="16" t="str">
+        <f t="shared" si="24"/>
+        <v>"GATEWAY":"Gateway",</v>
+      </c>
+      <c r="I131" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"GATEWAY":"Шлюз",</v>
+      </c>
+      <c r="J131" s="20" t="str">
+        <f t="shared" si="29"/>
+        <v>"GATEWAY":"Puerta",</v>
+      </c>
+      <c r="K131" s="20" t="str">
+        <f t="shared" si="30"/>
+        <v>"GATEWAY":"Wejście",</v>
+      </c>
+      <c r="L131" s="20" t="str">
+        <f t="shared" si="31"/>
+        <v>"GATEWAY":"Passerelle",</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A132" s="23" t="s">
+        <v>703</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>709</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="D132" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="E132" s="28" t="s">
+        <v>727</v>
+      </c>
+      <c r="F132" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="G132" s="18"/>
+      <c r="H132" s="16" t="str">
+        <f t="shared" si="24"/>
+        <v>"SUBNET":"Subnet",</v>
+      </c>
+      <c r="I132" s="19" t="str">
+        <f t="shared" si="25"/>
+        <v>"SUBNET":"Маска підмережі",</v>
+      </c>
+      <c r="J132" s="20" t="str">
+        <f t="shared" si="29"/>
+        <v>"SUBNET":"Máscara de subred",</v>
+      </c>
+      <c r="K132" s="20" t="str">
+        <f t="shared" si="30"/>
+        <v>"SUBNET":"Maska podsieci",</v>
+      </c>
+      <c r="L132" s="20" t="str">
+        <f t="shared" si="31"/>
+        <v>"SUBNET":"Masque de sous-réseau",</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" s="25" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A133" s="23" t="s">
+        <v>704</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="D133" s="28" t="s">
+        <v>704</v>
+      </c>
+      <c r="E133" s="28" t="s">
+        <v>704</v>
+      </c>
+      <c r="F133" s="30" t="s">
+        <v>704</v>
+      </c>
+      <c r="G133" s="18"/>
+      <c r="H133" s="16" t="str">
+        <f t="shared" ref="H133" si="34">CONCATENATE("""",A133,"""",":","""",B133,"""")</f>
         <v>"DNS":"DNS"</v>
       </c>
-      <c r="I130" s="19" t="str">
-        <f t="shared" ref="I130" si="17">CONCATENATE("""",A130,"""",":","""",C130,"""")</f>
+      <c r="I133" s="19" t="str">
+        <f t="shared" ref="I133" si="35">CONCATENATE("""",A133,"""",":","""",C133,"""")</f>
         <v>"DNS":"DNS"</v>
       </c>
-      <c r="J130" s="20" t="str">
-        <f>CONCATENATE("""",A130,"""",":","""",D130,"""")</f>
+      <c r="J133" s="20" t="str">
+        <f>CONCATENATE("""",A133,"""",":","""",D133,"""")</f>
         <v>"DNS":"DNS"</v>
       </c>
-      <c r="K130" s="20" t="str">
-        <f>CONCATENATE("""",A130,"""",":","""",E130,"""")</f>
+      <c r="K133" s="20" t="str">
+        <f>CONCATENATE("""",A133,"""",":","""",E133,"""")</f>
         <v>"DNS":"DNS"</v>
       </c>
-      <c r="L130" s="20" t="str">
-        <f>CONCATENATE("""",A130,"""",":","""",F130,"""")</f>
+      <c r="L133" s="20" t="str">
+        <f>CONCATENATE("""",A133,"""",":","""",F133,"""")</f>
         <v>"DNS":"DNS"</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A131" s="24" t="s">
+    <row r="134" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A134" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B131" s="16"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="16" t="s">
+      <c r="B134" s="16"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="I131" s="19" t="s">
+      <c r="I134" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="J131" s="25" t="s">
+      <c r="J134" s="25" t="s">
         <v>551</v>
       </c>
-      <c r="K131" s="26" t="s">
+      <c r="K134" s="26" t="s">
         <v>551</v>
       </c>
-      <c r="L131" s="26" t="s">
+      <c r="L134" s="26" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15.75" customHeight="1">
-      <c r="G132" s="27"/>
-    </row>
-    <row r="133" spans="1:12" ht="15.75" customHeight="1">
-      <c r="J133" s="28"/>
-    </row>
-    <row r="134" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="135" spans="1:12" ht="15.75" customHeight="1"/>
-    <row r="136" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="135" spans="1:12" ht="15.75" customHeight="1">
+      <c r="G135" s="27"/>
+    </row>
+    <row r="136" spans="1:12" ht="15.75" customHeight="1">
+      <c r="J136" s="28"/>
+    </row>
     <row r="137" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="138" spans="1:12" ht="15.75" customHeight="1"/>
     <row r="139" spans="1:12" ht="15.75" customHeight="1"/>
@@ -7884,18 +8046,9 @@
     <row r="161" spans="11:12" ht="15.75" customHeight="1"/>
     <row r="162" spans="11:12" ht="15.75" customHeight="1"/>
     <row r="163" spans="11:12" ht="15.75" customHeight="1"/>
-    <row r="164" spans="11:12" ht="15.75" customHeight="1">
-      <c r="K164" s="19"/>
-      <c r="L164" s="19"/>
-    </row>
-    <row r="165" spans="11:12" ht="15.75" customHeight="1">
-      <c r="K165" s="19"/>
-      <c r="L165" s="19"/>
-    </row>
-    <row r="166" spans="11:12" ht="15.75" customHeight="1">
-      <c r="K166" s="19"/>
-      <c r="L166" s="19"/>
-    </row>
+    <row r="164" spans="11:12" ht="15.75" customHeight="1"/>
+    <row r="165" spans="11:12" ht="15.75" customHeight="1"/>
+    <row r="166" spans="11:12" ht="15.75" customHeight="1"/>
     <row r="167" spans="11:12" ht="15.75" customHeight="1">
       <c r="K167" s="19"/>
       <c r="L167" s="19"/>
@@ -7948,9 +8101,18 @@
       <c r="K179" s="19"/>
       <c r="L179" s="19"/>
     </row>
-    <row r="180" spans="11:12" ht="15.75" customHeight="1"/>
-    <row r="181" spans="11:12" ht="15.75" customHeight="1"/>
-    <row r="182" spans="11:12" ht="15.75" customHeight="1"/>
+    <row r="180" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K180" s="19"/>
+      <c r="L180" s="19"/>
+    </row>
+    <row r="181" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K181" s="19"/>
+      <c r="L181" s="19"/>
+    </row>
+    <row r="182" spans="11:12" ht="15.75" customHeight="1">
+      <c r="K182" s="19"/>
+      <c r="L182" s="19"/>
+    </row>
     <row r="183" spans="11:12" ht="15.75" customHeight="1"/>
     <row r="184" spans="11:12" ht="15.75" customHeight="1"/>
     <row r="185" spans="11:12" ht="15.75" customHeight="1"/>
@@ -8781,20 +8943,14 @@
     <row r="1010" ht="15.75" customHeight="1"/>
     <row r="1011" ht="15.75" customHeight="1"/>
     <row r="1012" ht="15.75" customHeight="1"/>
+    <row r="1013" ht="15.75" customHeight="1"/>
+    <row r="1014" ht="15.75" customHeight="1"/>
+    <row r="1015" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:M163">
+  <autoFilter ref="A1:M166">
     <filterColumn colId="5"/>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{756D400F-2CFD-41DB-9C03-E2B34BBB318D}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:L150"/>
-      <extLst>
-        <ext uri="GoogleSheetsCustomDataVersion1">
-          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="67239803"/>
-        </ext>
-      </extLst>
-    </customSheetView>
     <customSheetView guid="{0FF40D07-A8D2-4C77-929F-4641FD6EAB78}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <autoFilter ref="A2:L150">
@@ -8916,6 +9072,15 @@
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="300842063"/>
+        </ext>
+      </extLst>
+    </customSheetView>
+    <customSheetView guid="{756D400F-2CFD-41DB-9C03-E2B34BBB318D}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:L150"/>
+      <extLst>
+        <ext uri="GoogleSheetsCustomDataVersion1">
+          <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="67239803"/>
         </ext>
       </extLst>
     </customSheetView>
